--- a/admin/uploads/KATALOG MASJID.xlsx
+++ b/admin/uploads/KATALOG MASJID.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SERV PRO\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A205813F-5310-4B77-BF59-6996459E8F34}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AD4306C-ED1C-4D76-961A-BC7BE16B62FE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1520" uniqueCount="898">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1520" uniqueCount="899">
   <si>
     <t>Wilayah</t>
   </si>
@@ -2787,6 +2787,9 @@
   </si>
   <si>
     <t>Gelong Bilal – Kuala Terengganu,Poskod – 21100, Terengganu – Malaysia</t>
+  </si>
+  <si>
+    <t>062i</t>
   </si>
 </sst>
 </file>
@@ -2888,7 +2891,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2919,6 +2922,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3178,8 +3184,8 @@
   <dimension ref="A1:AA906"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <pane ySplit="1" topLeftCell="A1186" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A352" sqref="A352:K1204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -4040,8 +4046,8 @@
       <c r="G44" s="8"/>
     </row>
     <row r="45" spans="1:7" ht="25.5">
-      <c r="A45" s="3" t="s">
-        <v>157</v>
+      <c r="A45" s="11" t="s">
+        <v>898</v>
       </c>
       <c r="B45" s="4">
         <v>2020</v>
@@ -5488,7 +5494,7 @@
       <c r="F119" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G119" s="11" t="s">
+      <c r="G119" s="12" t="s">
         <v>365</v>
       </c>
     </row>
@@ -5689,7 +5695,7 @@
       <c r="G129" s="8"/>
     </row>
     <row r="130" spans="1:7" ht="25.5">
-      <c r="A130" s="12">
+      <c r="A130" s="13">
         <v>206</v>
       </c>
       <c r="B130" s="4">
@@ -6331,10 +6337,10 @@
       <c r="B162" s="4">
         <v>2021</v>
       </c>
-      <c r="C162" s="13" t="s">
+      <c r="C162" s="14" t="s">
         <v>482</v>
       </c>
-      <c r="D162" s="14" t="s">
+      <c r="D162" s="15" t="s">
         <v>483</v>
       </c>
       <c r="E162" s="6" t="s">
@@ -6352,13 +6358,13 @@
       <c r="B163" s="4">
         <v>2021</v>
       </c>
-      <c r="C163" s="13" t="s">
+      <c r="C163" s="14" t="s">
         <v>484</v>
       </c>
-      <c r="D163" s="14" t="s">
+      <c r="D163" s="15" t="s">
         <v>485</v>
       </c>
-      <c r="E163" s="13" t="s">
+      <c r="E163" s="14" t="s">
         <v>6</v>
       </c>
       <c r="F163" s="7"/>
@@ -6371,13 +6377,13 @@
       <c r="B164" s="4">
         <v>2021</v>
       </c>
-      <c r="C164" s="13" t="s">
+      <c r="C164" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="D164" s="14" t="s">
+      <c r="D164" s="15" t="s">
         <v>486</v>
       </c>
-      <c r="E164" s="13" t="s">
+      <c r="E164" s="14" t="s">
         <v>6</v>
       </c>
       <c r="F164" s="4" t="s">
@@ -6392,13 +6398,13 @@
       <c r="B165" s="4">
         <v>2021</v>
       </c>
-      <c r="C165" s="13" t="s">
+      <c r="C165" s="14" t="s">
         <v>488</v>
       </c>
-      <c r="D165" s="14" t="s">
+      <c r="D165" s="15" t="s">
         <v>489</v>
       </c>
-      <c r="E165" s="13" t="s">
+      <c r="E165" s="14" t="s">
         <v>6</v>
       </c>
       <c r="F165" s="7"/>
@@ -6411,13 +6417,13 @@
       <c r="B166" s="4">
         <v>2021</v>
       </c>
-      <c r="C166" s="13" t="s">
+      <c r="C166" s="14" t="s">
         <v>490</v>
       </c>
-      <c r="D166" s="14" t="s">
+      <c r="D166" s="15" t="s">
         <v>491</v>
       </c>
-      <c r="E166" s="13" t="s">
+      <c r="E166" s="14" t="s">
         <v>6</v>
       </c>
       <c r="F166" s="7"/>
@@ -6430,19 +6436,19 @@
       <c r="B167" s="4">
         <v>2021</v>
       </c>
-      <c r="C167" s="13" t="s">
+      <c r="C167" s="14" t="s">
         <v>492</v>
       </c>
-      <c r="D167" s="14" t="s">
+      <c r="D167" s="15" t="s">
         <v>493</v>
       </c>
-      <c r="E167" s="13" t="s">
+      <c r="E167" s="14" t="s">
         <v>6</v>
       </c>
       <c r="F167" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G167" s="11"/>
+      <c r="G167" s="12"/>
     </row>
     <row r="168" spans="1:7" ht="25.5">
       <c r="A168" s="3" t="s">
@@ -6451,13 +6457,13 @@
       <c r="B168" s="4">
         <v>2021</v>
       </c>
-      <c r="C168" s="13" t="s">
+      <c r="C168" s="14" t="s">
         <v>495</v>
       </c>
-      <c r="D168" s="14" t="s">
+      <c r="D168" s="15" t="s">
         <v>496</v>
       </c>
-      <c r="E168" s="13" t="s">
+      <c r="E168" s="14" t="s">
         <v>6</v>
       </c>
       <c r="F168" s="4" t="s">
@@ -6474,13 +6480,13 @@
       <c r="B169" s="4">
         <v>2021</v>
       </c>
-      <c r="C169" s="13" t="s">
+      <c r="C169" s="14" t="s">
         <v>497</v>
       </c>
-      <c r="D169" s="14" t="s">
+      <c r="D169" s="15" t="s">
         <v>498</v>
       </c>
-      <c r="E169" s="13" t="s">
+      <c r="E169" s="14" t="s">
         <v>6</v>
       </c>
       <c r="F169" s="7"/>
@@ -6493,13 +6499,13 @@
       <c r="B170" s="4">
         <v>2021</v>
       </c>
-      <c r="C170" s="13" t="s">
+      <c r="C170" s="14" t="s">
         <v>500</v>
       </c>
-      <c r="D170" s="14" t="s">
+      <c r="D170" s="15" t="s">
         <v>501</v>
       </c>
-      <c r="E170" s="13" t="s">
+      <c r="E170" s="14" t="s">
         <v>6</v>
       </c>
       <c r="F170" s="7"/>
@@ -6512,10 +6518,10 @@
       <c r="B171" s="4">
         <v>2021</v>
       </c>
-      <c r="C171" s="13" t="s">
+      <c r="C171" s="14" t="s">
         <v>502</v>
       </c>
-      <c r="D171" s="14" t="s">
+      <c r="D171" s="15" t="s">
         <v>503</v>
       </c>
       <c r="E171" s="6" t="s">
@@ -6533,13 +6539,13 @@
       <c r="B172" s="4">
         <v>2021</v>
       </c>
-      <c r="C172" s="13" t="s">
+      <c r="C172" s="14" t="s">
         <v>504</v>
       </c>
-      <c r="D172" s="14" t="s">
+      <c r="D172" s="15" t="s">
         <v>505</v>
       </c>
-      <c r="E172" s="13" t="s">
+      <c r="E172" s="14" t="s">
         <v>6</v>
       </c>
       <c r="F172" s="7"/>
@@ -6552,13 +6558,13 @@
       <c r="B173" s="4">
         <v>2021</v>
       </c>
-      <c r="C173" s="13" t="s">
+      <c r="C173" s="14" t="s">
         <v>495</v>
       </c>
-      <c r="D173" s="14" t="s">
+      <c r="D173" s="15" t="s">
         <v>506</v>
       </c>
-      <c r="E173" s="13" t="s">
+      <c r="E173" s="14" t="s">
         <v>6</v>
       </c>
       <c r="F173" s="4" t="s">
@@ -6573,13 +6579,13 @@
       <c r="B174" s="4">
         <v>2021</v>
       </c>
-      <c r="C174" s="13" t="s">
+      <c r="C174" s="14" t="s">
         <v>507</v>
       </c>
-      <c r="D174" s="14" t="s">
+      <c r="D174" s="15" t="s">
         <v>508</v>
       </c>
-      <c r="E174" s="13" t="s">
+      <c r="E174" s="14" t="s">
         <v>6</v>
       </c>
       <c r="F174" s="4" t="s">
@@ -6596,13 +6602,13 @@
       <c r="B175" s="4">
         <v>2021</v>
       </c>
-      <c r="C175" s="13" t="s">
+      <c r="C175" s="14" t="s">
         <v>510</v>
       </c>
-      <c r="D175" s="14" t="s">
+      <c r="D175" s="15" t="s">
         <v>511</v>
       </c>
-      <c r="E175" s="13" t="s">
+      <c r="E175" s="14" t="s">
         <v>6</v>
       </c>
       <c r="F175" s="7"/>
@@ -6615,13 +6621,13 @@
       <c r="B176" s="4">
         <v>2021</v>
       </c>
-      <c r="C176" s="13" t="s">
+      <c r="C176" s="14" t="s">
         <v>513</v>
       </c>
-      <c r="D176" s="14" t="s">
+      <c r="D176" s="15" t="s">
         <v>514</v>
       </c>
-      <c r="E176" s="13" t="s">
+      <c r="E176" s="14" t="s">
         <v>6</v>
       </c>
       <c r="F176" s="7"/>
@@ -6634,13 +6640,13 @@
       <c r="B177" s="4">
         <v>2021</v>
       </c>
-      <c r="C177" s="13" t="s">
+      <c r="C177" s="14" t="s">
         <v>515</v>
       </c>
-      <c r="D177" s="14" t="s">
+      <c r="D177" s="15" t="s">
         <v>516</v>
       </c>
-      <c r="E177" s="13" t="s">
+      <c r="E177" s="14" t="s">
         <v>6</v>
       </c>
       <c r="F177" s="7"/>
@@ -6653,10 +6659,10 @@
       <c r="B178" s="4">
         <v>2021</v>
       </c>
-      <c r="C178" s="13" t="s">
+      <c r="C178" s="14" t="s">
         <v>518</v>
       </c>
-      <c r="D178" s="14" t="s">
+      <c r="D178" s="15" t="s">
         <v>519</v>
       </c>
       <c r="E178" s="6" t="s">
@@ -6674,13 +6680,13 @@
       <c r="B179" s="4">
         <v>2021</v>
       </c>
-      <c r="C179" s="13" t="s">
+      <c r="C179" s="14" t="s">
         <v>520</v>
       </c>
-      <c r="D179" s="14" t="s">
+      <c r="D179" s="15" t="s">
         <v>521</v>
       </c>
-      <c r="E179" s="13" t="s">
+      <c r="E179" s="14" t="s">
         <v>6</v>
       </c>
       <c r="F179" s="7"/>
@@ -6693,13 +6699,13 @@
       <c r="B180" s="4">
         <v>2021</v>
       </c>
-      <c r="C180" s="13" t="s">
+      <c r="C180" s="14" t="s">
         <v>522</v>
       </c>
-      <c r="D180" s="14" t="s">
+      <c r="D180" s="15" t="s">
         <v>256</v>
       </c>
-      <c r="E180" s="13" t="s">
+      <c r="E180" s="14" t="s">
         <v>6</v>
       </c>
       <c r="F180" s="7"/>
@@ -6712,13 +6718,13 @@
       <c r="B181" s="4">
         <v>2021</v>
       </c>
-      <c r="C181" s="13" t="s">
+      <c r="C181" s="14" t="s">
         <v>523</v>
       </c>
-      <c r="D181" s="14" t="s">
+      <c r="D181" s="15" t="s">
         <v>524</v>
       </c>
-      <c r="E181" s="13" t="s">
+      <c r="E181" s="14" t="s">
         <v>6</v>
       </c>
       <c r="F181" s="7"/>
@@ -6731,13 +6737,13 @@
       <c r="B182" s="4">
         <v>2021</v>
       </c>
-      <c r="C182" s="13" t="s">
+      <c r="C182" s="14" t="s">
         <v>526</v>
       </c>
-      <c r="D182" s="14" t="s">
+      <c r="D182" s="15" t="s">
         <v>527</v>
       </c>
-      <c r="E182" s="13" t="s">
+      <c r="E182" s="14" t="s">
         <v>6</v>
       </c>
       <c r="F182" s="7"/>
@@ -6750,13 +6756,13 @@
       <c r="B183" s="4">
         <v>2021</v>
       </c>
-      <c r="C183" s="13" t="s">
+      <c r="C183" s="14" t="s">
         <v>407</v>
       </c>
-      <c r="D183" s="14" t="s">
+      <c r="D183" s="15" t="s">
         <v>528</v>
       </c>
-      <c r="E183" s="13" t="s">
+      <c r="E183" s="14" t="s">
         <v>6</v>
       </c>
       <c r="F183" s="7"/>
@@ -6772,7 +6778,7 @@
       <c r="C184" s="9" t="s">
         <v>530</v>
       </c>
-      <c r="D184" s="15" t="s">
+      <c r="D184" s="16" t="s">
         <v>531</v>
       </c>
       <c r="E184" s="9" t="s">
@@ -6793,7 +6799,7 @@
       <c r="C185" s="9" t="s">
         <v>532</v>
       </c>
-      <c r="D185" s="15" t="s">
+      <c r="D185" s="16" t="s">
         <v>533</v>
       </c>
       <c r="E185" s="9" t="s">
@@ -6812,7 +6818,7 @@
       <c r="C186" s="9" t="s">
         <v>534</v>
       </c>
-      <c r="D186" s="15" t="s">
+      <c r="D186" s="16" t="s">
         <v>535</v>
       </c>
       <c r="E186" s="9" t="s">
@@ -6833,7 +6839,7 @@
       <c r="C187" s="9" t="s">
         <v>536</v>
       </c>
-      <c r="D187" s="15" t="s">
+      <c r="D187" s="16" t="s">
         <v>537</v>
       </c>
       <c r="E187" s="9" t="s">
@@ -6852,7 +6858,7 @@
       <c r="C188" s="9" t="s">
         <v>538</v>
       </c>
-      <c r="D188" s="15" t="s">
+      <c r="D188" s="16" t="s">
         <v>539</v>
       </c>
       <c r="E188" s="9" t="s">
@@ -6871,7 +6877,7 @@
       <c r="C189" s="9" t="s">
         <v>541</v>
       </c>
-      <c r="D189" s="15" t="s">
+      <c r="D189" s="16" t="s">
         <v>542</v>
       </c>
       <c r="E189" s="9" t="s">
@@ -6890,7 +6896,7 @@
       <c r="C190" s="9" t="s">
         <v>407</v>
       </c>
-      <c r="D190" s="15" t="s">
+      <c r="D190" s="16" t="s">
         <v>543</v>
       </c>
       <c r="E190" s="9" t="s">
@@ -6909,7 +6915,7 @@
       <c r="C191" s="9" t="s">
         <v>544</v>
       </c>
-      <c r="D191" s="15" t="s">
+      <c r="D191" s="16" t="s">
         <v>545</v>
       </c>
       <c r="E191" s="9" t="s">
@@ -6930,7 +6936,7 @@
       <c r="C192" s="9" t="s">
         <v>546</v>
       </c>
-      <c r="D192" s="15" t="s">
+      <c r="D192" s="16" t="s">
         <v>547</v>
       </c>
       <c r="E192" s="9" t="s">
@@ -6949,7 +6955,7 @@
       <c r="C193" s="9" t="s">
         <v>548</v>
       </c>
-      <c r="D193" s="15" t="s">
+      <c r="D193" s="16" t="s">
         <v>549</v>
       </c>
       <c r="E193" s="9" t="s">
@@ -6968,7 +6974,7 @@
       <c r="C194" s="9" t="s">
         <v>551</v>
       </c>
-      <c r="D194" s="16" t="s">
+      <c r="D194" s="17" t="s">
         <v>552</v>
       </c>
       <c r="E194" s="9" t="s">
@@ -6987,7 +6993,7 @@
       <c r="C195" s="9" t="s">
         <v>553</v>
       </c>
-      <c r="D195" s="15" t="s">
+      <c r="D195" s="16" t="s">
         <v>554</v>
       </c>
       <c r="E195" s="9" t="s">
@@ -7006,7 +7012,7 @@
       <c r="C196" s="9" t="s">
         <v>555</v>
       </c>
-      <c r="D196" s="16" t="s">
+      <c r="D196" s="17" t="s">
         <v>556</v>
       </c>
       <c r="E196" s="9" t="s">
@@ -7025,7 +7031,7 @@
       <c r="C197" s="9" t="s">
         <v>557</v>
       </c>
-      <c r="D197" s="16" t="s">
+      <c r="D197" s="17" t="s">
         <v>558</v>
       </c>
       <c r="E197" s="9" t="s">
@@ -7044,7 +7050,7 @@
       <c r="C198" s="9" t="s">
         <v>559</v>
       </c>
-      <c r="D198" s="16" t="s">
+      <c r="D198" s="17" t="s">
         <v>560</v>
       </c>
       <c r="E198" s="9" t="s">
@@ -7063,7 +7069,7 @@
       <c r="C199" s="9" t="s">
         <v>561</v>
       </c>
-      <c r="D199" s="15" t="s">
+      <c r="D199" s="16" t="s">
         <v>562</v>
       </c>
       <c r="E199" s="9" t="s">
@@ -7082,7 +7088,7 @@
       <c r="C200" s="9" t="s">
         <v>367</v>
       </c>
-      <c r="D200" s="15" t="s">
+      <c r="D200" s="16" t="s">
         <v>563</v>
       </c>
       <c r="E200" s="9" t="s">
@@ -7101,7 +7107,7 @@
       <c r="C201" s="9" t="s">
         <v>422</v>
       </c>
-      <c r="D201" s="15" t="s">
+      <c r="D201" s="16" t="s">
         <v>564</v>
       </c>
       <c r="E201" s="9" t="s">
@@ -7120,7 +7126,7 @@
       <c r="C202" s="9" t="s">
         <v>565</v>
       </c>
-      <c r="D202" s="15" t="s">
+      <c r="D202" s="16" t="s">
         <v>566</v>
       </c>
       <c r="E202" s="9" t="s">
@@ -7143,7 +7149,7 @@
       <c r="C203" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="D203" s="15" t="s">
+      <c r="D203" s="16" t="s">
         <v>567</v>
       </c>
       <c r="E203" s="9" t="s">
@@ -7164,7 +7170,7 @@
       <c r="C204" s="9" t="s">
         <v>568</v>
       </c>
-      <c r="D204" s="15" t="s">
+      <c r="D204" s="16" t="s">
         <v>569</v>
       </c>
       <c r="E204" s="9" t="s">
@@ -7185,7 +7191,7 @@
       <c r="C205" s="9" t="s">
         <v>571</v>
       </c>
-      <c r="D205" s="15" t="s">
+      <c r="D205" s="16" t="s">
         <v>572</v>
       </c>
       <c r="E205" s="9" t="s">
@@ -7204,7 +7210,7 @@
       <c r="C206" s="9" t="s">
         <v>574</v>
       </c>
-      <c r="D206" s="16" t="s">
+      <c r="D206" s="17" t="s">
         <v>575</v>
       </c>
       <c r="E206" s="9" t="s">
@@ -7223,7 +7229,7 @@
       <c r="C207" s="9" t="s">
         <v>439</v>
       </c>
-      <c r="D207" s="16" t="s">
+      <c r="D207" s="17" t="s">
         <v>577</v>
       </c>
       <c r="E207" s="9" t="s">
@@ -7242,7 +7248,7 @@
       <c r="C208" s="9" t="s">
         <v>578</v>
       </c>
-      <c r="D208" s="15" t="s">
+      <c r="D208" s="16" t="s">
         <v>579</v>
       </c>
       <c r="E208" s="9" t="s">
@@ -7261,7 +7267,7 @@
       <c r="C209" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="D209" s="15" t="s">
+      <c r="D209" s="16" t="s">
         <v>580</v>
       </c>
       <c r="E209" s="9" t="s">
@@ -7280,7 +7286,7 @@
       <c r="C210" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="D210" s="15" t="s">
+      <c r="D210" s="16" t="s">
         <v>582</v>
       </c>
       <c r="E210" s="9" t="s">
@@ -7295,7 +7301,7 @@
       <c r="A211" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="B211" s="17">
+      <c r="B211" s="18">
         <v>2021</v>
       </c>
       <c r="C211" s="4" t="s">
@@ -7310,29 +7316,29 @@
       <c r="F211" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G211" s="18" t="s">
+      <c r="G211" s="19" t="s">
         <v>585</v>
       </c>
-      <c r="H211" s="19"/>
-      <c r="I211" s="19"/>
-      <c r="J211" s="19"/>
-      <c r="K211" s="19"/>
-      <c r="L211" s="19"/>
-      <c r="M211" s="19"/>
-      <c r="N211" s="19"/>
-      <c r="O211" s="19"/>
-      <c r="P211" s="19"/>
-      <c r="Q211" s="19"/>
-      <c r="R211" s="19"/>
-      <c r="S211" s="19"/>
-      <c r="T211" s="19"/>
-      <c r="U211" s="19"/>
-      <c r="V211" s="19"/>
-      <c r="W211" s="19"/>
-      <c r="X211" s="19"/>
-      <c r="Y211" s="19"/>
-      <c r="Z211" s="19"/>
-      <c r="AA211" s="19"/>
+      <c r="H211" s="20"/>
+      <c r="I211" s="20"/>
+      <c r="J211" s="20"/>
+      <c r="K211" s="20"/>
+      <c r="L211" s="20"/>
+      <c r="M211" s="20"/>
+      <c r="N211" s="20"/>
+      <c r="O211" s="20"/>
+      <c r="P211" s="20"/>
+      <c r="Q211" s="20"/>
+      <c r="R211" s="20"/>
+      <c r="S211" s="20"/>
+      <c r="T211" s="20"/>
+      <c r="U211" s="20"/>
+      <c r="V211" s="20"/>
+      <c r="W211" s="20"/>
+      <c r="X211" s="20"/>
+      <c r="Y211" s="20"/>
+      <c r="Z211" s="20"/>
+      <c r="AA211" s="20"/>
     </row>
     <row r="212" spans="1:27" ht="25.5">
       <c r="A212" s="3" t="s">
@@ -7344,7 +7350,7 @@
       <c r="C212" s="9" t="s">
         <v>586</v>
       </c>
-      <c r="D212" s="15" t="s">
+      <c r="D212" s="16" t="s">
         <v>587</v>
       </c>
       <c r="E212" s="6" t="s">
@@ -7367,7 +7373,7 @@
       <c r="C213" s="9" t="s">
         <v>590</v>
       </c>
-      <c r="D213" s="15" t="s">
+      <c r="D213" s="16" t="s">
         <v>591</v>
       </c>
       <c r="E213" s="9" t="s">
@@ -7388,7 +7394,7 @@
       <c r="C214" s="9" t="s">
         <v>592</v>
       </c>
-      <c r="D214" s="15" t="s">
+      <c r="D214" s="16" t="s">
         <v>593</v>
       </c>
       <c r="E214" s="9" t="s">
@@ -7409,7 +7415,7 @@
       <c r="C215" s="9" t="s">
         <v>594</v>
       </c>
-      <c r="D215" s="16" t="s">
+      <c r="D215" s="17" t="s">
         <v>595</v>
       </c>
       <c r="E215" s="9" t="s">
@@ -7428,7 +7434,7 @@
       <c r="C216" s="9" t="s">
         <v>446</v>
       </c>
-      <c r="D216" s="15" t="s">
+      <c r="D216" s="16" t="s">
         <v>597</v>
       </c>
       <c r="E216" s="9" t="s">
@@ -7447,7 +7453,7 @@
       <c r="C217" s="9" t="s">
         <v>518</v>
       </c>
-      <c r="D217" s="16" t="s">
+      <c r="D217" s="17" t="s">
         <v>598</v>
       </c>
       <c r="E217" s="9" t="s">
@@ -7466,7 +7472,7 @@
       <c r="C218" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="D218" s="15" t="s">
+      <c r="D218" s="16" t="s">
         <v>600</v>
       </c>
       <c r="E218" s="9" t="s">
@@ -7485,7 +7491,7 @@
       <c r="C219" s="9" t="s">
         <v>435</v>
       </c>
-      <c r="D219" s="15" t="s">
+      <c r="D219" s="16" t="s">
         <v>601</v>
       </c>
       <c r="E219" s="9" t="s">
@@ -7506,7 +7512,7 @@
       <c r="C220" s="9" t="s">
         <v>435</v>
       </c>
-      <c r="D220" s="15" t="s">
+      <c r="D220" s="16" t="s">
         <v>602</v>
       </c>
       <c r="E220" s="9" t="s">
@@ -7525,7 +7531,7 @@
       <c r="C221" s="9" t="s">
         <v>603</v>
       </c>
-      <c r="D221" s="15" t="s">
+      <c r="D221" s="16" t="s">
         <v>604</v>
       </c>
       <c r="E221" s="9" t="s">
@@ -7546,7 +7552,7 @@
       <c r="C222" s="9" t="s">
         <v>605</v>
       </c>
-      <c r="D222" s="16" t="s">
+      <c r="D222" s="17" t="s">
         <v>606</v>
       </c>
       <c r="E222" s="9" t="s">
@@ -7565,7 +7571,7 @@
       <c r="C223" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="D223" s="15" t="s">
+      <c r="D223" s="16" t="s">
         <v>608</v>
       </c>
       <c r="E223" s="9" t="s">
@@ -7588,7 +7594,7 @@
       <c r="C224" s="9" t="s">
         <v>609</v>
       </c>
-      <c r="D224" s="15" t="s">
+      <c r="D224" s="16" t="s">
         <v>610</v>
       </c>
       <c r="E224" s="9" t="s">
@@ -7611,7 +7617,7 @@
       <c r="C225" s="9" t="s">
         <v>568</v>
       </c>
-      <c r="D225" s="16" t="s">
+      <c r="D225" s="17" t="s">
         <v>613</v>
       </c>
       <c r="E225" s="9" t="s">
@@ -7630,7 +7636,7 @@
       <c r="C226" s="9" t="s">
         <v>615</v>
       </c>
-      <c r="D226" s="15" t="s">
+      <c r="D226" s="16" t="s">
         <v>616</v>
       </c>
       <c r="E226" s="9" t="s">
@@ -7651,7 +7657,7 @@
       <c r="C227" s="9" t="s">
         <v>617</v>
       </c>
-      <c r="D227" s="15" t="s">
+      <c r="D227" s="16" t="s">
         <v>618</v>
       </c>
       <c r="E227" s="9" t="s">
@@ -7670,7 +7676,7 @@
       <c r="C228" s="9" t="s">
         <v>544</v>
       </c>
-      <c r="D228" s="16" t="s">
+      <c r="D228" s="17" t="s">
         <v>619</v>
       </c>
       <c r="E228" s="9" t="s">
@@ -7691,7 +7697,7 @@
       <c r="C229" s="9" t="s">
         <v>620</v>
       </c>
-      <c r="D229" s="15" t="s">
+      <c r="D229" s="16" t="s">
         <v>621</v>
       </c>
       <c r="E229" s="9" t="s">
@@ -7710,7 +7716,7 @@
       <c r="C230" s="9" t="s">
         <v>622</v>
       </c>
-      <c r="D230" s="15" t="s">
+      <c r="D230" s="16" t="s">
         <v>623</v>
       </c>
       <c r="E230" s="9" t="s">
@@ -7729,7 +7735,7 @@
       <c r="C231" s="9" t="s">
         <v>624</v>
       </c>
-      <c r="D231" s="15" t="s">
+      <c r="D231" s="16" t="s">
         <v>625</v>
       </c>
       <c r="E231" s="9" t="s">
@@ -7748,7 +7754,7 @@
       <c r="C232" s="9" t="s">
         <v>615</v>
       </c>
-      <c r="D232" s="15" t="s">
+      <c r="D232" s="16" t="s">
         <v>616</v>
       </c>
       <c r="E232" s="9" t="s">
@@ -7767,7 +7773,7 @@
       <c r="C233" s="9" t="s">
         <v>626</v>
       </c>
-      <c r="D233" s="15" t="s">
+      <c r="D233" s="16" t="s">
         <v>627</v>
       </c>
       <c r="E233" s="9" t="s">
@@ -7786,7 +7792,7 @@
       <c r="C234" s="9" t="s">
         <v>313</v>
       </c>
-      <c r="D234" s="15" t="s">
+      <c r="D234" s="16" t="s">
         <v>629</v>
       </c>
       <c r="E234" s="9" t="s">
@@ -7805,7 +7811,7 @@
       <c r="C235" s="9" t="s">
         <v>631</v>
       </c>
-      <c r="D235" s="15" t="s">
+      <c r="D235" s="16" t="s">
         <v>632</v>
       </c>
       <c r="E235" s="9" t="s">
@@ -7824,7 +7830,7 @@
       <c r="C236" s="9" t="s">
         <v>633</v>
       </c>
-      <c r="D236" s="15" t="s">
+      <c r="D236" s="16" t="s">
         <v>634</v>
       </c>
       <c r="E236" s="9" t="s">
@@ -7843,7 +7849,7 @@
       <c r="C237" s="9" t="s">
         <v>422</v>
       </c>
-      <c r="D237" s="15" t="s">
+      <c r="D237" s="16" t="s">
         <v>636</v>
       </c>
       <c r="E237" s="9" t="s">
@@ -7862,7 +7868,7 @@
       <c r="C238" s="9" t="s">
         <v>637</v>
       </c>
-      <c r="D238" s="15" t="s">
+      <c r="D238" s="16" t="s">
         <v>638</v>
       </c>
       <c r="E238" s="9" t="s">
@@ -7881,7 +7887,7 @@
       <c r="C239" s="9" t="s">
         <v>461</v>
       </c>
-      <c r="D239" s="16" t="s">
+      <c r="D239" s="17" t="s">
         <v>639</v>
       </c>
       <c r="E239" s="9" t="s">
@@ -7904,7 +7910,7 @@
       <c r="C240" s="9" t="s">
         <v>367</v>
       </c>
-      <c r="D240" s="15" t="s">
+      <c r="D240" s="16" t="s">
         <v>640</v>
       </c>
       <c r="E240" s="9" t="s">
@@ -7923,7 +7929,7 @@
       <c r="C241" s="9" t="s">
         <v>641</v>
       </c>
-      <c r="D241" s="16" t="s">
+      <c r="D241" s="17" t="s">
         <v>642</v>
       </c>
       <c r="E241" s="9" t="s">
@@ -7942,7 +7948,7 @@
       <c r="C242" s="9" t="s">
         <v>430</v>
       </c>
-      <c r="D242" s="15" t="s">
+      <c r="D242" s="16" t="s">
         <v>643</v>
       </c>
       <c r="E242" s="9" t="s">
@@ -7961,7 +7967,7 @@
       <c r="C243" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="D243" s="16" t="s">
+      <c r="D243" s="17" t="s">
         <v>644</v>
       </c>
       <c r="E243" s="9" t="s">
@@ -7980,7 +7986,7 @@
       <c r="C244" s="9" t="s">
         <v>645</v>
       </c>
-      <c r="D244" s="15" t="s">
+      <c r="D244" s="16" t="s">
         <v>646</v>
       </c>
       <c r="E244" s="9" t="s">
@@ -7999,7 +8005,7 @@
       <c r="C245" s="9" t="s">
         <v>647</v>
       </c>
-      <c r="D245" s="15" t="s">
+      <c r="D245" s="16" t="s">
         <v>648</v>
       </c>
       <c r="E245" s="9" t="s">
@@ -8018,7 +8024,7 @@
       <c r="C246" s="9" t="s">
         <v>650</v>
       </c>
-      <c r="D246" s="15" t="s">
+      <c r="D246" s="16" t="s">
         <v>651</v>
       </c>
       <c r="E246" s="9" t="s">
@@ -8037,7 +8043,7 @@
       <c r="C247" s="9" t="s">
         <v>523</v>
       </c>
-      <c r="D247" s="15" t="s">
+      <c r="D247" s="16" t="s">
         <v>652</v>
       </c>
       <c r="E247" s="9" t="s">
@@ -8056,7 +8062,7 @@
       <c r="C248" s="9" t="s">
         <v>654</v>
       </c>
-      <c r="D248" s="16" t="s">
+      <c r="D248" s="17" t="s">
         <v>655</v>
       </c>
       <c r="E248" s="9" t="s">
@@ -8075,7 +8081,7 @@
       <c r="C249" s="9" t="s">
         <v>657</v>
       </c>
-      <c r="D249" s="15" t="s">
+      <c r="D249" s="16" t="s">
         <v>658</v>
       </c>
       <c r="E249" s="9" t="s">
@@ -8094,7 +8100,7 @@
       <c r="C250" s="9" t="s">
         <v>660</v>
       </c>
-      <c r="D250" s="15" t="s">
+      <c r="D250" s="16" t="s">
         <v>661</v>
       </c>
       <c r="E250" s="9" t="s">
@@ -8113,7 +8119,7 @@
       <c r="C251" s="9" t="s">
         <v>662</v>
       </c>
-      <c r="D251" s="16" t="s">
+      <c r="D251" s="17" t="s">
         <v>663</v>
       </c>
       <c r="E251" s="9" t="s">
@@ -8132,7 +8138,7 @@
       <c r="C252" s="9" t="s">
         <v>665</v>
       </c>
-      <c r="D252" s="15" t="s">
+      <c r="D252" s="16" t="s">
         <v>666</v>
       </c>
       <c r="E252" s="9" t="s">
@@ -8151,7 +8157,7 @@
       <c r="C253" s="9" t="s">
         <v>461</v>
       </c>
-      <c r="D253" s="15" t="s">
+      <c r="D253" s="16" t="s">
         <v>668</v>
       </c>
       <c r="E253" s="9" t="s">
@@ -8170,7 +8176,7 @@
       <c r="C254" s="9" t="s">
         <v>669</v>
       </c>
-      <c r="D254" s="16" t="s">
+      <c r="D254" s="17" t="s">
         <v>670</v>
       </c>
       <c r="E254" s="9" t="s">
@@ -8189,7 +8195,7 @@
       <c r="C255" s="9" t="s">
         <v>671</v>
       </c>
-      <c r="D255" s="15" t="s">
+      <c r="D255" s="16" t="s">
         <v>672</v>
       </c>
       <c r="E255" s="9" t="s">
@@ -8208,7 +8214,7 @@
       <c r="C256" s="9" t="s">
         <v>673</v>
       </c>
-      <c r="D256" s="15" t="s">
+      <c r="D256" s="16" t="s">
         <v>674</v>
       </c>
       <c r="E256" s="9" t="s">
@@ -8229,7 +8235,7 @@
       <c r="C257" s="9" t="s">
         <v>675</v>
       </c>
-      <c r="D257" s="15" t="s">
+      <c r="D257" s="16" t="s">
         <v>676</v>
       </c>
       <c r="E257" s="9" t="s">
@@ -8248,7 +8254,7 @@
       <c r="C258" s="9" t="s">
         <v>678</v>
       </c>
-      <c r="D258" s="15" t="s">
+      <c r="D258" s="16" t="s">
         <v>679</v>
       </c>
       <c r="E258" s="9" t="s">
@@ -8267,7 +8273,7 @@
       <c r="C259" s="9" t="s">
         <v>680</v>
       </c>
-      <c r="D259" s="15" t="s">
+      <c r="D259" s="16" t="s">
         <v>681</v>
       </c>
       <c r="E259" s="9" t="s">
@@ -8286,7 +8292,7 @@
       <c r="C260" s="9" t="s">
         <v>682</v>
       </c>
-      <c r="D260" s="15" t="s">
+      <c r="D260" s="16" t="s">
         <v>683</v>
       </c>
       <c r="E260" s="9" t="s">
@@ -8305,7 +8311,7 @@
       <c r="C261" s="9" t="s">
         <v>684</v>
       </c>
-      <c r="D261" s="16" t="s">
+      <c r="D261" s="17" t="s">
         <v>685</v>
       </c>
       <c r="E261" s="9" t="s">
@@ -8324,7 +8330,7 @@
       <c r="C262" s="9" t="s">
         <v>687</v>
       </c>
-      <c r="D262" s="16" t="s">
+      <c r="D262" s="17" t="s">
         <v>688</v>
       </c>
       <c r="E262" s="9" t="s">
@@ -8340,13 +8346,13 @@
       <c r="B263" s="4">
         <v>2020</v>
       </c>
-      <c r="C263" s="15" t="s">
+      <c r="C263" s="16" t="s">
         <v>690</v>
       </c>
-      <c r="D263" s="15" t="s">
+      <c r="D263" s="16" t="s">
         <v>691</v>
       </c>
-      <c r="E263" s="16" t="s">
+      <c r="E263" s="17" t="s">
         <v>12</v>
       </c>
       <c r="F263" s="7"/>
@@ -8359,13 +8365,13 @@
       <c r="B264" s="4">
         <v>2020</v>
       </c>
-      <c r="C264" s="15" t="s">
+      <c r="C264" s="16" t="s">
         <v>693</v>
       </c>
-      <c r="D264" s="15" t="s">
+      <c r="D264" s="16" t="s">
         <v>694</v>
       </c>
-      <c r="E264" s="16" t="s">
+      <c r="E264" s="17" t="s">
         <v>12</v>
       </c>
       <c r="F264" s="7"/>
@@ -8378,13 +8384,13 @@
       <c r="B265" s="4">
         <v>2020</v>
       </c>
-      <c r="C265" s="15" t="s">
+      <c r="C265" s="16" t="s">
         <v>696</v>
       </c>
-      <c r="D265" s="15" t="s">
+      <c r="D265" s="16" t="s">
         <v>697</v>
       </c>
-      <c r="E265" s="16" t="s">
+      <c r="E265" s="17" t="s">
         <v>12</v>
       </c>
       <c r="F265" s="7"/>
@@ -8397,13 +8403,13 @@
       <c r="B266" s="4">
         <v>2020</v>
       </c>
-      <c r="C266" s="15" t="s">
+      <c r="C266" s="16" t="s">
         <v>698</v>
       </c>
-      <c r="D266" s="15" t="s">
+      <c r="D266" s="16" t="s">
         <v>699</v>
       </c>
-      <c r="E266" s="16" t="s">
+      <c r="E266" s="17" t="s">
         <v>12</v>
       </c>
       <c r="F266" s="7"/>
@@ -8416,13 +8422,13 @@
       <c r="B267" s="4">
         <v>2020</v>
       </c>
-      <c r="C267" s="15" t="s">
+      <c r="C267" s="16" t="s">
         <v>701</v>
       </c>
-      <c r="D267" s="15" t="s">
+      <c r="D267" s="16" t="s">
         <v>702</v>
       </c>
-      <c r="E267" s="16" t="s">
+      <c r="E267" s="17" t="s">
         <v>12</v>
       </c>
       <c r="F267" s="7"/>
@@ -8435,13 +8441,13 @@
       <c r="B268" s="4">
         <v>2020</v>
       </c>
-      <c r="C268" s="15" t="s">
+      <c r="C268" s="16" t="s">
         <v>703</v>
       </c>
-      <c r="D268" s="15" t="s">
+      <c r="D268" s="16" t="s">
         <v>704</v>
       </c>
-      <c r="E268" s="16" t="s">
+      <c r="E268" s="17" t="s">
         <v>12</v>
       </c>
       <c r="F268" s="7"/>
@@ -8454,13 +8460,13 @@
       <c r="B269" s="4">
         <v>2020</v>
       </c>
-      <c r="C269" s="15" t="s">
+      <c r="C269" s="16" t="s">
         <v>706</v>
       </c>
-      <c r="D269" s="15" t="s">
+      <c r="D269" s="16" t="s">
         <v>707</v>
       </c>
-      <c r="E269" s="16" t="s">
+      <c r="E269" s="17" t="s">
         <v>12</v>
       </c>
       <c r="F269" s="7"/>
@@ -8473,13 +8479,13 @@
       <c r="B270" s="4">
         <v>2020</v>
       </c>
-      <c r="C270" s="15" t="s">
+      <c r="C270" s="16" t="s">
         <v>709</v>
       </c>
-      <c r="D270" s="15" t="s">
+      <c r="D270" s="16" t="s">
         <v>710</v>
       </c>
-      <c r="E270" s="16" t="s">
+      <c r="E270" s="17" t="s">
         <v>12</v>
       </c>
       <c r="F270" s="7"/>
@@ -8492,13 +8498,13 @@
       <c r="B271" s="4">
         <v>2020</v>
       </c>
-      <c r="C271" s="15" t="s">
+      <c r="C271" s="16" t="s">
         <v>712</v>
       </c>
-      <c r="D271" s="16" t="s">
+      <c r="D271" s="17" t="s">
         <v>713</v>
       </c>
-      <c r="E271" s="16" t="s">
+      <c r="E271" s="17" t="s">
         <v>12</v>
       </c>
       <c r="F271" s="7"/>
@@ -8511,13 +8517,13 @@
       <c r="B272" s="4">
         <v>2020</v>
       </c>
-      <c r="C272" s="15" t="s">
+      <c r="C272" s="16" t="s">
         <v>714</v>
       </c>
-      <c r="D272" s="15" t="s">
+      <c r="D272" s="16" t="s">
         <v>715</v>
       </c>
-      <c r="E272" s="16" t="s">
+      <c r="E272" s="17" t="s">
         <v>12</v>
       </c>
       <c r="F272" s="7"/>
@@ -8530,13 +8536,13 @@
       <c r="B273" s="4">
         <v>2020</v>
       </c>
-      <c r="C273" s="15" t="s">
+      <c r="C273" s="16" t="s">
         <v>716</v>
       </c>
-      <c r="D273" s="16" t="s">
+      <c r="D273" s="17" t="s">
         <v>717</v>
       </c>
-      <c r="E273" s="16" t="s">
+      <c r="E273" s="17" t="s">
         <v>12</v>
       </c>
       <c r="F273" s="7"/>
@@ -8549,13 +8555,13 @@
       <c r="B274" s="4">
         <v>2020</v>
       </c>
-      <c r="C274" s="15" t="s">
+      <c r="C274" s="16" t="s">
         <v>719</v>
       </c>
-      <c r="D274" s="15" t="s">
+      <c r="D274" s="16" t="s">
         <v>720</v>
       </c>
-      <c r="E274" s="16" t="s">
+      <c r="E274" s="17" t="s">
         <v>12</v>
       </c>
       <c r="F274" s="4" t="s">
@@ -8570,13 +8576,13 @@
       <c r="B275" s="4">
         <v>2020</v>
       </c>
-      <c r="C275" s="15" t="s">
+      <c r="C275" s="16" t="s">
         <v>722</v>
       </c>
-      <c r="D275" s="15" t="s">
+      <c r="D275" s="16" t="s">
         <v>723</v>
       </c>
-      <c r="E275" s="16" t="s">
+      <c r="E275" s="17" t="s">
         <v>12</v>
       </c>
       <c r="F275" s="7"/>
@@ -8589,13 +8595,13 @@
       <c r="B276" s="4">
         <v>2020</v>
       </c>
-      <c r="C276" s="15" t="s">
+      <c r="C276" s="16" t="s">
         <v>725</v>
       </c>
-      <c r="D276" s="15" t="s">
+      <c r="D276" s="16" t="s">
         <v>726</v>
       </c>
-      <c r="E276" s="16" t="s">
+      <c r="E276" s="17" t="s">
         <v>12</v>
       </c>
       <c r="F276" s="4" t="s">
@@ -8610,13 +8616,13 @@
       <c r="B277" s="4">
         <v>2020</v>
       </c>
-      <c r="C277" s="15" t="s">
+      <c r="C277" s="16" t="s">
         <v>728</v>
       </c>
-      <c r="D277" s="15" t="s">
+      <c r="D277" s="16" t="s">
         <v>729</v>
       </c>
-      <c r="E277" s="16" t="s">
+      <c r="E277" s="17" t="s">
         <v>12</v>
       </c>
       <c r="F277" s="7"/>
@@ -8629,13 +8635,13 @@
       <c r="B278" s="4">
         <v>2020</v>
       </c>
-      <c r="C278" s="15" t="s">
+      <c r="C278" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="D278" s="15" t="s">
+      <c r="D278" s="16" t="s">
         <v>731</v>
       </c>
-      <c r="E278" s="16" t="s">
+      <c r="E278" s="17" t="s">
         <v>12</v>
       </c>
       <c r="F278" s="4" t="s">
@@ -8650,13 +8656,13 @@
       <c r="B279" s="4">
         <v>2020</v>
       </c>
-      <c r="C279" s="15" t="s">
+      <c r="C279" s="16" t="s">
         <v>733</v>
       </c>
-      <c r="D279" s="15" t="s">
+      <c r="D279" s="16" t="s">
         <v>734</v>
       </c>
-      <c r="E279" s="16" t="s">
+      <c r="E279" s="17" t="s">
         <v>12</v>
       </c>
       <c r="F279" s="7"/>
@@ -8669,13 +8675,13 @@
       <c r="B280" s="4">
         <v>2020</v>
       </c>
-      <c r="C280" s="15" t="s">
+      <c r="C280" s="16" t="s">
         <v>736</v>
       </c>
-      <c r="D280" s="15" t="s">
+      <c r="D280" s="16" t="s">
         <v>737</v>
       </c>
-      <c r="E280" s="16" t="s">
+      <c r="E280" s="17" t="s">
         <v>12</v>
       </c>
       <c r="F280" s="4" t="s">
@@ -8690,13 +8696,13 @@
       <c r="B281" s="4">
         <v>2020</v>
       </c>
-      <c r="C281" s="15" t="s">
+      <c r="C281" s="16" t="s">
         <v>739</v>
       </c>
-      <c r="D281" s="15" t="s">
+      <c r="D281" s="16" t="s">
         <v>740</v>
       </c>
-      <c r="E281" s="16" t="s">
+      <c r="E281" s="17" t="s">
         <v>12</v>
       </c>
       <c r="F281" s="4" t="s">
@@ -8711,13 +8717,13 @@
       <c r="B282" s="4">
         <v>2020</v>
       </c>
-      <c r="C282" s="15" t="s">
+      <c r="C282" s="16" t="s">
         <v>742</v>
       </c>
-      <c r="D282" s="15" t="s">
+      <c r="D282" s="16" t="s">
         <v>743</v>
       </c>
-      <c r="E282" s="16" t="s">
+      <c r="E282" s="17" t="s">
         <v>12</v>
       </c>
       <c r="F282" s="4" t="s">
@@ -8732,13 +8738,13 @@
       <c r="B283" s="4">
         <v>2021</v>
       </c>
-      <c r="C283" s="15" t="s">
+      <c r="C283" s="16" t="s">
         <v>745</v>
       </c>
-      <c r="D283" s="15" t="s">
+      <c r="D283" s="16" t="s">
         <v>746</v>
       </c>
-      <c r="E283" s="16" t="s">
+      <c r="E283" s="17" t="s">
         <v>12</v>
       </c>
       <c r="F283" s="4" t="s">
@@ -8753,13 +8759,13 @@
       <c r="B284" s="4">
         <v>2021</v>
       </c>
-      <c r="C284" s="15" t="s">
+      <c r="C284" s="16" t="s">
         <v>747</v>
       </c>
-      <c r="D284" s="15" t="s">
+      <c r="D284" s="16" t="s">
         <v>748</v>
       </c>
-      <c r="E284" s="16" t="s">
+      <c r="E284" s="17" t="s">
         <v>12</v>
       </c>
       <c r="F284" s="4" t="s">
@@ -8774,13 +8780,13 @@
       <c r="B285" s="4">
         <v>2021</v>
       </c>
-      <c r="C285" s="15" t="s">
+      <c r="C285" s="16" t="s">
         <v>749</v>
       </c>
-      <c r="D285" s="16" t="s">
+      <c r="D285" s="17" t="s">
         <v>750</v>
       </c>
-      <c r="E285" s="16" t="s">
+      <c r="E285" s="17" t="s">
         <v>12</v>
       </c>
       <c r="F285" s="4" t="s">
@@ -8795,13 +8801,13 @@
       <c r="B286" s="4">
         <v>2021</v>
       </c>
-      <c r="C286" s="15" t="s">
+      <c r="C286" s="16" t="s">
         <v>751</v>
       </c>
-      <c r="D286" s="15" t="s">
+      <c r="D286" s="16" t="s">
         <v>752</v>
       </c>
-      <c r="E286" s="16" t="s">
+      <c r="E286" s="17" t="s">
         <v>12</v>
       </c>
       <c r="F286" s="7"/>
@@ -8814,13 +8820,13 @@
       <c r="B287" s="4">
         <v>2021</v>
       </c>
-      <c r="C287" s="15" t="s">
+      <c r="C287" s="16" t="s">
         <v>495</v>
       </c>
-      <c r="D287" s="15" t="s">
+      <c r="D287" s="16" t="s">
         <v>753</v>
       </c>
-      <c r="E287" s="16" t="s">
+      <c r="E287" s="17" t="s">
         <v>12</v>
       </c>
       <c r="F287" s="7"/>
@@ -8833,13 +8839,13 @@
       <c r="B288" s="4">
         <v>2021</v>
       </c>
-      <c r="C288" s="15" t="s">
+      <c r="C288" s="16" t="s">
         <v>754</v>
       </c>
-      <c r="D288" s="15" t="s">
+      <c r="D288" s="16" t="s">
         <v>755</v>
       </c>
-      <c r="E288" s="16" t="s">
+      <c r="E288" s="17" t="s">
         <v>12</v>
       </c>
       <c r="F288" s="4" t="s">
@@ -8854,13 +8860,13 @@
       <c r="B289" s="4">
         <v>2021</v>
       </c>
-      <c r="C289" s="15" t="s">
+      <c r="C289" s="16" t="s">
         <v>756</v>
       </c>
-      <c r="D289" s="15" t="s">
+      <c r="D289" s="16" t="s">
         <v>757</v>
       </c>
-      <c r="E289" s="16" t="s">
+      <c r="E289" s="17" t="s">
         <v>12</v>
       </c>
       <c r="F289" s="4" t="s">
@@ -8875,13 +8881,13 @@
       <c r="B290" s="4">
         <v>2021</v>
       </c>
-      <c r="C290" s="15" t="s">
+      <c r="C290" s="16" t="s">
         <v>758</v>
       </c>
-      <c r="D290" s="15" t="s">
+      <c r="D290" s="16" t="s">
         <v>759</v>
       </c>
-      <c r="E290" s="16" t="s">
+      <c r="E290" s="17" t="s">
         <v>12</v>
       </c>
       <c r="F290" s="4" t="s">
@@ -8896,13 +8902,13 @@
       <c r="B291" s="4">
         <v>2021</v>
       </c>
-      <c r="C291" s="15" t="s">
+      <c r="C291" s="16" t="s">
         <v>761</v>
       </c>
-      <c r="D291" s="15" t="s">
+      <c r="D291" s="16" t="s">
         <v>762</v>
       </c>
-      <c r="E291" s="16" t="s">
+      <c r="E291" s="17" t="s">
         <v>12</v>
       </c>
       <c r="F291" s="4" t="s">
@@ -8917,13 +8923,13 @@
       <c r="B292" s="4">
         <v>2021</v>
       </c>
-      <c r="C292" s="15" t="s">
+      <c r="C292" s="16" t="s">
         <v>763</v>
       </c>
-      <c r="D292" s="15" t="s">
+      <c r="D292" s="16" t="s">
         <v>764</v>
       </c>
-      <c r="E292" s="16" t="s">
+      <c r="E292" s="17" t="s">
         <v>12</v>
       </c>
       <c r="F292" s="7"/>
@@ -8936,13 +8942,13 @@
       <c r="B293" s="4">
         <v>2021</v>
       </c>
-      <c r="C293" s="15" t="s">
+      <c r="C293" s="16" t="s">
         <v>647</v>
       </c>
-      <c r="D293" s="15" t="s">
+      <c r="D293" s="16" t="s">
         <v>765</v>
       </c>
-      <c r="E293" s="16" t="s">
+      <c r="E293" s="17" t="s">
         <v>12</v>
       </c>
       <c r="F293" s="7"/>
@@ -8955,13 +8961,13 @@
       <c r="B294" s="4">
         <v>2021</v>
       </c>
-      <c r="C294" s="15" t="s">
+      <c r="C294" s="16" t="s">
         <v>568</v>
       </c>
-      <c r="D294" s="15" t="s">
+      <c r="D294" s="16" t="s">
         <v>767</v>
       </c>
-      <c r="E294" s="16" t="s">
+      <c r="E294" s="17" t="s">
         <v>12</v>
       </c>
       <c r="F294" s="7"/>
@@ -8974,13 +8980,13 @@
       <c r="B295" s="4">
         <v>2021</v>
       </c>
-      <c r="C295" s="15" t="s">
+      <c r="C295" s="16" t="s">
         <v>768</v>
       </c>
-      <c r="D295" s="15" t="s">
+      <c r="D295" s="16" t="s">
         <v>769</v>
       </c>
-      <c r="E295" s="16" t="s">
+      <c r="E295" s="17" t="s">
         <v>12</v>
       </c>
       <c r="F295" s="4" t="s">
@@ -8995,13 +9001,13 @@
       <c r="B296" s="4">
         <v>2021</v>
       </c>
-      <c r="C296" s="15" t="s">
+      <c r="C296" s="16" t="s">
         <v>770</v>
       </c>
-      <c r="D296" s="15" t="s">
+      <c r="D296" s="16" t="s">
         <v>771</v>
       </c>
-      <c r="E296" s="16" t="s">
+      <c r="E296" s="17" t="s">
         <v>12</v>
       </c>
       <c r="F296" s="4" t="s">
@@ -9016,13 +9022,13 @@
       <c r="B297" s="4">
         <v>2021</v>
       </c>
-      <c r="C297" s="15" t="s">
+      <c r="C297" s="16" t="s">
         <v>773</v>
       </c>
-      <c r="D297" s="15" t="s">
+      <c r="D297" s="16" t="s">
         <v>774</v>
       </c>
-      <c r="E297" s="16" t="s">
+      <c r="E297" s="17" t="s">
         <v>12</v>
       </c>
       <c r="F297" s="4" t="s">
@@ -9039,13 +9045,13 @@
       <c r="B298" s="4">
         <v>2021</v>
       </c>
-      <c r="C298" s="15" t="s">
+      <c r="C298" s="16" t="s">
         <v>777</v>
       </c>
-      <c r="D298" s="15" t="s">
+      <c r="D298" s="16" t="s">
         <v>778</v>
       </c>
-      <c r="E298" s="16" t="s">
+      <c r="E298" s="17" t="s">
         <v>12</v>
       </c>
       <c r="F298" s="7"/>
@@ -9058,13 +9064,13 @@
       <c r="B299" s="4">
         <v>2021</v>
       </c>
-      <c r="C299" s="15" t="s">
+      <c r="C299" s="16" t="s">
         <v>779</v>
       </c>
-      <c r="D299" s="15" t="s">
+      <c r="D299" s="16" t="s">
         <v>780</v>
       </c>
-      <c r="E299" s="16" t="s">
+      <c r="E299" s="17" t="s">
         <v>12</v>
       </c>
       <c r="F299" s="7"/>
@@ -9077,13 +9083,13 @@
       <c r="B300" s="4">
         <v>2021</v>
       </c>
-      <c r="C300" s="15" t="s">
+      <c r="C300" s="16" t="s">
         <v>782</v>
       </c>
-      <c r="D300" s="16" t="s">
+      <c r="D300" s="17" t="s">
         <v>783</v>
       </c>
-      <c r="E300" s="16" t="s">
+      <c r="E300" s="17" t="s">
         <v>12</v>
       </c>
       <c r="F300" s="7"/>
@@ -9096,13 +9102,13 @@
       <c r="B301" s="4">
         <v>2021</v>
       </c>
-      <c r="C301" s="15" t="s">
+      <c r="C301" s="16" t="s">
         <v>719</v>
       </c>
-      <c r="D301" s="15" t="s">
+      <c r="D301" s="16" t="s">
         <v>784</v>
       </c>
-      <c r="E301" s="16" t="s">
+      <c r="E301" s="17" t="s">
         <v>12</v>
       </c>
       <c r="F301" s="7"/>
@@ -9115,13 +9121,13 @@
       <c r="B302" s="4">
         <v>2021</v>
       </c>
-      <c r="C302" s="15" t="s">
+      <c r="C302" s="16" t="s">
         <v>777</v>
       </c>
-      <c r="D302" s="15" t="s">
+      <c r="D302" s="16" t="s">
         <v>785</v>
       </c>
-      <c r="E302" s="16" t="s">
+      <c r="E302" s="17" t="s">
         <v>12</v>
       </c>
       <c r="F302" s="7"/>
@@ -9134,13 +9140,13 @@
       <c r="B303" s="4">
         <v>2021</v>
       </c>
-      <c r="C303" s="15" t="s">
+      <c r="C303" s="16" t="s">
         <v>787</v>
       </c>
-      <c r="D303" s="15" t="s">
+      <c r="D303" s="16" t="s">
         <v>788</v>
       </c>
-      <c r="E303" s="16" t="s">
+      <c r="E303" s="17" t="s">
         <v>12</v>
       </c>
       <c r="F303" s="7"/>
@@ -9153,10 +9159,10 @@
       <c r="B304" s="4">
         <v>2020</v>
       </c>
-      <c r="C304" s="15" t="s">
+      <c r="C304" s="16" t="s">
         <v>789</v>
       </c>
-      <c r="D304" s="15" t="s">
+      <c r="D304" s="16" t="s">
         <v>790</v>
       </c>
       <c r="E304" s="6" t="s">
@@ -9172,10 +9178,10 @@
       <c r="B305" s="4">
         <v>2020</v>
       </c>
-      <c r="C305" s="15" t="s">
+      <c r="C305" s="16" t="s">
         <v>791</v>
       </c>
-      <c r="D305" s="15" t="s">
+      <c r="D305" s="16" t="s">
         <v>792</v>
       </c>
       <c r="E305" s="6" t="s">
@@ -9191,10 +9197,10 @@
       <c r="B306" s="4">
         <v>2020</v>
       </c>
-      <c r="C306" s="15" t="s">
+      <c r="C306" s="16" t="s">
         <v>793</v>
       </c>
-      <c r="D306" s="16" t="s">
+      <c r="D306" s="17" t="s">
         <v>794</v>
       </c>
       <c r="E306" s="6" t="s">
@@ -9210,10 +9216,10 @@
       <c r="B307" s="4">
         <v>2020</v>
       </c>
-      <c r="C307" s="15" t="s">
+      <c r="C307" s="16" t="s">
         <v>796</v>
       </c>
-      <c r="D307" s="15" t="s">
+      <c r="D307" s="16" t="s">
         <v>797</v>
       </c>
       <c r="E307" s="6" t="s">
@@ -9231,10 +9237,10 @@
       <c r="B308" s="4">
         <v>2020</v>
       </c>
-      <c r="C308" s="15" t="s">
+      <c r="C308" s="16" t="s">
         <v>799</v>
       </c>
-      <c r="D308" s="15" t="s">
+      <c r="D308" s="16" t="s">
         <v>800</v>
       </c>
       <c r="E308" s="6" t="s">
@@ -9250,10 +9256,10 @@
       <c r="B309" s="4">
         <v>2021</v>
       </c>
-      <c r="C309" s="15" t="s">
+      <c r="C309" s="16" t="s">
         <v>770</v>
       </c>
-      <c r="D309" s="16" t="s">
+      <c r="D309" s="17" t="s">
         <v>801</v>
       </c>
       <c r="E309" s="6" t="s">
@@ -9271,10 +9277,10 @@
       <c r="B310" s="4">
         <v>2021</v>
       </c>
-      <c r="C310" s="15" t="s">
+      <c r="C310" s="16" t="s">
         <v>803</v>
       </c>
-      <c r="D310" s="16" t="s">
+      <c r="D310" s="17" t="s">
         <v>804</v>
       </c>
       <c r="E310" s="6" t="s">
@@ -9290,10 +9296,10 @@
       <c r="B311" s="4">
         <v>2020</v>
       </c>
-      <c r="C311" s="15" t="s">
+      <c r="C311" s="16" t="s">
         <v>805</v>
       </c>
-      <c r="D311" s="15" t="s">
+      <c r="D311" s="16" t="s">
         <v>806</v>
       </c>
       <c r="E311" s="6" t="s">
@@ -9309,10 +9315,10 @@
       <c r="B312" s="4">
         <v>2020</v>
       </c>
-      <c r="C312" s="15" t="s">
+      <c r="C312" s="16" t="s">
         <v>807</v>
       </c>
-      <c r="D312" s="15" t="s">
+      <c r="D312" s="16" t="s">
         <v>808</v>
       </c>
       <c r="E312" s="6" t="s">
@@ -9328,10 +9334,10 @@
       <c r="B313" s="4">
         <v>2020</v>
       </c>
-      <c r="C313" s="15" t="s">
+      <c r="C313" s="16" t="s">
         <v>544</v>
       </c>
-      <c r="D313" s="15" t="s">
+      <c r="D313" s="16" t="s">
         <v>810</v>
       </c>
       <c r="E313" s="6" t="s">
@@ -9347,10 +9353,10 @@
       <c r="B314" s="4">
         <v>2020</v>
       </c>
-      <c r="C314" s="15" t="s">
+      <c r="C314" s="16" t="s">
         <v>222</v>
       </c>
-      <c r="D314" s="15" t="s">
+      <c r="D314" s="16" t="s">
         <v>812</v>
       </c>
       <c r="E314" s="6" t="s">
@@ -9366,10 +9372,10 @@
       <c r="B315" s="4">
         <v>2020</v>
       </c>
-      <c r="C315" s="15" t="s">
+      <c r="C315" s="16" t="s">
         <v>813</v>
       </c>
-      <c r="D315" s="15" t="s">
+      <c r="D315" s="16" t="s">
         <v>814</v>
       </c>
       <c r="E315" s="6" t="s">
@@ -9385,10 +9391,10 @@
       <c r="B316" s="4">
         <v>2020</v>
       </c>
-      <c r="C316" s="15" t="s">
+      <c r="C316" s="16" t="s">
         <v>815</v>
       </c>
-      <c r="D316" s="15" t="s">
+      <c r="D316" s="16" t="s">
         <v>816</v>
       </c>
       <c r="E316" s="6" t="s">
@@ -9404,10 +9410,10 @@
       <c r="B317" s="4">
         <v>2020</v>
       </c>
-      <c r="C317" s="15" t="s">
+      <c r="C317" s="16" t="s">
         <v>817</v>
       </c>
-      <c r="D317" s="15" t="s">
+      <c r="D317" s="16" t="s">
         <v>818</v>
       </c>
       <c r="E317" s="6" t="s">
@@ -9423,10 +9429,10 @@
       <c r="B318" s="4">
         <v>2020</v>
       </c>
-      <c r="C318" s="15" t="s">
+      <c r="C318" s="16" t="s">
         <v>819</v>
       </c>
-      <c r="D318" s="15" t="s">
+      <c r="D318" s="16" t="s">
         <v>820</v>
       </c>
       <c r="E318" s="6" t="s">
@@ -9444,10 +9450,10 @@
       <c r="B319" s="4">
         <v>2020</v>
       </c>
-      <c r="C319" s="15" t="s">
+      <c r="C319" s="16" t="s">
         <v>822</v>
       </c>
-      <c r="D319" s="15" t="s">
+      <c r="D319" s="16" t="s">
         <v>823</v>
       </c>
       <c r="E319" s="6" t="s">
@@ -9465,10 +9471,10 @@
       <c r="B320" s="4">
         <v>2020</v>
       </c>
-      <c r="C320" s="15" t="s">
+      <c r="C320" s="16" t="s">
         <v>825</v>
       </c>
-      <c r="D320" s="15" t="s">
+      <c r="D320" s="16" t="s">
         <v>826</v>
       </c>
       <c r="E320" s="6" t="s">
@@ -9488,10 +9494,10 @@
       <c r="B321" s="4">
         <v>2020</v>
       </c>
-      <c r="C321" s="15" t="s">
+      <c r="C321" s="16" t="s">
         <v>828</v>
       </c>
-      <c r="D321" s="15" t="s">
+      <c r="D321" s="16" t="s">
         <v>829</v>
       </c>
       <c r="E321" s="6" t="s">
@@ -9509,10 +9515,10 @@
       <c r="B322" s="4">
         <v>2020</v>
       </c>
-      <c r="C322" s="15" t="s">
+      <c r="C322" s="16" t="s">
         <v>831</v>
       </c>
-      <c r="D322" s="15" t="s">
+      <c r="D322" s="16" t="s">
         <v>832</v>
       </c>
       <c r="E322" s="6" t="s">
@@ -9530,10 +9536,10 @@
       <c r="B323" s="4">
         <v>2020</v>
       </c>
-      <c r="C323" s="15" t="s">
+      <c r="C323" s="16" t="s">
         <v>834</v>
       </c>
-      <c r="D323" s="15" t="s">
+      <c r="D323" s="16" t="s">
         <v>835</v>
       </c>
       <c r="E323" s="6" t="s">
@@ -9551,10 +9557,10 @@
       <c r="B324" s="4">
         <v>2020</v>
       </c>
-      <c r="C324" s="15" t="s">
+      <c r="C324" s="16" t="s">
         <v>837</v>
       </c>
-      <c r="D324" s="15" t="s">
+      <c r="D324" s="16" t="s">
         <v>838</v>
       </c>
       <c r="E324" s="6" t="s">
@@ -9574,10 +9580,10 @@
       <c r="B325" s="4">
         <v>2021</v>
       </c>
-      <c r="C325" s="15" t="s">
+      <c r="C325" s="16" t="s">
         <v>840</v>
       </c>
-      <c r="D325" s="15" t="s">
+      <c r="D325" s="16" t="s">
         <v>841</v>
       </c>
       <c r="E325" s="6" t="s">
@@ -9595,10 +9601,10 @@
       <c r="B326" s="4">
         <v>2021</v>
       </c>
-      <c r="C326" s="15" t="s">
+      <c r="C326" s="16" t="s">
         <v>842</v>
       </c>
-      <c r="D326" s="16" t="s">
+      <c r="D326" s="17" t="s">
         <v>843</v>
       </c>
       <c r="E326" s="6" t="s">
@@ -9614,10 +9620,10 @@
       <c r="B327" s="4">
         <v>2021</v>
       </c>
-      <c r="C327" s="15" t="s">
+      <c r="C327" s="16" t="s">
         <v>845</v>
       </c>
-      <c r="D327" s="15" t="s">
+      <c r="D327" s="16" t="s">
         <v>846</v>
       </c>
       <c r="E327" s="6" t="s">
@@ -9635,10 +9641,10 @@
       <c r="B328" s="4">
         <v>2021</v>
       </c>
-      <c r="C328" s="15" t="s">
+      <c r="C328" s="16" t="s">
         <v>847</v>
       </c>
-      <c r="D328" s="16" t="s">
+      <c r="D328" s="17" t="s">
         <v>848</v>
       </c>
       <c r="E328" s="6" t="s">
@@ -9654,10 +9660,10 @@
       <c r="B329" s="4">
         <v>2021</v>
       </c>
-      <c r="C329" s="15" t="s">
+      <c r="C329" s="16" t="s">
         <v>807</v>
       </c>
-      <c r="D329" s="15" t="s">
+      <c r="D329" s="16" t="s">
         <v>850</v>
       </c>
       <c r="E329" s="6" t="s">
@@ -9673,10 +9679,10 @@
       <c r="B330" s="4">
         <v>2020</v>
       </c>
-      <c r="C330" s="15" t="s">
+      <c r="C330" s="16" t="s">
         <v>851</v>
       </c>
-      <c r="D330" s="15" t="s">
+      <c r="D330" s="16" t="s">
         <v>852</v>
       </c>
       <c r="E330" s="6" t="s">
@@ -9692,10 +9698,10 @@
       <c r="B331" s="4">
         <v>2020</v>
       </c>
-      <c r="C331" s="15" t="s">
+      <c r="C331" s="16" t="s">
         <v>854</v>
       </c>
-      <c r="D331" s="15" t="s">
+      <c r="D331" s="16" t="s">
         <v>855</v>
       </c>
       <c r="E331" s="6" t="s">
@@ -9715,10 +9721,10 @@
       <c r="B332" s="4">
         <v>2020</v>
       </c>
-      <c r="C332" s="15" t="s">
+      <c r="C332" s="16" t="s">
         <v>856</v>
       </c>
-      <c r="D332" s="15" t="s">
+      <c r="D332" s="16" t="s">
         <v>857</v>
       </c>
       <c r="E332" s="6" t="s">
@@ -9736,10 +9742,10 @@
       <c r="B333" s="4">
         <v>2020</v>
       </c>
-      <c r="C333" s="15" t="s">
+      <c r="C333" s="16" t="s">
         <v>856</v>
       </c>
-      <c r="D333" s="15" t="s">
+      <c r="D333" s="16" t="s">
         <v>857</v>
       </c>
       <c r="E333" s="6" t="s">
@@ -9759,10 +9765,10 @@
       <c r="B334" s="4">
         <v>2020</v>
       </c>
-      <c r="C334" s="15" t="s">
+      <c r="C334" s="16" t="s">
         <v>860</v>
       </c>
-      <c r="D334" s="15" t="s">
+      <c r="D334" s="16" t="s">
         <v>861</v>
       </c>
       <c r="E334" s="6" t="s">
@@ -9782,10 +9788,10 @@
       <c r="B335" s="4">
         <v>2020</v>
       </c>
-      <c r="C335" s="15" t="s">
+      <c r="C335" s="16" t="s">
         <v>863</v>
       </c>
-      <c r="D335" s="15" t="s">
+      <c r="D335" s="16" t="s">
         <v>864</v>
       </c>
       <c r="E335" s="6" t="s">
@@ -9803,10 +9809,10 @@
       <c r="B336" s="4">
         <v>2021</v>
       </c>
-      <c r="C336" s="15" t="s">
+      <c r="C336" s="16" t="s">
         <v>865</v>
       </c>
-      <c r="D336" s="15" t="s">
+      <c r="D336" s="16" t="s">
         <v>866</v>
       </c>
       <c r="E336" s="6" t="s">
@@ -9824,10 +9830,10 @@
       <c r="B337" s="4">
         <v>2021</v>
       </c>
-      <c r="C337" s="15" t="s">
+      <c r="C337" s="16" t="s">
         <v>867</v>
       </c>
-      <c r="D337" s="15" t="s">
+      <c r="D337" s="16" t="s">
         <v>868</v>
       </c>
       <c r="E337" s="6" t="s">
@@ -9843,10 +9849,10 @@
       <c r="B338" s="4">
         <v>2021</v>
       </c>
-      <c r="C338" s="15" t="s">
+      <c r="C338" s="16" t="s">
         <v>869</v>
       </c>
-      <c r="D338" s="15" t="s">
+      <c r="D338" s="16" t="s">
         <v>870</v>
       </c>
       <c r="E338" s="6" t="s">
@@ -9864,10 +9870,10 @@
       <c r="B339" s="4">
         <v>2021</v>
       </c>
-      <c r="C339" s="15" t="s">
+      <c r="C339" s="16" t="s">
         <v>871</v>
       </c>
-      <c r="D339" s="15" t="s">
+      <c r="D339" s="16" t="s">
         <v>872</v>
       </c>
       <c r="E339" s="6" t="s">
@@ -9883,10 +9889,10 @@
       <c r="B340" s="4">
         <v>2021</v>
       </c>
-      <c r="C340" s="15" t="s">
+      <c r="C340" s="16" t="s">
         <v>435</v>
       </c>
-      <c r="D340" s="15" t="s">
+      <c r="D340" s="16" t="s">
         <v>873</v>
       </c>
       <c r="E340" s="6" t="s">
@@ -9902,10 +9908,10 @@
       <c r="B341" s="4">
         <v>2021</v>
       </c>
-      <c r="C341" s="15" t="s">
+      <c r="C341" s="16" t="s">
         <v>871</v>
       </c>
-      <c r="D341" s="16" t="s">
+      <c r="D341" s="17" t="s">
         <v>874</v>
       </c>
       <c r="E341" s="6" t="s">
@@ -9921,10 +9927,10 @@
       <c r="B342" s="4">
         <v>2020</v>
       </c>
-      <c r="C342" s="15" t="s">
+      <c r="C342" s="16" t="s">
         <v>876</v>
       </c>
-      <c r="D342" s="15" t="s">
+      <c r="D342" s="16" t="s">
         <v>877</v>
       </c>
       <c r="E342" s="6" t="s">
@@ -9940,10 +9946,10 @@
       <c r="B343" s="4">
         <v>2020</v>
       </c>
-      <c r="C343" s="15" t="s">
+      <c r="C343" s="16" t="s">
         <v>879</v>
       </c>
-      <c r="D343" s="15" t="s">
+      <c r="D343" s="16" t="s">
         <v>880</v>
       </c>
       <c r="E343" s="6" t="s">
@@ -9961,10 +9967,10 @@
       <c r="B344" s="4">
         <v>2020</v>
       </c>
-      <c r="C344" s="15" t="s">
+      <c r="C344" s="16" t="s">
         <v>881</v>
       </c>
-      <c r="D344" s="15" t="s">
+      <c r="D344" s="16" t="s">
         <v>882</v>
       </c>
       <c r="E344" s="6" t="s">
@@ -9980,10 +9986,10 @@
       <c r="B345" s="4">
         <v>2020</v>
       </c>
-      <c r="C345" s="15" t="s">
+      <c r="C345" s="16" t="s">
         <v>884</v>
       </c>
-      <c r="D345" s="15" t="s">
+      <c r="D345" s="16" t="s">
         <v>885</v>
       </c>
       <c r="E345" s="6" t="s">
@@ -10001,10 +10007,10 @@
       <c r="B346" s="4">
         <v>2021</v>
       </c>
-      <c r="C346" s="20" t="s">
+      <c r="C346" s="21" t="s">
         <v>886</v>
       </c>
-      <c r="D346" s="20" t="s">
+      <c r="D346" s="21" t="s">
         <v>887</v>
       </c>
       <c r="E346" s="6" t="s">
@@ -10022,10 +10028,10 @@
       <c r="B347" s="4">
         <v>2020</v>
       </c>
-      <c r="C347" s="20" t="s">
+      <c r="C347" s="21" t="s">
         <v>889</v>
       </c>
-      <c r="D347" s="20" t="s">
+      <c r="D347" s="21" t="s">
         <v>890</v>
       </c>
       <c r="E347" s="6" t="s">
@@ -10041,10 +10047,10 @@
       <c r="B348" s="4">
         <v>2020</v>
       </c>
-      <c r="C348" s="21" t="s">
+      <c r="C348" s="22" t="s">
         <v>891</v>
       </c>
-      <c r="D348" s="21" t="s">
+      <c r="D348" s="22" t="s">
         <v>892</v>
       </c>
       <c r="E348" s="6" t="s">
@@ -10060,10 +10066,10 @@
       <c r="B349" s="4">
         <v>2020</v>
       </c>
-      <c r="C349" s="21" t="s">
+      <c r="C349" s="22" t="s">
         <v>891</v>
       </c>
-      <c r="D349" s="21" t="s">
+      <c r="D349" s="22" t="s">
         <v>892</v>
       </c>
       <c r="E349" s="6" t="s">
@@ -10079,10 +10085,10 @@
       <c r="B350" s="4">
         <v>2021</v>
       </c>
-      <c r="C350" s="21" t="s">
+      <c r="C350" s="22" t="s">
         <v>893</v>
       </c>
-      <c r="D350" s="21" t="s">
+      <c r="D350" s="22" t="s">
         <v>894</v>
       </c>
       <c r="E350" s="6" t="s">
@@ -10100,10 +10106,10 @@
       <c r="B351" s="4">
         <v>2019</v>
       </c>
-      <c r="C351" s="22" t="s">
+      <c r="C351" s="23" t="s">
         <v>896</v>
       </c>
-      <c r="D351" s="22" t="s">
+      <c r="D351" s="23" t="s">
         <v>897</v>
       </c>
       <c r="E351" s="6" t="s">
@@ -10115,7 +10121,7 @@
       <c r="G351" s="8"/>
     </row>
     <row r="352" spans="1:7" ht="12.75">
-      <c r="A352" s="23"/>
+      <c r="A352" s="24"/>
       <c r="B352" s="7"/>
       <c r="C352" s="8"/>
       <c r="D352" s="8"/>
@@ -10124,7 +10130,7 @@
       <c r="G352" s="8"/>
     </row>
     <row r="353" spans="1:7" ht="12.75">
-      <c r="A353" s="23"/>
+      <c r="A353" s="24"/>
       <c r="B353" s="7"/>
       <c r="C353" s="8"/>
       <c r="D353" s="8"/>
@@ -10133,7 +10139,7 @@
       <c r="G353" s="8"/>
     </row>
     <row r="354" spans="1:7" ht="12.75">
-      <c r="A354" s="23"/>
+      <c r="A354" s="24"/>
       <c r="B354" s="7"/>
       <c r="C354" s="8"/>
       <c r="D354" s="8"/>
@@ -10142,7 +10148,7 @@
       <c r="G354" s="8"/>
     </row>
     <row r="355" spans="1:7" ht="12.75">
-      <c r="A355" s="23"/>
+      <c r="A355" s="24"/>
       <c r="B355" s="7"/>
       <c r="C355" s="8"/>
       <c r="D355" s="8"/>
@@ -10151,7 +10157,7 @@
       <c r="G355" s="8"/>
     </row>
     <row r="356" spans="1:7" ht="12.75">
-      <c r="A356" s="23"/>
+      <c r="A356" s="24"/>
       <c r="B356" s="7"/>
       <c r="C356" s="8"/>
       <c r="D356" s="8"/>
@@ -10160,7 +10166,7 @@
       <c r="G356" s="8"/>
     </row>
     <row r="357" spans="1:7" ht="12.75">
-      <c r="A357" s="23"/>
+      <c r="A357" s="24"/>
       <c r="B357" s="7"/>
       <c r="C357" s="8"/>
       <c r="D357" s="8"/>
@@ -10169,7 +10175,7 @@
       <c r="G357" s="8"/>
     </row>
     <row r="358" spans="1:7" ht="12.75">
-      <c r="A358" s="23"/>
+      <c r="A358" s="24"/>
       <c r="B358" s="7"/>
       <c r="C358" s="8"/>
       <c r="D358" s="8"/>
@@ -10178,7 +10184,7 @@
       <c r="G358" s="8"/>
     </row>
     <row r="359" spans="1:7" ht="12.75">
-      <c r="A359" s="23"/>
+      <c r="A359" s="24"/>
       <c r="B359" s="7"/>
       <c r="C359" s="8"/>
       <c r="D359" s="8"/>
@@ -10187,7 +10193,7 @@
       <c r="G359" s="8"/>
     </row>
     <row r="360" spans="1:7" ht="12.75">
-      <c r="A360" s="23"/>
+      <c r="A360" s="24"/>
       <c r="B360" s="7"/>
       <c r="C360" s="8"/>
       <c r="D360" s="8"/>
@@ -10196,7 +10202,7 @@
       <c r="G360" s="8"/>
     </row>
     <row r="361" spans="1:7" ht="12.75">
-      <c r="A361" s="23"/>
+      <c r="A361" s="24"/>
       <c r="B361" s="7"/>
       <c r="C361" s="8"/>
       <c r="D361" s="8"/>
@@ -10205,7 +10211,7 @@
       <c r="G361" s="8"/>
     </row>
     <row r="362" spans="1:7" ht="12.75">
-      <c r="A362" s="23"/>
+      <c r="A362" s="24"/>
       <c r="B362" s="7"/>
       <c r="C362" s="8"/>
       <c r="D362" s="8"/>
@@ -10214,7 +10220,7 @@
       <c r="G362" s="8"/>
     </row>
     <row r="363" spans="1:7" ht="12.75">
-      <c r="A363" s="23"/>
+      <c r="A363" s="24"/>
       <c r="B363" s="7"/>
       <c r="C363" s="8"/>
       <c r="D363" s="8"/>
@@ -10223,7 +10229,7 @@
       <c r="G363" s="8"/>
     </row>
     <row r="364" spans="1:7" ht="12.75">
-      <c r="A364" s="23"/>
+      <c r="A364" s="24"/>
       <c r="B364" s="7"/>
       <c r="C364" s="8"/>
       <c r="D364" s="8"/>
@@ -10232,7 +10238,7 @@
       <c r="G364" s="8"/>
     </row>
     <row r="365" spans="1:7" ht="12.75">
-      <c r="A365" s="23"/>
+      <c r="A365" s="24"/>
       <c r="B365" s="7"/>
       <c r="C365" s="8"/>
       <c r="D365" s="8"/>
@@ -10241,7 +10247,7 @@
       <c r="G365" s="8"/>
     </row>
     <row r="366" spans="1:7" ht="12.75">
-      <c r="A366" s="23"/>
+      <c r="A366" s="24"/>
       <c r="B366" s="7"/>
       <c r="C366" s="8"/>
       <c r="D366" s="8"/>
@@ -10250,7 +10256,7 @@
       <c r="G366" s="8"/>
     </row>
     <row r="367" spans="1:7" ht="12.75">
-      <c r="A367" s="23"/>
+      <c r="A367" s="24"/>
       <c r="B367" s="7"/>
       <c r="C367" s="8"/>
       <c r="D367" s="8"/>
@@ -10259,7 +10265,7 @@
       <c r="G367" s="8"/>
     </row>
     <row r="368" spans="1:7" ht="12.75">
-      <c r="A368" s="23"/>
+      <c r="A368" s="24"/>
       <c r="B368" s="7"/>
       <c r="C368" s="8"/>
       <c r="D368" s="8"/>
@@ -10268,7 +10274,7 @@
       <c r="G368" s="8"/>
     </row>
     <row r="369" spans="1:7" ht="12.75">
-      <c r="A369" s="23"/>
+      <c r="A369" s="24"/>
       <c r="B369" s="7"/>
       <c r="C369" s="8"/>
       <c r="D369" s="8"/>
@@ -10277,7 +10283,7 @@
       <c r="G369" s="8"/>
     </row>
     <row r="370" spans="1:7" ht="12.75">
-      <c r="A370" s="23"/>
+      <c r="A370" s="24"/>
       <c r="B370" s="7"/>
       <c r="C370" s="8"/>
       <c r="D370" s="8"/>
@@ -10286,7 +10292,7 @@
       <c r="G370" s="8"/>
     </row>
     <row r="371" spans="1:7" ht="12.75">
-      <c r="A371" s="23"/>
+      <c r="A371" s="24"/>
       <c r="B371" s="7"/>
       <c r="C371" s="8"/>
       <c r="D371" s="8"/>
@@ -10295,7 +10301,7 @@
       <c r="G371" s="8"/>
     </row>
     <row r="372" spans="1:7" ht="12.75">
-      <c r="A372" s="23"/>
+      <c r="A372" s="24"/>
       <c r="B372" s="7"/>
       <c r="C372" s="8"/>
       <c r="D372" s="8"/>
@@ -10304,7 +10310,7 @@
       <c r="G372" s="8"/>
     </row>
     <row r="373" spans="1:7" ht="12.75">
-      <c r="A373" s="23"/>
+      <c r="A373" s="24"/>
       <c r="B373" s="7"/>
       <c r="C373" s="8"/>
       <c r="D373" s="8"/>
@@ -10313,7 +10319,7 @@
       <c r="G373" s="8"/>
     </row>
     <row r="374" spans="1:7" ht="12.75">
-      <c r="A374" s="23"/>
+      <c r="A374" s="24"/>
       <c r="B374" s="7"/>
       <c r="C374" s="8"/>
       <c r="D374" s="8"/>
@@ -10322,7 +10328,7 @@
       <c r="G374" s="8"/>
     </row>
     <row r="375" spans="1:7" ht="12.75">
-      <c r="A375" s="23"/>
+      <c r="A375" s="24"/>
       <c r="B375" s="7"/>
       <c r="C375" s="8"/>
       <c r="D375" s="8"/>
@@ -10331,7 +10337,7 @@
       <c r="G375" s="8"/>
     </row>
     <row r="376" spans="1:7" ht="12.75">
-      <c r="A376" s="23"/>
+      <c r="A376" s="24"/>
       <c r="B376" s="7"/>
       <c r="C376" s="8"/>
       <c r="D376" s="8"/>
@@ -10340,7 +10346,7 @@
       <c r="G376" s="8"/>
     </row>
     <row r="377" spans="1:7" ht="12.75">
-      <c r="A377" s="23"/>
+      <c r="A377" s="24"/>
       <c r="B377" s="7"/>
       <c r="C377" s="8"/>
       <c r="D377" s="8"/>
@@ -10349,7 +10355,7 @@
       <c r="G377" s="8"/>
     </row>
     <row r="378" spans="1:7" ht="12.75">
-      <c r="A378" s="23"/>
+      <c r="A378" s="24"/>
       <c r="B378" s="7"/>
       <c r="C378" s="8"/>
       <c r="D378" s="8"/>
@@ -10358,7 +10364,7 @@
       <c r="G378" s="8"/>
     </row>
     <row r="379" spans="1:7" ht="12.75">
-      <c r="A379" s="23"/>
+      <c r="A379" s="24"/>
       <c r="B379" s="7"/>
       <c r="C379" s="8"/>
       <c r="D379" s="8"/>
@@ -10367,7 +10373,7 @@
       <c r="G379" s="8"/>
     </row>
     <row r="380" spans="1:7" ht="12.75">
-      <c r="A380" s="23"/>
+      <c r="A380" s="24"/>
       <c r="B380" s="7"/>
       <c r="C380" s="8"/>
       <c r="D380" s="8"/>
@@ -10376,7 +10382,7 @@
       <c r="G380" s="8"/>
     </row>
     <row r="381" spans="1:7" ht="12.75">
-      <c r="A381" s="23"/>
+      <c r="A381" s="24"/>
       <c r="B381" s="7"/>
       <c r="C381" s="8"/>
       <c r="D381" s="8"/>
@@ -10385,7 +10391,7 @@
       <c r="G381" s="8"/>
     </row>
     <row r="382" spans="1:7" ht="12.75">
-      <c r="A382" s="23"/>
+      <c r="A382" s="24"/>
       <c r="B382" s="7"/>
       <c r="C382" s="8"/>
       <c r="D382" s="8"/>
@@ -10394,7 +10400,7 @@
       <c r="G382" s="8"/>
     </row>
     <row r="383" spans="1:7" ht="12.75">
-      <c r="A383" s="23"/>
+      <c r="A383" s="24"/>
       <c r="B383" s="7"/>
       <c r="C383" s="8"/>
       <c r="D383" s="8"/>
@@ -10403,7 +10409,7 @@
       <c r="G383" s="8"/>
     </row>
     <row r="384" spans="1:7" ht="12.75">
-      <c r="A384" s="23"/>
+      <c r="A384" s="24"/>
       <c r="B384" s="7"/>
       <c r="C384" s="8"/>
       <c r="D384" s="8"/>
@@ -10412,7 +10418,7 @@
       <c r="G384" s="8"/>
     </row>
     <row r="385" spans="1:7" ht="12.75">
-      <c r="A385" s="23"/>
+      <c r="A385" s="24"/>
       <c r="B385" s="7"/>
       <c r="C385" s="8"/>
       <c r="D385" s="8"/>
@@ -10421,7 +10427,7 @@
       <c r="G385" s="8"/>
     </row>
     <row r="386" spans="1:7" ht="12.75">
-      <c r="A386" s="23"/>
+      <c r="A386" s="24"/>
       <c r="B386" s="7"/>
       <c r="C386" s="8"/>
       <c r="D386" s="8"/>
@@ -10430,7 +10436,7 @@
       <c r="G386" s="8"/>
     </row>
     <row r="387" spans="1:7" ht="12.75">
-      <c r="A387" s="23"/>
+      <c r="A387" s="24"/>
       <c r="B387" s="7"/>
       <c r="C387" s="8"/>
       <c r="D387" s="8"/>
@@ -10439,7 +10445,7 @@
       <c r="G387" s="8"/>
     </row>
     <row r="388" spans="1:7" ht="12.75">
-      <c r="A388" s="23"/>
+      <c r="A388" s="24"/>
       <c r="B388" s="7"/>
       <c r="C388" s="8"/>
       <c r="D388" s="8"/>
@@ -10448,7 +10454,7 @@
       <c r="G388" s="8"/>
     </row>
     <row r="389" spans="1:7" ht="12.75">
-      <c r="A389" s="23"/>
+      <c r="A389" s="24"/>
       <c r="B389" s="7"/>
       <c r="C389" s="8"/>
       <c r="D389" s="8"/>
@@ -10457,7 +10463,7 @@
       <c r="G389" s="8"/>
     </row>
     <row r="390" spans="1:7" ht="12.75">
-      <c r="A390" s="23"/>
+      <c r="A390" s="24"/>
       <c r="B390" s="7"/>
       <c r="C390" s="8"/>
       <c r="D390" s="8"/>
@@ -10466,7 +10472,7 @@
       <c r="G390" s="8"/>
     </row>
     <row r="391" spans="1:7" ht="12.75">
-      <c r="A391" s="23"/>
+      <c r="A391" s="24"/>
       <c r="B391" s="7"/>
       <c r="C391" s="8"/>
       <c r="D391" s="8"/>
@@ -10475,7 +10481,7 @@
       <c r="G391" s="8"/>
     </row>
     <row r="392" spans="1:7" ht="12.75">
-      <c r="A392" s="23"/>
+      <c r="A392" s="24"/>
       <c r="B392" s="7"/>
       <c r="C392" s="8"/>
       <c r="D392" s="8"/>
@@ -10484,7 +10490,7 @@
       <c r="G392" s="8"/>
     </row>
     <row r="393" spans="1:7" ht="12.75">
-      <c r="A393" s="23"/>
+      <c r="A393" s="24"/>
       <c r="B393" s="7"/>
       <c r="C393" s="8"/>
       <c r="D393" s="8"/>
@@ -10493,7 +10499,7 @@
       <c r="G393" s="8"/>
     </row>
     <row r="394" spans="1:7" ht="12.75">
-      <c r="A394" s="23"/>
+      <c r="A394" s="24"/>
       <c r="B394" s="7"/>
       <c r="C394" s="8"/>
       <c r="D394" s="8"/>
@@ -10502,7 +10508,7 @@
       <c r="G394" s="8"/>
     </row>
     <row r="395" spans="1:7" ht="12.75">
-      <c r="A395" s="23"/>
+      <c r="A395" s="24"/>
       <c r="B395" s="7"/>
       <c r="C395" s="8"/>
       <c r="D395" s="8"/>
@@ -10511,7 +10517,7 @@
       <c r="G395" s="8"/>
     </row>
     <row r="396" spans="1:7" ht="12.75">
-      <c r="A396" s="23"/>
+      <c r="A396" s="24"/>
       <c r="B396" s="7"/>
       <c r="C396" s="8"/>
       <c r="D396" s="8"/>
@@ -10520,7 +10526,7 @@
       <c r="G396" s="8"/>
     </row>
     <row r="397" spans="1:7" ht="12.75">
-      <c r="A397" s="23"/>
+      <c r="A397" s="24"/>
       <c r="B397" s="7"/>
       <c r="C397" s="8"/>
       <c r="D397" s="8"/>
@@ -10529,7 +10535,7 @@
       <c r="G397" s="8"/>
     </row>
     <row r="398" spans="1:7" ht="12.75">
-      <c r="A398" s="23"/>
+      <c r="A398" s="24"/>
       <c r="B398" s="7"/>
       <c r="C398" s="8"/>
       <c r="D398" s="8"/>
@@ -10538,7 +10544,7 @@
       <c r="G398" s="8"/>
     </row>
     <row r="399" spans="1:7" ht="12.75">
-      <c r="A399" s="23"/>
+      <c r="A399" s="24"/>
       <c r="B399" s="7"/>
       <c r="C399" s="8"/>
       <c r="D399" s="8"/>
@@ -10547,7 +10553,7 @@
       <c r="G399" s="8"/>
     </row>
     <row r="400" spans="1:7" ht="12.75">
-      <c r="A400" s="23"/>
+      <c r="A400" s="24"/>
       <c r="B400" s="7"/>
       <c r="C400" s="8"/>
       <c r="D400" s="8"/>
@@ -10556,7 +10562,7 @@
       <c r="G400" s="8"/>
     </row>
     <row r="401" spans="1:7" ht="12.75">
-      <c r="A401" s="23"/>
+      <c r="A401" s="24"/>
       <c r="B401" s="7"/>
       <c r="C401" s="8"/>
       <c r="D401" s="8"/>
@@ -10565,7 +10571,7 @@
       <c r="G401" s="8"/>
     </row>
     <row r="402" spans="1:7" ht="12.75">
-      <c r="A402" s="23"/>
+      <c r="A402" s="24"/>
       <c r="B402" s="7"/>
       <c r="C402" s="8"/>
       <c r="D402" s="8"/>
@@ -10574,7 +10580,7 @@
       <c r="G402" s="8"/>
     </row>
     <row r="403" spans="1:7" ht="12.75">
-      <c r="A403" s="23"/>
+      <c r="A403" s="24"/>
       <c r="B403" s="7"/>
       <c r="C403" s="8"/>
       <c r="D403" s="8"/>
@@ -10583,7 +10589,7 @@
       <c r="G403" s="8"/>
     </row>
     <row r="404" spans="1:7" ht="12.75">
-      <c r="A404" s="23"/>
+      <c r="A404" s="24"/>
       <c r="B404" s="7"/>
       <c r="C404" s="8"/>
       <c r="D404" s="8"/>
@@ -10592,7 +10598,7 @@
       <c r="G404" s="8"/>
     </row>
     <row r="405" spans="1:7" ht="12.75">
-      <c r="A405" s="23"/>
+      <c r="A405" s="24"/>
       <c r="B405" s="7"/>
       <c r="C405" s="8"/>
       <c r="D405" s="8"/>
@@ -10601,7 +10607,7 @@
       <c r="G405" s="8"/>
     </row>
     <row r="406" spans="1:7" ht="12.75">
-      <c r="A406" s="23"/>
+      <c r="A406" s="24"/>
       <c r="B406" s="7"/>
       <c r="C406" s="8"/>
       <c r="D406" s="8"/>
@@ -10610,7 +10616,7 @@
       <c r="G406" s="8"/>
     </row>
     <row r="407" spans="1:7" ht="12.75">
-      <c r="A407" s="23"/>
+      <c r="A407" s="24"/>
       <c r="B407" s="7"/>
       <c r="C407" s="8"/>
       <c r="D407" s="8"/>
@@ -10619,7 +10625,7 @@
       <c r="G407" s="8"/>
     </row>
     <row r="408" spans="1:7" ht="12.75">
-      <c r="A408" s="23"/>
+      <c r="A408" s="24"/>
       <c r="B408" s="7"/>
       <c r="C408" s="8"/>
       <c r="D408" s="8"/>
@@ -10628,7 +10634,7 @@
       <c r="G408" s="8"/>
     </row>
     <row r="409" spans="1:7" ht="12.75">
-      <c r="A409" s="23"/>
+      <c r="A409" s="24"/>
       <c r="B409" s="7"/>
       <c r="C409" s="8"/>
       <c r="D409" s="8"/>
@@ -10637,7 +10643,7 @@
       <c r="G409" s="8"/>
     </row>
     <row r="410" spans="1:7" ht="12.75">
-      <c r="A410" s="23"/>
+      <c r="A410" s="24"/>
       <c r="B410" s="7"/>
       <c r="C410" s="8"/>
       <c r="D410" s="8"/>
@@ -10646,7 +10652,7 @@
       <c r="G410" s="8"/>
     </row>
     <row r="411" spans="1:7" ht="12.75">
-      <c r="A411" s="23"/>
+      <c r="A411" s="24"/>
       <c r="B411" s="7"/>
       <c r="C411" s="8"/>
       <c r="D411" s="8"/>
@@ -10655,7 +10661,7 @@
       <c r="G411" s="8"/>
     </row>
     <row r="412" spans="1:7" ht="12.75">
-      <c r="A412" s="23"/>
+      <c r="A412" s="24"/>
       <c r="B412" s="7"/>
       <c r="C412" s="8"/>
       <c r="D412" s="8"/>
@@ -10664,7 +10670,7 @@
       <c r="G412" s="8"/>
     </row>
     <row r="413" spans="1:7" ht="12.75">
-      <c r="A413" s="23"/>
+      <c r="A413" s="24"/>
       <c r="B413" s="7"/>
       <c r="C413" s="8"/>
       <c r="D413" s="8"/>
@@ -10673,7 +10679,7 @@
       <c r="G413" s="8"/>
     </row>
     <row r="414" spans="1:7" ht="12.75">
-      <c r="A414" s="23"/>
+      <c r="A414" s="24"/>
       <c r="B414" s="7"/>
       <c r="C414" s="8"/>
       <c r="D414" s="8"/>
@@ -10682,7 +10688,7 @@
       <c r="G414" s="8"/>
     </row>
     <row r="415" spans="1:7" ht="12.75">
-      <c r="A415" s="23"/>
+      <c r="A415" s="24"/>
       <c r="B415" s="7"/>
       <c r="C415" s="8"/>
       <c r="D415" s="8"/>
@@ -10691,7 +10697,7 @@
       <c r="G415" s="8"/>
     </row>
     <row r="416" spans="1:7" ht="12.75">
-      <c r="A416" s="23"/>
+      <c r="A416" s="24"/>
       <c r="B416" s="7"/>
       <c r="C416" s="8"/>
       <c r="D416" s="8"/>
@@ -10700,7 +10706,7 @@
       <c r="G416" s="8"/>
     </row>
     <row r="417" spans="1:7" ht="12.75">
-      <c r="A417" s="23"/>
+      <c r="A417" s="24"/>
       <c r="B417" s="7"/>
       <c r="C417" s="8"/>
       <c r="D417" s="8"/>
@@ -10709,7 +10715,7 @@
       <c r="G417" s="8"/>
     </row>
     <row r="418" spans="1:7" ht="12.75">
-      <c r="A418" s="23"/>
+      <c r="A418" s="24"/>
       <c r="B418" s="7"/>
       <c r="C418" s="8"/>
       <c r="D418" s="8"/>
@@ -10718,7 +10724,7 @@
       <c r="G418" s="8"/>
     </row>
     <row r="419" spans="1:7" ht="12.75">
-      <c r="A419" s="23"/>
+      <c r="A419" s="24"/>
       <c r="B419" s="7"/>
       <c r="C419" s="8"/>
       <c r="D419" s="8"/>
@@ -10727,7 +10733,7 @@
       <c r="G419" s="8"/>
     </row>
     <row r="420" spans="1:7" ht="12.75">
-      <c r="A420" s="23"/>
+      <c r="A420" s="24"/>
       <c r="B420" s="7"/>
       <c r="C420" s="8"/>
       <c r="D420" s="8"/>
@@ -10736,7 +10742,7 @@
       <c r="G420" s="8"/>
     </row>
     <row r="421" spans="1:7" ht="12.75">
-      <c r="A421" s="23"/>
+      <c r="A421" s="24"/>
       <c r="B421" s="7"/>
       <c r="C421" s="8"/>
       <c r="D421" s="8"/>
@@ -10745,7 +10751,7 @@
       <c r="G421" s="8"/>
     </row>
     <row r="422" spans="1:7" ht="12.75">
-      <c r="A422" s="23"/>
+      <c r="A422" s="24"/>
       <c r="B422" s="7"/>
       <c r="C422" s="8"/>
       <c r="D422" s="8"/>
@@ -10754,7 +10760,7 @@
       <c r="G422" s="8"/>
     </row>
     <row r="423" spans="1:7" ht="12.75">
-      <c r="A423" s="23"/>
+      <c r="A423" s="24"/>
       <c r="B423" s="7"/>
       <c r="C423" s="8"/>
       <c r="D423" s="8"/>
@@ -10763,7 +10769,7 @@
       <c r="G423" s="8"/>
     </row>
     <row r="424" spans="1:7" ht="12.75">
-      <c r="A424" s="23"/>
+      <c r="A424" s="24"/>
       <c r="B424" s="7"/>
       <c r="C424" s="8"/>
       <c r="D424" s="8"/>
@@ -10772,7 +10778,7 @@
       <c r="G424" s="8"/>
     </row>
     <row r="425" spans="1:7" ht="12.75">
-      <c r="A425" s="23"/>
+      <c r="A425" s="24"/>
       <c r="B425" s="7"/>
       <c r="C425" s="8"/>
       <c r="D425" s="8"/>
@@ -10781,7 +10787,7 @@
       <c r="G425" s="8"/>
     </row>
     <row r="426" spans="1:7" ht="12.75">
-      <c r="A426" s="23"/>
+      <c r="A426" s="24"/>
       <c r="B426" s="7"/>
       <c r="C426" s="8"/>
       <c r="D426" s="8"/>
@@ -10790,7 +10796,7 @@
       <c r="G426" s="8"/>
     </row>
     <row r="427" spans="1:7" ht="12.75">
-      <c r="A427" s="23"/>
+      <c r="A427" s="24"/>
       <c r="B427" s="7"/>
       <c r="C427" s="8"/>
       <c r="D427" s="8"/>
@@ -10799,7 +10805,7 @@
       <c r="G427" s="8"/>
     </row>
     <row r="428" spans="1:7" ht="12.75">
-      <c r="A428" s="23"/>
+      <c r="A428" s="24"/>
       <c r="B428" s="7"/>
       <c r="C428" s="8"/>
       <c r="D428" s="8"/>
@@ -10808,7 +10814,7 @@
       <c r="G428" s="8"/>
     </row>
     <row r="429" spans="1:7" ht="12.75">
-      <c r="A429" s="23"/>
+      <c r="A429" s="24"/>
       <c r="B429" s="7"/>
       <c r="C429" s="8"/>
       <c r="D429" s="8"/>
@@ -10817,7 +10823,7 @@
       <c r="G429" s="8"/>
     </row>
     <row r="430" spans="1:7" ht="12.75">
-      <c r="A430" s="23"/>
+      <c r="A430" s="24"/>
       <c r="B430" s="7"/>
       <c r="C430" s="8"/>
       <c r="D430" s="8"/>
@@ -10826,7 +10832,7 @@
       <c r="G430" s="8"/>
     </row>
     <row r="431" spans="1:7" ht="12.75">
-      <c r="A431" s="23"/>
+      <c r="A431" s="24"/>
       <c r="B431" s="7"/>
       <c r="C431" s="8"/>
       <c r="D431" s="8"/>
@@ -10835,7 +10841,7 @@
       <c r="G431" s="8"/>
     </row>
     <row r="432" spans="1:7" ht="12.75">
-      <c r="A432" s="23"/>
+      <c r="A432" s="24"/>
       <c r="B432" s="7"/>
       <c r="C432" s="8"/>
       <c r="D432" s="8"/>
@@ -10844,7 +10850,7 @@
       <c r="G432" s="8"/>
     </row>
     <row r="433" spans="1:7" ht="12.75">
-      <c r="A433" s="23"/>
+      <c r="A433" s="24"/>
       <c r="B433" s="7"/>
       <c r="C433" s="8"/>
       <c r="D433" s="8"/>
@@ -10853,7 +10859,7 @@
       <c r="G433" s="8"/>
     </row>
     <row r="434" spans="1:7" ht="12.75">
-      <c r="A434" s="23"/>
+      <c r="A434" s="24"/>
       <c r="B434" s="7"/>
       <c r="C434" s="8"/>
       <c r="D434" s="8"/>
@@ -10862,7 +10868,7 @@
       <c r="G434" s="8"/>
     </row>
     <row r="435" spans="1:7" ht="12.75">
-      <c r="A435" s="23"/>
+      <c r="A435" s="24"/>
       <c r="B435" s="7"/>
       <c r="C435" s="8"/>
       <c r="D435" s="8"/>
@@ -10871,7 +10877,7 @@
       <c r="G435" s="8"/>
     </row>
     <row r="436" spans="1:7" ht="12.75">
-      <c r="A436" s="23"/>
+      <c r="A436" s="24"/>
       <c r="B436" s="7"/>
       <c r="C436" s="8"/>
       <c r="D436" s="8"/>
@@ -10880,7 +10886,7 @@
       <c r="G436" s="8"/>
     </row>
     <row r="437" spans="1:7" ht="12.75">
-      <c r="A437" s="23"/>
+      <c r="A437" s="24"/>
       <c r="B437" s="7"/>
       <c r="C437" s="8"/>
       <c r="D437" s="8"/>
@@ -10889,7 +10895,7 @@
       <c r="G437" s="8"/>
     </row>
     <row r="438" spans="1:7" ht="12.75">
-      <c r="A438" s="23"/>
+      <c r="A438" s="24"/>
       <c r="B438" s="7"/>
       <c r="C438" s="8"/>
       <c r="D438" s="8"/>
@@ -10898,7 +10904,7 @@
       <c r="G438" s="8"/>
     </row>
     <row r="439" spans="1:7" ht="12.75">
-      <c r="A439" s="23"/>
+      <c r="A439" s="24"/>
       <c r="B439" s="7"/>
       <c r="C439" s="8"/>
       <c r="D439" s="8"/>
@@ -10907,7 +10913,7 @@
       <c r="G439" s="8"/>
     </row>
     <row r="440" spans="1:7" ht="12.75">
-      <c r="A440" s="23"/>
+      <c r="A440" s="24"/>
       <c r="B440" s="7"/>
       <c r="C440" s="8"/>
       <c r="D440" s="8"/>
@@ -10916,7 +10922,7 @@
       <c r="G440" s="8"/>
     </row>
     <row r="441" spans="1:7" ht="12.75">
-      <c r="A441" s="23"/>
+      <c r="A441" s="24"/>
       <c r="B441" s="7"/>
       <c r="C441" s="8"/>
       <c r="D441" s="8"/>
@@ -10925,7 +10931,7 @@
       <c r="G441" s="8"/>
     </row>
     <row r="442" spans="1:7" ht="12.75">
-      <c r="A442" s="23"/>
+      <c r="A442" s="24"/>
       <c r="B442" s="7"/>
       <c r="C442" s="8"/>
       <c r="D442" s="8"/>
@@ -10934,7 +10940,7 @@
       <c r="G442" s="8"/>
     </row>
     <row r="443" spans="1:7" ht="12.75">
-      <c r="A443" s="23"/>
+      <c r="A443" s="24"/>
       <c r="B443" s="7"/>
       <c r="C443" s="8"/>
       <c r="D443" s="8"/>
@@ -10943,7 +10949,7 @@
       <c r="G443" s="8"/>
     </row>
     <row r="444" spans="1:7" ht="12.75">
-      <c r="A444" s="23"/>
+      <c r="A444" s="24"/>
       <c r="B444" s="7"/>
       <c r="C444" s="8"/>
       <c r="D444" s="8"/>
@@ -10952,7 +10958,7 @@
       <c r="G444" s="8"/>
     </row>
     <row r="445" spans="1:7" ht="12.75">
-      <c r="A445" s="23"/>
+      <c r="A445" s="24"/>
       <c r="B445" s="7"/>
       <c r="C445" s="8"/>
       <c r="D445" s="8"/>
@@ -10961,7 +10967,7 @@
       <c r="G445" s="8"/>
     </row>
     <row r="446" spans="1:7" ht="12.75">
-      <c r="A446" s="23"/>
+      <c r="A446" s="24"/>
       <c r="B446" s="7"/>
       <c r="C446" s="8"/>
       <c r="D446" s="8"/>
@@ -10970,7 +10976,7 @@
       <c r="G446" s="8"/>
     </row>
     <row r="447" spans="1:7" ht="12.75">
-      <c r="A447" s="23"/>
+      <c r="A447" s="24"/>
       <c r="B447" s="7"/>
       <c r="C447" s="8"/>
       <c r="D447" s="8"/>
@@ -10979,7 +10985,7 @@
       <c r="G447" s="8"/>
     </row>
     <row r="448" spans="1:7" ht="12.75">
-      <c r="A448" s="23"/>
+      <c r="A448" s="24"/>
       <c r="B448" s="7"/>
       <c r="C448" s="8"/>
       <c r="D448" s="8"/>
@@ -10988,7 +10994,7 @@
       <c r="G448" s="8"/>
     </row>
     <row r="449" spans="1:7" ht="12.75">
-      <c r="A449" s="23"/>
+      <c r="A449" s="24"/>
       <c r="B449" s="7"/>
       <c r="C449" s="8"/>
       <c r="D449" s="8"/>
@@ -10997,7 +11003,7 @@
       <c r="G449" s="8"/>
     </row>
     <row r="450" spans="1:7" ht="12.75">
-      <c r="A450" s="23"/>
+      <c r="A450" s="24"/>
       <c r="B450" s="7"/>
       <c r="C450" s="8"/>
       <c r="D450" s="8"/>
@@ -11006,7 +11012,7 @@
       <c r="G450" s="8"/>
     </row>
     <row r="451" spans="1:7" ht="12.75">
-      <c r="A451" s="23"/>
+      <c r="A451" s="24"/>
       <c r="B451" s="7"/>
       <c r="C451" s="8"/>
       <c r="D451" s="8"/>
@@ -11015,7 +11021,7 @@
       <c r="G451" s="8"/>
     </row>
     <row r="452" spans="1:7" ht="12.75">
-      <c r="A452" s="23"/>
+      <c r="A452" s="24"/>
       <c r="B452" s="7"/>
       <c r="C452" s="8"/>
       <c r="D452" s="8"/>
@@ -11024,7 +11030,7 @@
       <c r="G452" s="8"/>
     </row>
     <row r="453" spans="1:7" ht="12.75">
-      <c r="A453" s="23"/>
+      <c r="A453" s="24"/>
       <c r="B453" s="7"/>
       <c r="C453" s="8"/>
       <c r="D453" s="8"/>
@@ -11033,7 +11039,7 @@
       <c r="G453" s="8"/>
     </row>
     <row r="454" spans="1:7" ht="12.75">
-      <c r="A454" s="23"/>
+      <c r="A454" s="24"/>
       <c r="B454" s="7"/>
       <c r="C454" s="8"/>
       <c r="D454" s="8"/>
@@ -11042,7 +11048,7 @@
       <c r="G454" s="8"/>
     </row>
     <row r="455" spans="1:7" ht="12.75">
-      <c r="A455" s="23"/>
+      <c r="A455" s="24"/>
       <c r="B455" s="7"/>
       <c r="C455" s="8"/>
       <c r="D455" s="8"/>
@@ -11051,7 +11057,7 @@
       <c r="G455" s="8"/>
     </row>
     <row r="456" spans="1:7" ht="12.75">
-      <c r="A456" s="23"/>
+      <c r="A456" s="24"/>
       <c r="B456" s="7"/>
       <c r="C456" s="8"/>
       <c r="D456" s="8"/>
@@ -11060,7 +11066,7 @@
       <c r="G456" s="8"/>
     </row>
     <row r="457" spans="1:7" ht="12.75">
-      <c r="A457" s="23"/>
+      <c r="A457" s="24"/>
       <c r="B457" s="7"/>
       <c r="C457" s="8"/>
       <c r="D457" s="8"/>
@@ -11069,7 +11075,7 @@
       <c r="G457" s="8"/>
     </row>
     <row r="458" spans="1:7" ht="12.75">
-      <c r="A458" s="23"/>
+      <c r="A458" s="24"/>
       <c r="B458" s="7"/>
       <c r="C458" s="8"/>
       <c r="D458" s="8"/>
@@ -11078,7 +11084,7 @@
       <c r="G458" s="8"/>
     </row>
     <row r="459" spans="1:7" ht="12.75">
-      <c r="A459" s="23"/>
+      <c r="A459" s="24"/>
       <c r="B459" s="7"/>
       <c r="C459" s="8"/>
       <c r="D459" s="8"/>
@@ -11087,7 +11093,7 @@
       <c r="G459" s="8"/>
     </row>
     <row r="460" spans="1:7" ht="12.75">
-      <c r="A460" s="23"/>
+      <c r="A460" s="24"/>
       <c r="B460" s="7"/>
       <c r="C460" s="8"/>
       <c r="D460" s="8"/>
@@ -11096,7 +11102,7 @@
       <c r="G460" s="8"/>
     </row>
     <row r="461" spans="1:7" ht="12.75">
-      <c r="A461" s="23"/>
+      <c r="A461" s="24"/>
       <c r="B461" s="7"/>
       <c r="C461" s="8"/>
       <c r="D461" s="8"/>
@@ -11105,7 +11111,7 @@
       <c r="G461" s="8"/>
     </row>
     <row r="462" spans="1:7" ht="12.75">
-      <c r="A462" s="23"/>
+      <c r="A462" s="24"/>
       <c r="B462" s="7"/>
       <c r="C462" s="8"/>
       <c r="D462" s="8"/>
@@ -11114,7 +11120,7 @@
       <c r="G462" s="8"/>
     </row>
     <row r="463" spans="1:7" ht="12.75">
-      <c r="A463" s="23"/>
+      <c r="A463" s="24"/>
       <c r="B463" s="7"/>
       <c r="C463" s="8"/>
       <c r="D463" s="8"/>
@@ -11123,7 +11129,7 @@
       <c r="G463" s="8"/>
     </row>
     <row r="464" spans="1:7" ht="12.75">
-      <c r="A464" s="23"/>
+      <c r="A464" s="24"/>
       <c r="B464" s="7"/>
       <c r="C464" s="8"/>
       <c r="D464" s="8"/>
@@ -11132,7 +11138,7 @@
       <c r="G464" s="8"/>
     </row>
     <row r="465" spans="1:7" ht="12.75">
-      <c r="A465" s="23"/>
+      <c r="A465" s="24"/>
       <c r="B465" s="7"/>
       <c r="C465" s="8"/>
       <c r="D465" s="8"/>
@@ -11141,7 +11147,7 @@
       <c r="G465" s="8"/>
     </row>
     <row r="466" spans="1:7" ht="12.75">
-      <c r="A466" s="23"/>
+      <c r="A466" s="24"/>
       <c r="B466" s="7"/>
       <c r="C466" s="8"/>
       <c r="D466" s="8"/>
@@ -11150,7 +11156,7 @@
       <c r="G466" s="8"/>
     </row>
     <row r="467" spans="1:7" ht="12.75">
-      <c r="A467" s="23"/>
+      <c r="A467" s="24"/>
       <c r="B467" s="7"/>
       <c r="C467" s="8"/>
       <c r="D467" s="8"/>
@@ -11159,7 +11165,7 @@
       <c r="G467" s="8"/>
     </row>
     <row r="468" spans="1:7" ht="12.75">
-      <c r="A468" s="23"/>
+      <c r="A468" s="24"/>
       <c r="B468" s="7"/>
       <c r="C468" s="8"/>
       <c r="D468" s="8"/>
@@ -11168,7 +11174,7 @@
       <c r="G468" s="8"/>
     </row>
     <row r="469" spans="1:7" ht="12.75">
-      <c r="A469" s="23"/>
+      <c r="A469" s="24"/>
       <c r="B469" s="7"/>
       <c r="C469" s="8"/>
       <c r="D469" s="8"/>
@@ -11177,7 +11183,7 @@
       <c r="G469" s="8"/>
     </row>
     <row r="470" spans="1:7" ht="12.75">
-      <c r="A470" s="23"/>
+      <c r="A470" s="24"/>
       <c r="B470" s="7"/>
       <c r="C470" s="8"/>
       <c r="D470" s="8"/>
@@ -11186,7 +11192,7 @@
       <c r="G470" s="8"/>
     </row>
     <row r="471" spans="1:7" ht="12.75">
-      <c r="A471" s="23"/>
+      <c r="A471" s="24"/>
       <c r="B471" s="7"/>
       <c r="C471" s="8"/>
       <c r="D471" s="8"/>
@@ -11195,7 +11201,7 @@
       <c r="G471" s="8"/>
     </row>
     <row r="472" spans="1:7" ht="12.75">
-      <c r="A472" s="23"/>
+      <c r="A472" s="24"/>
       <c r="B472" s="7"/>
       <c r="C472" s="8"/>
       <c r="D472" s="8"/>
@@ -11204,7 +11210,7 @@
       <c r="G472" s="8"/>
     </row>
     <row r="473" spans="1:7" ht="12.75">
-      <c r="A473" s="23"/>
+      <c r="A473" s="24"/>
       <c r="B473" s="7"/>
       <c r="C473" s="8"/>
       <c r="D473" s="8"/>
@@ -11213,7 +11219,7 @@
       <c r="G473" s="8"/>
     </row>
     <row r="474" spans="1:7" ht="12.75">
-      <c r="A474" s="23"/>
+      <c r="A474" s="24"/>
       <c r="B474" s="7"/>
       <c r="C474" s="8"/>
       <c r="D474" s="8"/>
@@ -11222,7 +11228,7 @@
       <c r="G474" s="8"/>
     </row>
     <row r="475" spans="1:7" ht="12.75">
-      <c r="A475" s="23"/>
+      <c r="A475" s="24"/>
       <c r="B475" s="7"/>
       <c r="C475" s="8"/>
       <c r="D475" s="8"/>
@@ -11231,7 +11237,7 @@
       <c r="G475" s="8"/>
     </row>
     <row r="476" spans="1:7" ht="12.75">
-      <c r="A476" s="23"/>
+      <c r="A476" s="24"/>
       <c r="B476" s="7"/>
       <c r="C476" s="8"/>
       <c r="D476" s="8"/>
@@ -11240,7 +11246,7 @@
       <c r="G476" s="8"/>
     </row>
     <row r="477" spans="1:7" ht="12.75">
-      <c r="A477" s="23"/>
+      <c r="A477" s="24"/>
       <c r="B477" s="7"/>
       <c r="C477" s="8"/>
       <c r="D477" s="8"/>
@@ -11249,7 +11255,7 @@
       <c r="G477" s="8"/>
     </row>
     <row r="478" spans="1:7" ht="12.75">
-      <c r="A478" s="23"/>
+      <c r="A478" s="24"/>
       <c r="B478" s="7"/>
       <c r="C478" s="8"/>
       <c r="D478" s="8"/>
@@ -11258,7 +11264,7 @@
       <c r="G478" s="8"/>
     </row>
     <row r="479" spans="1:7" ht="12.75">
-      <c r="A479" s="23"/>
+      <c r="A479" s="24"/>
       <c r="B479" s="7"/>
       <c r="C479" s="8"/>
       <c r="D479" s="8"/>
@@ -11267,7 +11273,7 @@
       <c r="G479" s="8"/>
     </row>
     <row r="480" spans="1:7" ht="12.75">
-      <c r="A480" s="23"/>
+      <c r="A480" s="24"/>
       <c r="B480" s="7"/>
       <c r="C480" s="8"/>
       <c r="D480" s="8"/>
@@ -11276,7 +11282,7 @@
       <c r="G480" s="8"/>
     </row>
     <row r="481" spans="1:7" ht="12.75">
-      <c r="A481" s="23"/>
+      <c r="A481" s="24"/>
       <c r="B481" s="7"/>
       <c r="C481" s="8"/>
       <c r="D481" s="8"/>
@@ -11285,7 +11291,7 @@
       <c r="G481" s="8"/>
     </row>
     <row r="482" spans="1:7" ht="12.75">
-      <c r="A482" s="23"/>
+      <c r="A482" s="24"/>
       <c r="B482" s="7"/>
       <c r="C482" s="8"/>
       <c r="D482" s="8"/>
@@ -11294,7 +11300,7 @@
       <c r="G482" s="8"/>
     </row>
     <row r="483" spans="1:7" ht="12.75">
-      <c r="A483" s="23"/>
+      <c r="A483" s="24"/>
       <c r="B483" s="7"/>
       <c r="C483" s="8"/>
       <c r="D483" s="8"/>
@@ -11303,7 +11309,7 @@
       <c r="G483" s="8"/>
     </row>
     <row r="484" spans="1:7" ht="12.75">
-      <c r="A484" s="23"/>
+      <c r="A484" s="24"/>
       <c r="B484" s="7"/>
       <c r="C484" s="8"/>
       <c r="D484" s="8"/>
@@ -11312,7 +11318,7 @@
       <c r="G484" s="8"/>
     </row>
     <row r="485" spans="1:7" ht="12.75">
-      <c r="A485" s="23"/>
+      <c r="A485" s="24"/>
       <c r="B485" s="7"/>
       <c r="C485" s="8"/>
       <c r="D485" s="8"/>
@@ -11321,7 +11327,7 @@
       <c r="G485" s="8"/>
     </row>
     <row r="486" spans="1:7" ht="12.75">
-      <c r="A486" s="23"/>
+      <c r="A486" s="24"/>
       <c r="B486" s="7"/>
       <c r="C486" s="8"/>
       <c r="D486" s="8"/>
@@ -11330,7 +11336,7 @@
       <c r="G486" s="8"/>
     </row>
     <row r="487" spans="1:7" ht="12.75">
-      <c r="A487" s="23"/>
+      <c r="A487" s="24"/>
       <c r="B487" s="7"/>
       <c r="C487" s="8"/>
       <c r="D487" s="8"/>
@@ -11339,7 +11345,7 @@
       <c r="G487" s="8"/>
     </row>
     <row r="488" spans="1:7" ht="12.75">
-      <c r="A488" s="23"/>
+      <c r="A488" s="24"/>
       <c r="B488" s="7"/>
       <c r="C488" s="8"/>
       <c r="D488" s="8"/>
@@ -11348,7 +11354,7 @@
       <c r="G488" s="8"/>
     </row>
     <row r="489" spans="1:7" ht="12.75">
-      <c r="A489" s="23"/>
+      <c r="A489" s="24"/>
       <c r="B489" s="7"/>
       <c r="C489" s="8"/>
       <c r="D489" s="8"/>
@@ -11357,7 +11363,7 @@
       <c r="G489" s="8"/>
     </row>
     <row r="490" spans="1:7" ht="12.75">
-      <c r="A490" s="23"/>
+      <c r="A490" s="24"/>
       <c r="B490" s="7"/>
       <c r="C490" s="8"/>
       <c r="D490" s="8"/>
@@ -11366,7 +11372,7 @@
       <c r="G490" s="8"/>
     </row>
     <row r="491" spans="1:7" ht="12.75">
-      <c r="A491" s="23"/>
+      <c r="A491" s="24"/>
       <c r="B491" s="7"/>
       <c r="C491" s="8"/>
       <c r="D491" s="8"/>
@@ -11375,7 +11381,7 @@
       <c r="G491" s="8"/>
     </row>
     <row r="492" spans="1:7" ht="12.75">
-      <c r="A492" s="23"/>
+      <c r="A492" s="24"/>
       <c r="B492" s="7"/>
       <c r="C492" s="8"/>
       <c r="D492" s="8"/>
@@ -11384,7 +11390,7 @@
       <c r="G492" s="8"/>
     </row>
     <row r="493" spans="1:7" ht="12.75">
-      <c r="A493" s="23"/>
+      <c r="A493" s="24"/>
       <c r="B493" s="7"/>
       <c r="C493" s="8"/>
       <c r="D493" s="8"/>
@@ -11393,7 +11399,7 @@
       <c r="G493" s="8"/>
     </row>
     <row r="494" spans="1:7" ht="12.75">
-      <c r="A494" s="23"/>
+      <c r="A494" s="24"/>
       <c r="B494" s="7"/>
       <c r="C494" s="8"/>
       <c r="D494" s="8"/>
@@ -11402,7 +11408,7 @@
       <c r="G494" s="8"/>
     </row>
     <row r="495" spans="1:7" ht="12.75">
-      <c r="A495" s="23"/>
+      <c r="A495" s="24"/>
       <c r="B495" s="7"/>
       <c r="C495" s="8"/>
       <c r="D495" s="8"/>
@@ -11411,7 +11417,7 @@
       <c r="G495" s="8"/>
     </row>
     <row r="496" spans="1:7" ht="12.75">
-      <c r="A496" s="23"/>
+      <c r="A496" s="24"/>
       <c r="B496" s="7"/>
       <c r="C496" s="8"/>
       <c r="D496" s="8"/>
@@ -11420,7 +11426,7 @@
       <c r="G496" s="8"/>
     </row>
     <row r="497" spans="1:7" ht="12.75">
-      <c r="A497" s="23"/>
+      <c r="A497" s="24"/>
       <c r="B497" s="7"/>
       <c r="C497" s="8"/>
       <c r="D497" s="8"/>
@@ -11429,7 +11435,7 @@
       <c r="G497" s="8"/>
     </row>
     <row r="498" spans="1:7" ht="12.75">
-      <c r="A498" s="23"/>
+      <c r="A498" s="24"/>
       <c r="B498" s="7"/>
       <c r="C498" s="8"/>
       <c r="D498" s="8"/>
@@ -11438,7 +11444,7 @@
       <c r="G498" s="8"/>
     </row>
     <row r="499" spans="1:7" ht="12.75">
-      <c r="A499" s="23"/>
+      <c r="A499" s="24"/>
       <c r="B499" s="7"/>
       <c r="C499" s="8"/>
       <c r="D499" s="8"/>
@@ -11447,7 +11453,7 @@
       <c r="G499" s="8"/>
     </row>
     <row r="500" spans="1:7" ht="12.75">
-      <c r="A500" s="23"/>
+      <c r="A500" s="24"/>
       <c r="B500" s="7"/>
       <c r="C500" s="8"/>
       <c r="D500" s="8"/>
@@ -11456,7 +11462,7 @@
       <c r="G500" s="8"/>
     </row>
     <row r="501" spans="1:7" ht="12.75">
-      <c r="A501" s="23"/>
+      <c r="A501" s="24"/>
       <c r="B501" s="7"/>
       <c r="C501" s="8"/>
       <c r="D501" s="8"/>
@@ -11465,7 +11471,7 @@
       <c r="G501" s="8"/>
     </row>
     <row r="502" spans="1:7" ht="12.75">
-      <c r="A502" s="23"/>
+      <c r="A502" s="24"/>
       <c r="B502" s="7"/>
       <c r="C502" s="8"/>
       <c r="D502" s="8"/>
@@ -11474,7 +11480,7 @@
       <c r="G502" s="8"/>
     </row>
     <row r="503" spans="1:7" ht="12.75">
-      <c r="A503" s="23"/>
+      <c r="A503" s="24"/>
       <c r="B503" s="7"/>
       <c r="C503" s="8"/>
       <c r="D503" s="8"/>
@@ -11483,7 +11489,7 @@
       <c r="G503" s="8"/>
     </row>
     <row r="504" spans="1:7" ht="12.75">
-      <c r="A504" s="23"/>
+      <c r="A504" s="24"/>
       <c r="B504" s="7"/>
       <c r="C504" s="8"/>
       <c r="D504" s="8"/>
@@ -11492,7 +11498,7 @@
       <c r="G504" s="8"/>
     </row>
     <row r="505" spans="1:7" ht="12.75">
-      <c r="A505" s="23"/>
+      <c r="A505" s="24"/>
       <c r="B505" s="7"/>
       <c r="C505" s="8"/>
       <c r="D505" s="8"/>
@@ -11501,7 +11507,7 @@
       <c r="G505" s="8"/>
     </row>
     <row r="506" spans="1:7" ht="12.75">
-      <c r="A506" s="23"/>
+      <c r="A506" s="24"/>
       <c r="B506" s="7"/>
       <c r="C506" s="8"/>
       <c r="D506" s="8"/>
@@ -11510,7 +11516,7 @@
       <c r="G506" s="8"/>
     </row>
     <row r="507" spans="1:7" ht="12.75">
-      <c r="A507" s="23"/>
+      <c r="A507" s="24"/>
       <c r="B507" s="7"/>
       <c r="C507" s="8"/>
       <c r="D507" s="8"/>
@@ -11519,7 +11525,7 @@
       <c r="G507" s="8"/>
     </row>
     <row r="508" spans="1:7" ht="12.75">
-      <c r="A508" s="23"/>
+      <c r="A508" s="24"/>
       <c r="B508" s="7"/>
       <c r="C508" s="8"/>
       <c r="D508" s="8"/>
@@ -11528,7 +11534,7 @@
       <c r="G508" s="8"/>
     </row>
     <row r="509" spans="1:7" ht="12.75">
-      <c r="A509" s="23"/>
+      <c r="A509" s="24"/>
       <c r="B509" s="7"/>
       <c r="C509" s="8"/>
       <c r="D509" s="8"/>
@@ -11537,7 +11543,7 @@
       <c r="G509" s="8"/>
     </row>
     <row r="510" spans="1:7" ht="12.75">
-      <c r="A510" s="23"/>
+      <c r="A510" s="24"/>
       <c r="B510" s="7"/>
       <c r="C510" s="8"/>
       <c r="D510" s="8"/>
@@ -11546,7 +11552,7 @@
       <c r="G510" s="8"/>
     </row>
     <row r="511" spans="1:7" ht="12.75">
-      <c r="A511" s="23"/>
+      <c r="A511" s="24"/>
       <c r="B511" s="7"/>
       <c r="C511" s="8"/>
       <c r="D511" s="8"/>
@@ -11555,7 +11561,7 @@
       <c r="G511" s="8"/>
     </row>
     <row r="512" spans="1:7" ht="12.75">
-      <c r="A512" s="23"/>
+      <c r="A512" s="24"/>
       <c r="B512" s="7"/>
       <c r="C512" s="8"/>
       <c r="D512" s="8"/>
@@ -11564,7 +11570,7 @@
       <c r="G512" s="8"/>
     </row>
     <row r="513" spans="1:7" ht="12.75">
-      <c r="A513" s="23"/>
+      <c r="A513" s="24"/>
       <c r="B513" s="7"/>
       <c r="C513" s="8"/>
       <c r="D513" s="8"/>
@@ -11573,7 +11579,7 @@
       <c r="G513" s="8"/>
     </row>
     <row r="514" spans="1:7" ht="12.75">
-      <c r="A514" s="23"/>
+      <c r="A514" s="24"/>
       <c r="B514" s="7"/>
       <c r="C514" s="8"/>
       <c r="D514" s="8"/>
@@ -11582,7 +11588,7 @@
       <c r="G514" s="8"/>
     </row>
     <row r="515" spans="1:7" ht="12.75">
-      <c r="A515" s="23"/>
+      <c r="A515" s="24"/>
       <c r="B515" s="7"/>
       <c r="C515" s="8"/>
       <c r="D515" s="8"/>
@@ -11591,7 +11597,7 @@
       <c r="G515" s="8"/>
     </row>
     <row r="516" spans="1:7" ht="12.75">
-      <c r="A516" s="23"/>
+      <c r="A516" s="24"/>
       <c r="B516" s="7"/>
       <c r="C516" s="8"/>
       <c r="D516" s="8"/>
@@ -11600,7 +11606,7 @@
       <c r="G516" s="8"/>
     </row>
     <row r="517" spans="1:7" ht="12.75">
-      <c r="A517" s="23"/>
+      <c r="A517" s="24"/>
       <c r="B517" s="7"/>
       <c r="C517" s="8"/>
       <c r="D517" s="8"/>
@@ -11609,7 +11615,7 @@
       <c r="G517" s="8"/>
     </row>
     <row r="518" spans="1:7" ht="12.75">
-      <c r="A518" s="23"/>
+      <c r="A518" s="24"/>
       <c r="B518" s="7"/>
       <c r="C518" s="8"/>
       <c r="D518" s="8"/>
@@ -11618,7 +11624,7 @@
       <c r="G518" s="8"/>
     </row>
     <row r="519" spans="1:7" ht="12.75">
-      <c r="A519" s="23"/>
+      <c r="A519" s="24"/>
       <c r="B519" s="7"/>
       <c r="C519" s="8"/>
       <c r="D519" s="8"/>
@@ -11627,7 +11633,7 @@
       <c r="G519" s="8"/>
     </row>
     <row r="520" spans="1:7" ht="12.75">
-      <c r="A520" s="23"/>
+      <c r="A520" s="24"/>
       <c r="B520" s="7"/>
       <c r="C520" s="8"/>
       <c r="D520" s="8"/>
@@ -11636,7 +11642,7 @@
       <c r="G520" s="8"/>
     </row>
     <row r="521" spans="1:7" ht="12.75">
-      <c r="A521" s="23"/>
+      <c r="A521" s="24"/>
       <c r="B521" s="7"/>
       <c r="C521" s="8"/>
       <c r="D521" s="8"/>
@@ -11645,7 +11651,7 @@
       <c r="G521" s="8"/>
     </row>
     <row r="522" spans="1:7" ht="12.75">
-      <c r="A522" s="23"/>
+      <c r="A522" s="24"/>
       <c r="B522" s="7"/>
       <c r="C522" s="8"/>
       <c r="D522" s="8"/>
@@ -11654,7 +11660,7 @@
       <c r="G522" s="8"/>
     </row>
     <row r="523" spans="1:7" ht="12.75">
-      <c r="A523" s="23"/>
+      <c r="A523" s="24"/>
       <c r="B523" s="7"/>
       <c r="C523" s="8"/>
       <c r="D523" s="8"/>
@@ -11663,7 +11669,7 @@
       <c r="G523" s="8"/>
     </row>
     <row r="524" spans="1:7" ht="12.75">
-      <c r="A524" s="23"/>
+      <c r="A524" s="24"/>
       <c r="B524" s="7"/>
       <c r="C524" s="8"/>
       <c r="D524" s="8"/>
@@ -11672,7 +11678,7 @@
       <c r="G524" s="8"/>
     </row>
     <row r="525" spans="1:7" ht="12.75">
-      <c r="A525" s="23"/>
+      <c r="A525" s="24"/>
       <c r="B525" s="7"/>
       <c r="C525" s="8"/>
       <c r="D525" s="8"/>
@@ -11681,7 +11687,7 @@
       <c r="G525" s="8"/>
     </row>
     <row r="526" spans="1:7" ht="12.75">
-      <c r="A526" s="23"/>
+      <c r="A526" s="24"/>
       <c r="B526" s="7"/>
       <c r="C526" s="8"/>
       <c r="D526" s="8"/>
@@ -11690,7 +11696,7 @@
       <c r="G526" s="8"/>
     </row>
     <row r="527" spans="1:7" ht="12.75">
-      <c r="A527" s="23"/>
+      <c r="A527" s="24"/>
       <c r="B527" s="7"/>
       <c r="C527" s="8"/>
       <c r="D527" s="8"/>
@@ -11699,7 +11705,7 @@
       <c r="G527" s="8"/>
     </row>
     <row r="528" spans="1:7" ht="12.75">
-      <c r="A528" s="23"/>
+      <c r="A528" s="24"/>
       <c r="B528" s="7"/>
       <c r="C528" s="8"/>
       <c r="D528" s="8"/>
@@ -11708,7 +11714,7 @@
       <c r="G528" s="8"/>
     </row>
     <row r="529" spans="1:7" ht="12.75">
-      <c r="A529" s="23"/>
+      <c r="A529" s="24"/>
       <c r="B529" s="7"/>
       <c r="C529" s="8"/>
       <c r="D529" s="8"/>
@@ -11717,7 +11723,7 @@
       <c r="G529" s="8"/>
     </row>
     <row r="530" spans="1:7" ht="12.75">
-      <c r="A530" s="23"/>
+      <c r="A530" s="24"/>
       <c r="B530" s="7"/>
       <c r="C530" s="8"/>
       <c r="D530" s="8"/>
@@ -11726,7 +11732,7 @@
       <c r="G530" s="8"/>
     </row>
     <row r="531" spans="1:7" ht="12.75">
-      <c r="A531" s="23"/>
+      <c r="A531" s="24"/>
       <c r="B531" s="7"/>
       <c r="C531" s="8"/>
       <c r="D531" s="8"/>
@@ -11735,7 +11741,7 @@
       <c r="G531" s="8"/>
     </row>
     <row r="532" spans="1:7" ht="12.75">
-      <c r="A532" s="23"/>
+      <c r="A532" s="24"/>
       <c r="B532" s="7"/>
       <c r="C532" s="8"/>
       <c r="D532" s="8"/>
@@ -11744,7 +11750,7 @@
       <c r="G532" s="8"/>
     </row>
     <row r="533" spans="1:7" ht="12.75">
-      <c r="A533" s="23"/>
+      <c r="A533" s="24"/>
       <c r="B533" s="7"/>
       <c r="C533" s="8"/>
       <c r="D533" s="8"/>
@@ -11753,7 +11759,7 @@
       <c r="G533" s="8"/>
     </row>
     <row r="534" spans="1:7" ht="12.75">
-      <c r="A534" s="23"/>
+      <c r="A534" s="24"/>
       <c r="B534" s="7"/>
       <c r="C534" s="8"/>
       <c r="D534" s="8"/>
@@ -11762,7 +11768,7 @@
       <c r="G534" s="8"/>
     </row>
     <row r="535" spans="1:7" ht="12.75">
-      <c r="A535" s="23"/>
+      <c r="A535" s="24"/>
       <c r="B535" s="7"/>
       <c r="C535" s="8"/>
       <c r="D535" s="8"/>
@@ -11771,7 +11777,7 @@
       <c r="G535" s="8"/>
     </row>
     <row r="536" spans="1:7" ht="12.75">
-      <c r="A536" s="23"/>
+      <c r="A536" s="24"/>
       <c r="B536" s="7"/>
       <c r="C536" s="8"/>
       <c r="D536" s="8"/>
@@ -11780,7 +11786,7 @@
       <c r="G536" s="8"/>
     </row>
     <row r="537" spans="1:7" ht="12.75">
-      <c r="A537" s="23"/>
+      <c r="A537" s="24"/>
       <c r="B537" s="7"/>
       <c r="C537" s="8"/>
       <c r="D537" s="8"/>
@@ -11789,7 +11795,7 @@
       <c r="G537" s="8"/>
     </row>
     <row r="538" spans="1:7" ht="12.75">
-      <c r="A538" s="23"/>
+      <c r="A538" s="24"/>
       <c r="B538" s="7"/>
       <c r="C538" s="8"/>
       <c r="D538" s="8"/>
@@ -11798,7 +11804,7 @@
       <c r="G538" s="8"/>
     </row>
     <row r="539" spans="1:7" ht="12.75">
-      <c r="A539" s="23"/>
+      <c r="A539" s="24"/>
       <c r="B539" s="7"/>
       <c r="C539" s="8"/>
       <c r="D539" s="8"/>
@@ -11807,7 +11813,7 @@
       <c r="G539" s="8"/>
     </row>
     <row r="540" spans="1:7" ht="12.75">
-      <c r="A540" s="23"/>
+      <c r="A540" s="24"/>
       <c r="B540" s="7"/>
       <c r="C540" s="8"/>
       <c r="D540" s="8"/>
@@ -11816,7 +11822,7 @@
       <c r="G540" s="8"/>
     </row>
     <row r="541" spans="1:7" ht="12.75">
-      <c r="A541" s="23"/>
+      <c r="A541" s="24"/>
       <c r="B541" s="7"/>
       <c r="C541" s="8"/>
       <c r="D541" s="8"/>
@@ -11825,7 +11831,7 @@
       <c r="G541" s="8"/>
     </row>
     <row r="542" spans="1:7" ht="12.75">
-      <c r="A542" s="23"/>
+      <c r="A542" s="24"/>
       <c r="B542" s="7"/>
       <c r="C542" s="8"/>
       <c r="D542" s="8"/>
@@ -11834,7 +11840,7 @@
       <c r="G542" s="8"/>
     </row>
     <row r="543" spans="1:7" ht="12.75">
-      <c r="A543" s="23"/>
+      <c r="A543" s="24"/>
       <c r="B543" s="7"/>
       <c r="C543" s="8"/>
       <c r="D543" s="8"/>
@@ -11843,7 +11849,7 @@
       <c r="G543" s="8"/>
     </row>
     <row r="544" spans="1:7" ht="12.75">
-      <c r="A544" s="23"/>
+      <c r="A544" s="24"/>
       <c r="B544" s="7"/>
       <c r="C544" s="8"/>
       <c r="D544" s="8"/>
@@ -11852,7 +11858,7 @@
       <c r="G544" s="8"/>
     </row>
     <row r="545" spans="1:7" ht="12.75">
-      <c r="A545" s="23"/>
+      <c r="A545" s="24"/>
       <c r="B545" s="7"/>
       <c r="C545" s="8"/>
       <c r="D545" s="8"/>
@@ -11861,7 +11867,7 @@
       <c r="G545" s="8"/>
     </row>
     <row r="546" spans="1:7" ht="12.75">
-      <c r="A546" s="23"/>
+      <c r="A546" s="24"/>
       <c r="B546" s="7"/>
       <c r="C546" s="8"/>
       <c r="D546" s="8"/>
@@ -11870,7 +11876,7 @@
       <c r="G546" s="8"/>
     </row>
     <row r="547" spans="1:7" ht="12.75">
-      <c r="A547" s="23"/>
+      <c r="A547" s="24"/>
       <c r="B547" s="7"/>
       <c r="C547" s="8"/>
       <c r="D547" s="8"/>
@@ -11879,7 +11885,7 @@
       <c r="G547" s="8"/>
     </row>
     <row r="548" spans="1:7" ht="12.75">
-      <c r="A548" s="23"/>
+      <c r="A548" s="24"/>
       <c r="B548" s="7"/>
       <c r="C548" s="8"/>
       <c r="D548" s="8"/>
@@ -11888,7 +11894,7 @@
       <c r="G548" s="8"/>
     </row>
     <row r="549" spans="1:7" ht="12.75">
-      <c r="A549" s="23"/>
+      <c r="A549" s="24"/>
       <c r="B549" s="7"/>
       <c r="C549" s="8"/>
       <c r="D549" s="8"/>
@@ -11897,7 +11903,7 @@
       <c r="G549" s="8"/>
     </row>
     <row r="550" spans="1:7" ht="12.75">
-      <c r="A550" s="23"/>
+      <c r="A550" s="24"/>
       <c r="B550" s="7"/>
       <c r="C550" s="8"/>
       <c r="D550" s="8"/>
@@ -11906,7 +11912,7 @@
       <c r="G550" s="8"/>
     </row>
     <row r="551" spans="1:7" ht="12.75">
-      <c r="A551" s="23"/>
+      <c r="A551" s="24"/>
       <c r="B551" s="7"/>
       <c r="C551" s="8"/>
       <c r="D551" s="8"/>
@@ -11915,7 +11921,7 @@
       <c r="G551" s="8"/>
     </row>
     <row r="552" spans="1:7" ht="12.75">
-      <c r="A552" s="23"/>
+      <c r="A552" s="24"/>
       <c r="B552" s="7"/>
       <c r="C552" s="8"/>
       <c r="D552" s="8"/>
@@ -11924,7 +11930,7 @@
       <c r="G552" s="8"/>
     </row>
     <row r="553" spans="1:7" ht="12.75">
-      <c r="A553" s="23"/>
+      <c r="A553" s="24"/>
       <c r="B553" s="7"/>
       <c r="C553" s="8"/>
       <c r="D553" s="8"/>
@@ -11933,7 +11939,7 @@
       <c r="G553" s="8"/>
     </row>
     <row r="554" spans="1:7" ht="12.75">
-      <c r="A554" s="23"/>
+      <c r="A554" s="24"/>
       <c r="B554" s="7"/>
       <c r="C554" s="8"/>
       <c r="D554" s="8"/>
@@ -11942,7 +11948,7 @@
       <c r="G554" s="8"/>
     </row>
     <row r="555" spans="1:7" ht="12.75">
-      <c r="A555" s="23"/>
+      <c r="A555" s="24"/>
       <c r="B555" s="7"/>
       <c r="C555" s="8"/>
       <c r="D555" s="8"/>
@@ -11951,7 +11957,7 @@
       <c r="G555" s="8"/>
     </row>
     <row r="556" spans="1:7" ht="12.75">
-      <c r="A556" s="23"/>
+      <c r="A556" s="24"/>
       <c r="B556" s="7"/>
       <c r="C556" s="8"/>
       <c r="D556" s="8"/>
@@ -11960,7 +11966,7 @@
       <c r="G556" s="8"/>
     </row>
     <row r="557" spans="1:7" ht="12.75">
-      <c r="A557" s="23"/>
+      <c r="A557" s="24"/>
       <c r="B557" s="7"/>
       <c r="C557" s="8"/>
       <c r="D557" s="8"/>
@@ -11969,7 +11975,7 @@
       <c r="G557" s="8"/>
     </row>
     <row r="558" spans="1:7" ht="12.75">
-      <c r="A558" s="23"/>
+      <c r="A558" s="24"/>
       <c r="B558" s="7"/>
       <c r="C558" s="8"/>
       <c r="D558" s="8"/>
@@ -11978,7 +11984,7 @@
       <c r="G558" s="8"/>
     </row>
     <row r="559" spans="1:7" ht="12.75">
-      <c r="A559" s="23"/>
+      <c r="A559" s="24"/>
       <c r="B559" s="7"/>
       <c r="C559" s="8"/>
       <c r="D559" s="8"/>
@@ -11987,7 +11993,7 @@
       <c r="G559" s="8"/>
     </row>
     <row r="560" spans="1:7" ht="12.75">
-      <c r="A560" s="23"/>
+      <c r="A560" s="24"/>
       <c r="B560" s="7"/>
       <c r="C560" s="8"/>
       <c r="D560" s="8"/>
@@ -11996,7 +12002,7 @@
       <c r="G560" s="8"/>
     </row>
     <row r="561" spans="1:7" ht="12.75">
-      <c r="A561" s="23"/>
+      <c r="A561" s="24"/>
       <c r="B561" s="7"/>
       <c r="C561" s="8"/>
       <c r="D561" s="8"/>
@@ -12005,7 +12011,7 @@
       <c r="G561" s="8"/>
     </row>
     <row r="562" spans="1:7" ht="12.75">
-      <c r="A562" s="23"/>
+      <c r="A562" s="24"/>
       <c r="B562" s="7"/>
       <c r="C562" s="8"/>
       <c r="D562" s="8"/>
@@ -12014,7 +12020,7 @@
       <c r="G562" s="8"/>
     </row>
     <row r="563" spans="1:7" ht="12.75">
-      <c r="A563" s="23"/>
+      <c r="A563" s="24"/>
       <c r="B563" s="7"/>
       <c r="C563" s="8"/>
       <c r="D563" s="8"/>
@@ -12023,7 +12029,7 @@
       <c r="G563" s="8"/>
     </row>
     <row r="564" spans="1:7" ht="12.75">
-      <c r="A564" s="23"/>
+      <c r="A564" s="24"/>
       <c r="B564" s="7"/>
       <c r="C564" s="8"/>
       <c r="D564" s="8"/>
@@ -12032,7 +12038,7 @@
       <c r="G564" s="8"/>
     </row>
     <row r="565" spans="1:7" ht="12.75">
-      <c r="A565" s="23"/>
+      <c r="A565" s="24"/>
       <c r="B565" s="7"/>
       <c r="C565" s="8"/>
       <c r="D565" s="8"/>
@@ -12041,7 +12047,7 @@
       <c r="G565" s="8"/>
     </row>
     <row r="566" spans="1:7" ht="12.75">
-      <c r="A566" s="23"/>
+      <c r="A566" s="24"/>
       <c r="B566" s="7"/>
       <c r="C566" s="8"/>
       <c r="D566" s="8"/>
@@ -12050,7 +12056,7 @@
       <c r="G566" s="8"/>
     </row>
     <row r="567" spans="1:7" ht="12.75">
-      <c r="A567" s="23"/>
+      <c r="A567" s="24"/>
       <c r="B567" s="7"/>
       <c r="C567" s="8"/>
       <c r="D567" s="8"/>
@@ -12059,7 +12065,7 @@
       <c r="G567" s="8"/>
     </row>
     <row r="568" spans="1:7" ht="12.75">
-      <c r="A568" s="23"/>
+      <c r="A568" s="24"/>
       <c r="B568" s="7"/>
       <c r="C568" s="8"/>
       <c r="D568" s="8"/>
@@ -12068,7 +12074,7 @@
       <c r="G568" s="8"/>
     </row>
     <row r="569" spans="1:7" ht="12.75">
-      <c r="A569" s="23"/>
+      <c r="A569" s="24"/>
       <c r="B569" s="7"/>
       <c r="C569" s="8"/>
       <c r="D569" s="8"/>
@@ -12077,7 +12083,7 @@
       <c r="G569" s="8"/>
     </row>
     <row r="570" spans="1:7" ht="12.75">
-      <c r="A570" s="23"/>
+      <c r="A570" s="24"/>
       <c r="B570" s="7"/>
       <c r="C570" s="8"/>
       <c r="D570" s="8"/>
@@ -12086,7 +12092,7 @@
       <c r="G570" s="8"/>
     </row>
     <row r="571" spans="1:7" ht="12.75">
-      <c r="A571" s="23"/>
+      <c r="A571" s="24"/>
       <c r="B571" s="7"/>
       <c r="C571" s="8"/>
       <c r="D571" s="8"/>
@@ -12095,7 +12101,7 @@
       <c r="G571" s="8"/>
     </row>
     <row r="572" spans="1:7" ht="12.75">
-      <c r="A572" s="23"/>
+      <c r="A572" s="24"/>
       <c r="B572" s="7"/>
       <c r="C572" s="8"/>
       <c r="D572" s="8"/>
@@ -12104,7 +12110,7 @@
       <c r="G572" s="8"/>
     </row>
     <row r="573" spans="1:7" ht="12.75">
-      <c r="A573" s="23"/>
+      <c r="A573" s="24"/>
       <c r="B573" s="7"/>
       <c r="C573" s="8"/>
       <c r="D573" s="8"/>
@@ -12113,7 +12119,7 @@
       <c r="G573" s="8"/>
     </row>
     <row r="574" spans="1:7" ht="12.75">
-      <c r="A574" s="23"/>
+      <c r="A574" s="24"/>
       <c r="B574" s="7"/>
       <c r="C574" s="8"/>
       <c r="D574" s="8"/>
@@ -12122,7 +12128,7 @@
       <c r="G574" s="8"/>
     </row>
     <row r="575" spans="1:7" ht="12.75">
-      <c r="A575" s="23"/>
+      <c r="A575" s="24"/>
       <c r="B575" s="7"/>
       <c r="C575" s="8"/>
       <c r="D575" s="8"/>
@@ -12131,7 +12137,7 @@
       <c r="G575" s="8"/>
     </row>
     <row r="576" spans="1:7" ht="12.75">
-      <c r="A576" s="23"/>
+      <c r="A576" s="24"/>
       <c r="B576" s="7"/>
       <c r="C576" s="8"/>
       <c r="D576" s="8"/>
@@ -12140,7 +12146,7 @@
       <c r="G576" s="8"/>
     </row>
     <row r="577" spans="1:7" ht="12.75">
-      <c r="A577" s="23"/>
+      <c r="A577" s="24"/>
       <c r="B577" s="7"/>
       <c r="C577" s="8"/>
       <c r="D577" s="8"/>
@@ -12149,7 +12155,7 @@
       <c r="G577" s="8"/>
     </row>
     <row r="578" spans="1:7" ht="12.75">
-      <c r="A578" s="23"/>
+      <c r="A578" s="24"/>
       <c r="B578" s="7"/>
       <c r="C578" s="8"/>
       <c r="D578" s="8"/>
@@ -12158,7 +12164,7 @@
       <c r="G578" s="8"/>
     </row>
     <row r="579" spans="1:7" ht="12.75">
-      <c r="A579" s="23"/>
+      <c r="A579" s="24"/>
       <c r="B579" s="7"/>
       <c r="C579" s="8"/>
       <c r="D579" s="8"/>
@@ -12167,7 +12173,7 @@
       <c r="G579" s="8"/>
     </row>
     <row r="580" spans="1:7" ht="12.75">
-      <c r="A580" s="23"/>
+      <c r="A580" s="24"/>
       <c r="B580" s="7"/>
       <c r="C580" s="8"/>
       <c r="D580" s="8"/>
@@ -12176,7 +12182,7 @@
       <c r="G580" s="8"/>
     </row>
     <row r="581" spans="1:7" ht="12.75">
-      <c r="A581" s="23"/>
+      <c r="A581" s="24"/>
       <c r="B581" s="7"/>
       <c r="C581" s="8"/>
       <c r="D581" s="8"/>
@@ -12185,7 +12191,7 @@
       <c r="G581" s="8"/>
     </row>
     <row r="582" spans="1:7" ht="12.75">
-      <c r="A582" s="23"/>
+      <c r="A582" s="24"/>
       <c r="B582" s="7"/>
       <c r="C582" s="8"/>
       <c r="D582" s="8"/>
@@ -12194,7 +12200,7 @@
       <c r="G582" s="8"/>
     </row>
     <row r="583" spans="1:7" ht="12.75">
-      <c r="A583" s="23"/>
+      <c r="A583" s="24"/>
       <c r="B583" s="7"/>
       <c r="C583" s="8"/>
       <c r="D583" s="8"/>
@@ -12203,7 +12209,7 @@
       <c r="G583" s="8"/>
     </row>
     <row r="584" spans="1:7" ht="12.75">
-      <c r="A584" s="23"/>
+      <c r="A584" s="24"/>
       <c r="B584" s="7"/>
       <c r="C584" s="8"/>
       <c r="D584" s="8"/>
@@ -12212,7 +12218,7 @@
       <c r="G584" s="8"/>
     </row>
     <row r="585" spans="1:7" ht="12.75">
-      <c r="A585" s="23"/>
+      <c r="A585" s="24"/>
       <c r="B585" s="7"/>
       <c r="C585" s="8"/>
       <c r="D585" s="8"/>
@@ -12221,7 +12227,7 @@
       <c r="G585" s="8"/>
     </row>
     <row r="586" spans="1:7" ht="12.75">
-      <c r="A586" s="23"/>
+      <c r="A586" s="24"/>
       <c r="B586" s="7"/>
       <c r="C586" s="8"/>
       <c r="D586" s="8"/>
@@ -12230,7 +12236,7 @@
       <c r="G586" s="8"/>
     </row>
     <row r="587" spans="1:7" ht="12.75">
-      <c r="A587" s="23"/>
+      <c r="A587" s="24"/>
       <c r="B587" s="7"/>
       <c r="C587" s="8"/>
       <c r="D587" s="8"/>
@@ -12239,7 +12245,7 @@
       <c r="G587" s="8"/>
     </row>
     <row r="588" spans="1:7" ht="12.75">
-      <c r="A588" s="23"/>
+      <c r="A588" s="24"/>
       <c r="B588" s="7"/>
       <c r="C588" s="8"/>
       <c r="D588" s="8"/>
@@ -12248,7 +12254,7 @@
       <c r="G588" s="8"/>
     </row>
     <row r="589" spans="1:7" ht="12.75">
-      <c r="A589" s="23"/>
+      <c r="A589" s="24"/>
       <c r="B589" s="7"/>
       <c r="C589" s="8"/>
       <c r="D589" s="8"/>
@@ -12257,7 +12263,7 @@
       <c r="G589" s="8"/>
     </row>
     <row r="590" spans="1:7" ht="12.75">
-      <c r="A590" s="23"/>
+      <c r="A590" s="24"/>
       <c r="B590" s="7"/>
       <c r="C590" s="8"/>
       <c r="D590" s="8"/>
@@ -12266,7 +12272,7 @@
       <c r="G590" s="8"/>
     </row>
     <row r="591" spans="1:7" ht="12.75">
-      <c r="A591" s="23"/>
+      <c r="A591" s="24"/>
       <c r="B591" s="7"/>
       <c r="C591" s="8"/>
       <c r="D591" s="8"/>
@@ -12275,7 +12281,7 @@
       <c r="G591" s="8"/>
     </row>
     <row r="592" spans="1:7" ht="12.75">
-      <c r="A592" s="23"/>
+      <c r="A592" s="24"/>
       <c r="B592" s="7"/>
       <c r="C592" s="8"/>
       <c r="D592" s="8"/>
@@ -12284,7 +12290,7 @@
       <c r="G592" s="8"/>
     </row>
     <row r="593" spans="1:7" ht="12.75">
-      <c r="A593" s="23"/>
+      <c r="A593" s="24"/>
       <c r="B593" s="7"/>
       <c r="C593" s="8"/>
       <c r="D593" s="8"/>
@@ -12293,7 +12299,7 @@
       <c r="G593" s="8"/>
     </row>
     <row r="594" spans="1:7" ht="12.75">
-      <c r="A594" s="23"/>
+      <c r="A594" s="24"/>
       <c r="B594" s="7"/>
       <c r="C594" s="8"/>
       <c r="D594" s="8"/>
@@ -12302,7 +12308,7 @@
       <c r="G594" s="8"/>
     </row>
     <row r="595" spans="1:7" ht="12.75">
-      <c r="A595" s="23"/>
+      <c r="A595" s="24"/>
       <c r="B595" s="7"/>
       <c r="C595" s="8"/>
       <c r="D595" s="8"/>
@@ -12311,7 +12317,7 @@
       <c r="G595" s="8"/>
     </row>
     <row r="596" spans="1:7" ht="12.75">
-      <c r="A596" s="23"/>
+      <c r="A596" s="24"/>
       <c r="B596" s="7"/>
       <c r="C596" s="8"/>
       <c r="D596" s="8"/>
@@ -12320,7 +12326,7 @@
       <c r="G596" s="8"/>
     </row>
     <row r="597" spans="1:7" ht="12.75">
-      <c r="A597" s="23"/>
+      <c r="A597" s="24"/>
       <c r="B597" s="7"/>
       <c r="C597" s="8"/>
       <c r="D597" s="8"/>
@@ -12329,7 +12335,7 @@
       <c r="G597" s="8"/>
     </row>
     <row r="598" spans="1:7" ht="12.75">
-      <c r="A598" s="23"/>
+      <c r="A598" s="24"/>
       <c r="B598" s="7"/>
       <c r="C598" s="8"/>
       <c r="D598" s="8"/>
@@ -12338,7 +12344,7 @@
       <c r="G598" s="8"/>
     </row>
     <row r="599" spans="1:7" ht="12.75">
-      <c r="A599" s="23"/>
+      <c r="A599" s="24"/>
       <c r="B599" s="7"/>
       <c r="C599" s="8"/>
       <c r="D599" s="8"/>
@@ -12347,7 +12353,7 @@
       <c r="G599" s="8"/>
     </row>
     <row r="600" spans="1:7" ht="12.75">
-      <c r="A600" s="23"/>
+      <c r="A600" s="24"/>
       <c r="B600" s="7"/>
       <c r="C600" s="8"/>
       <c r="D600" s="8"/>
@@ -12356,7 +12362,7 @@
       <c r="G600" s="8"/>
     </row>
     <row r="601" spans="1:7" ht="12.75">
-      <c r="A601" s="23"/>
+      <c r="A601" s="24"/>
       <c r="B601" s="7"/>
       <c r="C601" s="8"/>
       <c r="D601" s="8"/>
@@ -12365,7 +12371,7 @@
       <c r="G601" s="8"/>
     </row>
     <row r="602" spans="1:7" ht="12.75">
-      <c r="A602" s="23"/>
+      <c r="A602" s="24"/>
       <c r="B602" s="7"/>
       <c r="C602" s="8"/>
       <c r="D602" s="8"/>
@@ -12374,7 +12380,7 @@
       <c r="G602" s="8"/>
     </row>
     <row r="603" spans="1:7" ht="12.75">
-      <c r="A603" s="23"/>
+      <c r="A603" s="24"/>
       <c r="B603" s="7"/>
       <c r="C603" s="8"/>
       <c r="D603" s="8"/>
@@ -12383,7 +12389,7 @@
       <c r="G603" s="8"/>
     </row>
     <row r="604" spans="1:7" ht="12.75">
-      <c r="A604" s="23"/>
+      <c r="A604" s="24"/>
       <c r="B604" s="7"/>
       <c r="C604" s="8"/>
       <c r="D604" s="8"/>
@@ -12392,7 +12398,7 @@
       <c r="G604" s="8"/>
     </row>
     <row r="605" spans="1:7" ht="12.75">
-      <c r="A605" s="23"/>
+      <c r="A605" s="24"/>
       <c r="B605" s="7"/>
       <c r="C605" s="8"/>
       <c r="D605" s="8"/>
@@ -12401,7 +12407,7 @@
       <c r="G605" s="8"/>
     </row>
     <row r="606" spans="1:7" ht="12.75">
-      <c r="A606" s="23"/>
+      <c r="A606" s="24"/>
       <c r="B606" s="7"/>
       <c r="C606" s="8"/>
       <c r="D606" s="8"/>
@@ -12410,7 +12416,7 @@
       <c r="G606" s="8"/>
     </row>
     <row r="607" spans="1:7" ht="12.75">
-      <c r="A607" s="23"/>
+      <c r="A607" s="24"/>
       <c r="B607" s="7"/>
       <c r="C607" s="8"/>
       <c r="D607" s="8"/>
@@ -12419,7 +12425,7 @@
       <c r="G607" s="8"/>
     </row>
     <row r="608" spans="1:7" ht="12.75">
-      <c r="A608" s="23"/>
+      <c r="A608" s="24"/>
       <c r="B608" s="7"/>
       <c r="C608" s="8"/>
       <c r="D608" s="8"/>
@@ -12428,7 +12434,7 @@
       <c r="G608" s="8"/>
     </row>
     <row r="609" spans="1:7" ht="12.75">
-      <c r="A609" s="23"/>
+      <c r="A609" s="24"/>
       <c r="B609" s="7"/>
       <c r="C609" s="8"/>
       <c r="D609" s="8"/>
@@ -12437,7 +12443,7 @@
       <c r="G609" s="8"/>
     </row>
     <row r="610" spans="1:7" ht="12.75">
-      <c r="A610" s="23"/>
+      <c r="A610" s="24"/>
       <c r="B610" s="7"/>
       <c r="C610" s="8"/>
       <c r="D610" s="8"/>
@@ -12446,7 +12452,7 @@
       <c r="G610" s="8"/>
     </row>
     <row r="611" spans="1:7" ht="12.75">
-      <c r="A611" s="23"/>
+      <c r="A611" s="24"/>
       <c r="B611" s="7"/>
       <c r="C611" s="8"/>
       <c r="D611" s="8"/>
@@ -12455,7 +12461,7 @@
       <c r="G611" s="8"/>
     </row>
     <row r="612" spans="1:7" ht="12.75">
-      <c r="A612" s="23"/>
+      <c r="A612" s="24"/>
       <c r="B612" s="7"/>
       <c r="C612" s="8"/>
       <c r="D612" s="8"/>
@@ -12464,7 +12470,7 @@
       <c r="G612" s="8"/>
     </row>
     <row r="613" spans="1:7" ht="12.75">
-      <c r="A613" s="23"/>
+      <c r="A613" s="24"/>
       <c r="B613" s="7"/>
       <c r="C613" s="8"/>
       <c r="D613" s="8"/>
@@ -12473,7 +12479,7 @@
       <c r="G613" s="8"/>
     </row>
     <row r="614" spans="1:7" ht="12.75">
-      <c r="A614" s="23"/>
+      <c r="A614" s="24"/>
       <c r="B614" s="7"/>
       <c r="C614" s="8"/>
       <c r="D614" s="8"/>
@@ -12482,7 +12488,7 @@
       <c r="G614" s="8"/>
     </row>
     <row r="615" spans="1:7" ht="12.75">
-      <c r="A615" s="23"/>
+      <c r="A615" s="24"/>
       <c r="B615" s="7"/>
       <c r="C615" s="8"/>
       <c r="D615" s="8"/>
@@ -12491,7 +12497,7 @@
       <c r="G615" s="8"/>
     </row>
     <row r="616" spans="1:7" ht="12.75">
-      <c r="A616" s="23"/>
+      <c r="A616" s="24"/>
       <c r="B616" s="7"/>
       <c r="C616" s="8"/>
       <c r="D616" s="8"/>
@@ -12500,7 +12506,7 @@
       <c r="G616" s="8"/>
     </row>
     <row r="617" spans="1:7" ht="12.75">
-      <c r="A617" s="23"/>
+      <c r="A617" s="24"/>
       <c r="B617" s="7"/>
       <c r="C617" s="8"/>
       <c r="D617" s="8"/>
@@ -12509,7 +12515,7 @@
       <c r="G617" s="8"/>
     </row>
     <row r="618" spans="1:7" ht="12.75">
-      <c r="A618" s="23"/>
+      <c r="A618" s="24"/>
       <c r="B618" s="7"/>
       <c r="C618" s="8"/>
       <c r="D618" s="8"/>
@@ -12518,7 +12524,7 @@
       <c r="G618" s="8"/>
     </row>
     <row r="619" spans="1:7" ht="12.75">
-      <c r="A619" s="23"/>
+      <c r="A619" s="24"/>
       <c r="B619" s="7"/>
       <c r="C619" s="8"/>
       <c r="D619" s="8"/>
@@ -12527,7 +12533,7 @@
       <c r="G619" s="8"/>
     </row>
     <row r="620" spans="1:7" ht="12.75">
-      <c r="A620" s="23"/>
+      <c r="A620" s="24"/>
       <c r="B620" s="7"/>
       <c r="C620" s="8"/>
       <c r="D620" s="8"/>
@@ -12536,7 +12542,7 @@
       <c r="G620" s="8"/>
     </row>
     <row r="621" spans="1:7" ht="12.75">
-      <c r="A621" s="23"/>
+      <c r="A621" s="24"/>
       <c r="B621" s="7"/>
       <c r="C621" s="8"/>
       <c r="D621" s="8"/>
@@ -12545,7 +12551,7 @@
       <c r="G621" s="8"/>
     </row>
     <row r="622" spans="1:7" ht="12.75">
-      <c r="A622" s="23"/>
+      <c r="A622" s="24"/>
       <c r="B622" s="7"/>
       <c r="C622" s="8"/>
       <c r="D622" s="8"/>
@@ -12554,7 +12560,7 @@
       <c r="G622" s="8"/>
     </row>
     <row r="623" spans="1:7" ht="12.75">
-      <c r="A623" s="23"/>
+      <c r="A623" s="24"/>
       <c r="B623" s="7"/>
       <c r="C623" s="8"/>
       <c r="D623" s="8"/>
@@ -12563,7 +12569,7 @@
       <c r="G623" s="8"/>
     </row>
     <row r="624" spans="1:7" ht="12.75">
-      <c r="A624" s="23"/>
+      <c r="A624" s="24"/>
       <c r="B624" s="7"/>
       <c r="C624" s="8"/>
       <c r="D624" s="8"/>
@@ -12572,7 +12578,7 @@
       <c r="G624" s="8"/>
     </row>
     <row r="625" spans="1:7" ht="12.75">
-      <c r="A625" s="23"/>
+      <c r="A625" s="24"/>
       <c r="B625" s="7"/>
       <c r="C625" s="8"/>
       <c r="D625" s="8"/>
@@ -12581,7 +12587,7 @@
       <c r="G625" s="8"/>
     </row>
     <row r="626" spans="1:7" ht="12.75">
-      <c r="A626" s="23"/>
+      <c r="A626" s="24"/>
       <c r="B626" s="7"/>
       <c r="C626" s="8"/>
       <c r="D626" s="8"/>
@@ -12590,7 +12596,7 @@
       <c r="G626" s="8"/>
     </row>
     <row r="627" spans="1:7" ht="12.75">
-      <c r="A627" s="23"/>
+      <c r="A627" s="24"/>
       <c r="B627" s="7"/>
       <c r="C627" s="8"/>
       <c r="D627" s="8"/>
@@ -12599,7 +12605,7 @@
       <c r="G627" s="8"/>
     </row>
     <row r="628" spans="1:7" ht="12.75">
-      <c r="A628" s="23"/>
+      <c r="A628" s="24"/>
       <c r="B628" s="7"/>
       <c r="C628" s="8"/>
       <c r="D628" s="8"/>
@@ -12608,7 +12614,7 @@
       <c r="G628" s="8"/>
     </row>
     <row r="629" spans="1:7" ht="12.75">
-      <c r="A629" s="23"/>
+      <c r="A629" s="24"/>
       <c r="B629" s="7"/>
       <c r="C629" s="8"/>
       <c r="D629" s="8"/>
@@ -12617,7 +12623,7 @@
       <c r="G629" s="8"/>
     </row>
     <row r="630" spans="1:7" ht="12.75">
-      <c r="A630" s="23"/>
+      <c r="A630" s="24"/>
       <c r="B630" s="7"/>
       <c r="C630" s="8"/>
       <c r="D630" s="8"/>
@@ -12626,7 +12632,7 @@
       <c r="G630" s="8"/>
     </row>
     <row r="631" spans="1:7" ht="12.75">
-      <c r="A631" s="23"/>
+      <c r="A631" s="24"/>
       <c r="B631" s="7"/>
       <c r="C631" s="8"/>
       <c r="D631" s="8"/>
@@ -12635,7 +12641,7 @@
       <c r="G631" s="8"/>
     </row>
     <row r="632" spans="1:7" ht="12.75">
-      <c r="A632" s="23"/>
+      <c r="A632" s="24"/>
       <c r="B632" s="7"/>
       <c r="C632" s="8"/>
       <c r="D632" s="8"/>
@@ -12644,7 +12650,7 @@
       <c r="G632" s="8"/>
     </row>
     <row r="633" spans="1:7" ht="12.75">
-      <c r="A633" s="23"/>
+      <c r="A633" s="24"/>
       <c r="B633" s="7"/>
       <c r="C633" s="8"/>
       <c r="D633" s="8"/>
@@ -12653,7 +12659,7 @@
       <c r="G633" s="8"/>
     </row>
     <row r="634" spans="1:7" ht="12.75">
-      <c r="A634" s="23"/>
+      <c r="A634" s="24"/>
       <c r="B634" s="7"/>
       <c r="C634" s="8"/>
       <c r="D634" s="8"/>
@@ -12662,7 +12668,7 @@
       <c r="G634" s="8"/>
     </row>
     <row r="635" spans="1:7" ht="12.75">
-      <c r="A635" s="23"/>
+      <c r="A635" s="24"/>
       <c r="B635" s="7"/>
       <c r="C635" s="8"/>
       <c r="D635" s="8"/>
@@ -12671,7 +12677,7 @@
       <c r="G635" s="8"/>
     </row>
     <row r="636" spans="1:7" ht="12.75">
-      <c r="A636" s="23"/>
+      <c r="A636" s="24"/>
       <c r="B636" s="7"/>
       <c r="C636" s="8"/>
       <c r="D636" s="8"/>
@@ -12680,7 +12686,7 @@
       <c r="G636" s="8"/>
     </row>
     <row r="637" spans="1:7" ht="12.75">
-      <c r="A637" s="23"/>
+      <c r="A637" s="24"/>
       <c r="B637" s="7"/>
       <c r="C637" s="8"/>
       <c r="D637" s="8"/>
@@ -12689,7 +12695,7 @@
       <c r="G637" s="8"/>
     </row>
     <row r="638" spans="1:7" ht="12.75">
-      <c r="A638" s="23"/>
+      <c r="A638" s="24"/>
       <c r="B638" s="7"/>
       <c r="C638" s="8"/>
       <c r="D638" s="8"/>
@@ -12698,7 +12704,7 @@
       <c r="G638" s="8"/>
     </row>
     <row r="639" spans="1:7" ht="12.75">
-      <c r="A639" s="23"/>
+      <c r="A639" s="24"/>
       <c r="B639" s="7"/>
       <c r="C639" s="8"/>
       <c r="D639" s="8"/>
@@ -12707,7 +12713,7 @@
       <c r="G639" s="8"/>
     </row>
     <row r="640" spans="1:7" ht="12.75">
-      <c r="A640" s="23"/>
+      <c r="A640" s="24"/>
       <c r="B640" s="7"/>
       <c r="C640" s="8"/>
       <c r="D640" s="8"/>
@@ -12716,7 +12722,7 @@
       <c r="G640" s="8"/>
     </row>
     <row r="641" spans="1:7" ht="12.75">
-      <c r="A641" s="23"/>
+      <c r="A641" s="24"/>
       <c r="B641" s="7"/>
       <c r="C641" s="8"/>
       <c r="D641" s="8"/>
@@ -12725,7 +12731,7 @@
       <c r="G641" s="8"/>
     </row>
     <row r="642" spans="1:7" ht="12.75">
-      <c r="A642" s="23"/>
+      <c r="A642" s="24"/>
       <c r="B642" s="7"/>
       <c r="C642" s="8"/>
       <c r="D642" s="8"/>
@@ -12734,7 +12740,7 @@
       <c r="G642" s="8"/>
     </row>
     <row r="643" spans="1:7" ht="12.75">
-      <c r="A643" s="23"/>
+      <c r="A643" s="24"/>
       <c r="B643" s="7"/>
       <c r="C643" s="8"/>
       <c r="D643" s="8"/>
@@ -12743,7 +12749,7 @@
       <c r="G643" s="8"/>
     </row>
     <row r="644" spans="1:7" ht="12.75">
-      <c r="A644" s="23"/>
+      <c r="A644" s="24"/>
       <c r="B644" s="7"/>
       <c r="C644" s="8"/>
       <c r="D644" s="8"/>
@@ -12752,7 +12758,7 @@
       <c r="G644" s="8"/>
     </row>
     <row r="645" spans="1:7" ht="12.75">
-      <c r="A645" s="23"/>
+      <c r="A645" s="24"/>
       <c r="B645" s="7"/>
       <c r="C645" s="8"/>
       <c r="D645" s="8"/>
@@ -12761,7 +12767,7 @@
       <c r="G645" s="8"/>
     </row>
     <row r="646" spans="1:7" ht="12.75">
-      <c r="A646" s="23"/>
+      <c r="A646" s="24"/>
       <c r="B646" s="7"/>
       <c r="C646" s="8"/>
       <c r="D646" s="8"/>
@@ -12770,7 +12776,7 @@
       <c r="G646" s="8"/>
     </row>
     <row r="647" spans="1:7" ht="12.75">
-      <c r="A647" s="23"/>
+      <c r="A647" s="24"/>
       <c r="B647" s="7"/>
       <c r="C647" s="8"/>
       <c r="D647" s="8"/>
@@ -12779,7 +12785,7 @@
       <c r="G647" s="8"/>
     </row>
     <row r="648" spans="1:7" ht="12.75">
-      <c r="A648" s="23"/>
+      <c r="A648" s="24"/>
       <c r="B648" s="7"/>
       <c r="C648" s="8"/>
       <c r="D648" s="8"/>
@@ -12788,7 +12794,7 @@
       <c r="G648" s="8"/>
     </row>
     <row r="649" spans="1:7" ht="12.75">
-      <c r="A649" s="23"/>
+      <c r="A649" s="24"/>
       <c r="B649" s="7"/>
       <c r="C649" s="8"/>
       <c r="D649" s="8"/>
@@ -12797,7 +12803,7 @@
       <c r="G649" s="8"/>
     </row>
     <row r="650" spans="1:7" ht="12.75">
-      <c r="A650" s="23"/>
+      <c r="A650" s="24"/>
       <c r="B650" s="7"/>
       <c r="C650" s="8"/>
       <c r="D650" s="8"/>
@@ -12806,7 +12812,7 @@
       <c r="G650" s="8"/>
     </row>
     <row r="651" spans="1:7" ht="12.75">
-      <c r="A651" s="23"/>
+      <c r="A651" s="24"/>
       <c r="B651" s="7"/>
       <c r="C651" s="8"/>
       <c r="D651" s="8"/>
@@ -12815,7 +12821,7 @@
       <c r="G651" s="8"/>
     </row>
     <row r="652" spans="1:7" ht="12.75">
-      <c r="A652" s="23"/>
+      <c r="A652" s="24"/>
       <c r="B652" s="7"/>
       <c r="C652" s="8"/>
       <c r="D652" s="8"/>
@@ -12824,7 +12830,7 @@
       <c r="G652" s="8"/>
     </row>
     <row r="653" spans="1:7" ht="12.75">
-      <c r="A653" s="23"/>
+      <c r="A653" s="24"/>
       <c r="B653" s="7"/>
       <c r="C653" s="8"/>
       <c r="D653" s="8"/>
@@ -12833,7 +12839,7 @@
       <c r="G653" s="8"/>
     </row>
     <row r="654" spans="1:7" ht="12.75">
-      <c r="A654" s="23"/>
+      <c r="A654" s="24"/>
       <c r="B654" s="7"/>
       <c r="C654" s="8"/>
       <c r="D654" s="8"/>
@@ -12842,7 +12848,7 @@
       <c r="G654" s="8"/>
     </row>
     <row r="655" spans="1:7" ht="12.75">
-      <c r="A655" s="23"/>
+      <c r="A655" s="24"/>
       <c r="B655" s="7"/>
       <c r="C655" s="8"/>
       <c r="D655" s="8"/>
@@ -12851,7 +12857,7 @@
       <c r="G655" s="8"/>
     </row>
     <row r="656" spans="1:7" ht="12.75">
-      <c r="A656" s="23"/>
+      <c r="A656" s="24"/>
       <c r="B656" s="7"/>
       <c r="C656" s="8"/>
       <c r="D656" s="8"/>
@@ -12860,7 +12866,7 @@
       <c r="G656" s="8"/>
     </row>
     <row r="657" spans="1:7" ht="12.75">
-      <c r="A657" s="23"/>
+      <c r="A657" s="24"/>
       <c r="B657" s="7"/>
       <c r="C657" s="8"/>
       <c r="D657" s="8"/>
@@ -12869,7 +12875,7 @@
       <c r="G657" s="8"/>
     </row>
     <row r="658" spans="1:7" ht="12.75">
-      <c r="A658" s="23"/>
+      <c r="A658" s="24"/>
       <c r="B658" s="7"/>
       <c r="C658" s="8"/>
       <c r="D658" s="8"/>
@@ -12878,7 +12884,7 @@
       <c r="G658" s="8"/>
     </row>
     <row r="659" spans="1:7" ht="12.75">
-      <c r="A659" s="23"/>
+      <c r="A659" s="24"/>
       <c r="B659" s="7"/>
       <c r="C659" s="8"/>
       <c r="D659" s="8"/>
@@ -12887,7 +12893,7 @@
       <c r="G659" s="8"/>
     </row>
     <row r="660" spans="1:7" ht="12.75">
-      <c r="A660" s="23"/>
+      <c r="A660" s="24"/>
       <c r="B660" s="7"/>
       <c r="C660" s="8"/>
       <c r="D660" s="8"/>
@@ -12896,7 +12902,7 @@
       <c r="G660" s="8"/>
     </row>
     <row r="661" spans="1:7" ht="12.75">
-      <c r="A661" s="23"/>
+      <c r="A661" s="24"/>
       <c r="B661" s="7"/>
       <c r="C661" s="8"/>
       <c r="D661" s="8"/>
@@ -12905,7 +12911,7 @@
       <c r="G661" s="8"/>
     </row>
     <row r="662" spans="1:7" ht="12.75">
-      <c r="A662" s="23"/>
+      <c r="A662" s="24"/>
       <c r="B662" s="7"/>
       <c r="C662" s="8"/>
       <c r="D662" s="8"/>
@@ -12914,7 +12920,7 @@
       <c r="G662" s="8"/>
     </row>
     <row r="663" spans="1:7" ht="12.75">
-      <c r="A663" s="23"/>
+      <c r="A663" s="24"/>
       <c r="B663" s="7"/>
       <c r="C663" s="8"/>
       <c r="D663" s="8"/>
@@ -12923,7 +12929,7 @@
       <c r="G663" s="8"/>
     </row>
     <row r="664" spans="1:7" ht="12.75">
-      <c r="A664" s="23"/>
+      <c r="A664" s="24"/>
       <c r="B664" s="7"/>
       <c r="C664" s="8"/>
       <c r="D664" s="8"/>
@@ -12932,7 +12938,7 @@
       <c r="G664" s="8"/>
     </row>
     <row r="665" spans="1:7" ht="12.75">
-      <c r="A665" s="23"/>
+      <c r="A665" s="24"/>
       <c r="B665" s="7"/>
       <c r="C665" s="8"/>
       <c r="D665" s="8"/>
@@ -12941,7 +12947,7 @@
       <c r="G665" s="8"/>
     </row>
     <row r="666" spans="1:7" ht="12.75">
-      <c r="A666" s="23"/>
+      <c r="A666" s="24"/>
       <c r="B666" s="7"/>
       <c r="C666" s="8"/>
       <c r="D666" s="8"/>
@@ -12950,7 +12956,7 @@
       <c r="G666" s="8"/>
     </row>
     <row r="667" spans="1:7" ht="12.75">
-      <c r="A667" s="23"/>
+      <c r="A667" s="24"/>
       <c r="B667" s="7"/>
       <c r="C667" s="8"/>
       <c r="D667" s="8"/>
@@ -12959,7 +12965,7 @@
       <c r="G667" s="8"/>
     </row>
     <row r="668" spans="1:7" ht="12.75">
-      <c r="A668" s="23"/>
+      <c r="A668" s="24"/>
       <c r="B668" s="7"/>
       <c r="C668" s="8"/>
       <c r="D668" s="8"/>
@@ -12968,7 +12974,7 @@
       <c r="G668" s="8"/>
     </row>
     <row r="669" spans="1:7" ht="12.75">
-      <c r="A669" s="23"/>
+      <c r="A669" s="24"/>
       <c r="B669" s="7"/>
       <c r="C669" s="8"/>
       <c r="D669" s="8"/>
@@ -12977,7 +12983,7 @@
       <c r="G669" s="8"/>
     </row>
     <row r="670" spans="1:7" ht="12.75">
-      <c r="A670" s="23"/>
+      <c r="A670" s="24"/>
       <c r="B670" s="7"/>
       <c r="C670" s="8"/>
       <c r="D670" s="8"/>
@@ -12986,7 +12992,7 @@
       <c r="G670" s="8"/>
     </row>
     <row r="671" spans="1:7" ht="12.75">
-      <c r="A671" s="23"/>
+      <c r="A671" s="24"/>
       <c r="B671" s="7"/>
       <c r="C671" s="8"/>
       <c r="D671" s="8"/>
@@ -12995,7 +13001,7 @@
       <c r="G671" s="8"/>
     </row>
     <row r="672" spans="1:7" ht="12.75">
-      <c r="A672" s="23"/>
+      <c r="A672" s="24"/>
       <c r="B672" s="7"/>
       <c r="C672" s="8"/>
       <c r="D672" s="8"/>
@@ -13004,7 +13010,7 @@
       <c r="G672" s="8"/>
     </row>
     <row r="673" spans="1:7" ht="12.75">
-      <c r="A673" s="23"/>
+      <c r="A673" s="24"/>
       <c r="B673" s="7"/>
       <c r="C673" s="8"/>
       <c r="D673" s="8"/>
@@ -13013,7 +13019,7 @@
       <c r="G673" s="8"/>
     </row>
     <row r="674" spans="1:7" ht="12.75">
-      <c r="A674" s="23"/>
+      <c r="A674" s="24"/>
       <c r="B674" s="7"/>
       <c r="C674" s="8"/>
       <c r="D674" s="8"/>
@@ -13022,7 +13028,7 @@
       <c r="G674" s="8"/>
     </row>
     <row r="675" spans="1:7" ht="12.75">
-      <c r="A675" s="23"/>
+      <c r="A675" s="24"/>
       <c r="B675" s="7"/>
       <c r="C675" s="8"/>
       <c r="D675" s="8"/>
@@ -13031,7 +13037,7 @@
       <c r="G675" s="8"/>
     </row>
     <row r="676" spans="1:7" ht="12.75">
-      <c r="A676" s="23"/>
+      <c r="A676" s="24"/>
       <c r="B676" s="7"/>
       <c r="C676" s="8"/>
       <c r="D676" s="8"/>
@@ -13040,7 +13046,7 @@
       <c r="G676" s="8"/>
     </row>
     <row r="677" spans="1:7" ht="12.75">
-      <c r="A677" s="23"/>
+      <c r="A677" s="24"/>
       <c r="B677" s="7"/>
       <c r="C677" s="8"/>
       <c r="D677" s="8"/>
@@ -13049,7 +13055,7 @@
       <c r="G677" s="8"/>
     </row>
     <row r="678" spans="1:7" ht="12.75">
-      <c r="A678" s="23"/>
+      <c r="A678" s="24"/>
       <c r="B678" s="7"/>
       <c r="C678" s="8"/>
       <c r="D678" s="8"/>
@@ -13058,7 +13064,7 @@
       <c r="G678" s="8"/>
     </row>
     <row r="679" spans="1:7" ht="12.75">
-      <c r="A679" s="23"/>
+      <c r="A679" s="24"/>
       <c r="B679" s="7"/>
       <c r="C679" s="8"/>
       <c r="D679" s="8"/>
@@ -13067,7 +13073,7 @@
       <c r="G679" s="8"/>
     </row>
     <row r="680" spans="1:7" ht="12.75">
-      <c r="A680" s="23"/>
+      <c r="A680" s="24"/>
       <c r="B680" s="7"/>
       <c r="C680" s="8"/>
       <c r="D680" s="8"/>
@@ -13076,7 +13082,7 @@
       <c r="G680" s="8"/>
     </row>
     <row r="681" spans="1:7" ht="12.75">
-      <c r="A681" s="23"/>
+      <c r="A681" s="24"/>
       <c r="B681" s="7"/>
       <c r="C681" s="8"/>
       <c r="D681" s="8"/>
@@ -13085,7 +13091,7 @@
       <c r="G681" s="8"/>
     </row>
     <row r="682" spans="1:7" ht="12.75">
-      <c r="A682" s="23"/>
+      <c r="A682" s="24"/>
       <c r="B682" s="7"/>
       <c r="C682" s="8"/>
       <c r="D682" s="8"/>
@@ -13094,7 +13100,7 @@
       <c r="G682" s="8"/>
     </row>
     <row r="683" spans="1:7" ht="12.75">
-      <c r="A683" s="23"/>
+      <c r="A683" s="24"/>
       <c r="B683" s="7"/>
       <c r="C683" s="8"/>
       <c r="D683" s="8"/>
@@ -13103,7 +13109,7 @@
       <c r="G683" s="8"/>
     </row>
     <row r="684" spans="1:7" ht="12.75">
-      <c r="A684" s="23"/>
+      <c r="A684" s="24"/>
       <c r="B684" s="7"/>
       <c r="C684" s="8"/>
       <c r="D684" s="8"/>
@@ -13112,7 +13118,7 @@
       <c r="G684" s="8"/>
     </row>
     <row r="685" spans="1:7" ht="12.75">
-      <c r="A685" s="23"/>
+      <c r="A685" s="24"/>
       <c r="B685" s="7"/>
       <c r="C685" s="8"/>
       <c r="D685" s="8"/>
@@ -13121,7 +13127,7 @@
       <c r="G685" s="8"/>
     </row>
     <row r="686" spans="1:7" ht="12.75">
-      <c r="A686" s="23"/>
+      <c r="A686" s="24"/>
       <c r="B686" s="7"/>
       <c r="C686" s="8"/>
       <c r="D686" s="8"/>
@@ -13130,7 +13136,7 @@
       <c r="G686" s="8"/>
     </row>
     <row r="687" spans="1:7" ht="12.75">
-      <c r="A687" s="23"/>
+      <c r="A687" s="24"/>
       <c r="B687" s="7"/>
       <c r="C687" s="8"/>
       <c r="D687" s="8"/>
@@ -13139,7 +13145,7 @@
       <c r="G687" s="8"/>
     </row>
     <row r="688" spans="1:7" ht="12.75">
-      <c r="A688" s="23"/>
+      <c r="A688" s="24"/>
       <c r="B688" s="7"/>
       <c r="C688" s="8"/>
       <c r="D688" s="8"/>
@@ -13148,7 +13154,7 @@
       <c r="G688" s="8"/>
     </row>
     <row r="689" spans="1:7" ht="12.75">
-      <c r="A689" s="23"/>
+      <c r="A689" s="24"/>
       <c r="B689" s="7"/>
       <c r="C689" s="8"/>
       <c r="D689" s="8"/>
@@ -13157,7 +13163,7 @@
       <c r="G689" s="8"/>
     </row>
     <row r="690" spans="1:7" ht="12.75">
-      <c r="A690" s="23"/>
+      <c r="A690" s="24"/>
       <c r="B690" s="7"/>
       <c r="C690" s="8"/>
       <c r="D690" s="8"/>
@@ -13166,7 +13172,7 @@
       <c r="G690" s="8"/>
     </row>
     <row r="691" spans="1:7" ht="12.75">
-      <c r="A691" s="23"/>
+      <c r="A691" s="24"/>
       <c r="B691" s="7"/>
       <c r="C691" s="8"/>
       <c r="D691" s="8"/>
@@ -13175,7 +13181,7 @@
       <c r="G691" s="8"/>
     </row>
     <row r="692" spans="1:7" ht="12.75">
-      <c r="A692" s="23"/>
+      <c r="A692" s="24"/>
       <c r="B692" s="7"/>
       <c r="C692" s="8"/>
       <c r="D692" s="8"/>
@@ -13184,7 +13190,7 @@
       <c r="G692" s="8"/>
     </row>
     <row r="693" spans="1:7" ht="12.75">
-      <c r="A693" s="23"/>
+      <c r="A693" s="24"/>
       <c r="B693" s="7"/>
       <c r="C693" s="8"/>
       <c r="D693" s="8"/>
@@ -13193,7 +13199,7 @@
       <c r="G693" s="8"/>
     </row>
     <row r="694" spans="1:7" ht="12.75">
-      <c r="A694" s="23"/>
+      <c r="A694" s="24"/>
       <c r="B694" s="7"/>
       <c r="C694" s="8"/>
       <c r="D694" s="8"/>
@@ -13202,7 +13208,7 @@
       <c r="G694" s="8"/>
     </row>
     <row r="695" spans="1:7" ht="12.75">
-      <c r="A695" s="23"/>
+      <c r="A695" s="24"/>
       <c r="B695" s="7"/>
       <c r="C695" s="8"/>
       <c r="D695" s="8"/>
@@ -13211,7 +13217,7 @@
       <c r="G695" s="8"/>
     </row>
     <row r="696" spans="1:7" ht="12.75">
-      <c r="A696" s="23"/>
+      <c r="A696" s="24"/>
       <c r="B696" s="7"/>
       <c r="C696" s="8"/>
       <c r="D696" s="8"/>
@@ -13220,7 +13226,7 @@
       <c r="G696" s="8"/>
     </row>
     <row r="697" spans="1:7" ht="12.75">
-      <c r="A697" s="23"/>
+      <c r="A697" s="24"/>
       <c r="B697" s="7"/>
       <c r="C697" s="8"/>
       <c r="D697" s="8"/>
@@ -13229,7 +13235,7 @@
       <c r="G697" s="8"/>
     </row>
     <row r="698" spans="1:7" ht="12.75">
-      <c r="A698" s="23"/>
+      <c r="A698" s="24"/>
       <c r="B698" s="7"/>
       <c r="C698" s="8"/>
       <c r="D698" s="8"/>
@@ -13238,7 +13244,7 @@
       <c r="G698" s="8"/>
     </row>
     <row r="699" spans="1:7" ht="12.75">
-      <c r="A699" s="23"/>
+      <c r="A699" s="24"/>
       <c r="B699" s="7"/>
       <c r="C699" s="8"/>
       <c r="D699" s="8"/>
@@ -13247,7 +13253,7 @@
       <c r="G699" s="8"/>
     </row>
     <row r="700" spans="1:7" ht="12.75">
-      <c r="A700" s="23"/>
+      <c r="A700" s="24"/>
       <c r="B700" s="7"/>
       <c r="C700" s="8"/>
       <c r="D700" s="8"/>
@@ -13256,7 +13262,7 @@
       <c r="G700" s="8"/>
     </row>
     <row r="701" spans="1:7" ht="12.75">
-      <c r="A701" s="23"/>
+      <c r="A701" s="24"/>
       <c r="B701" s="7"/>
       <c r="C701" s="8"/>
       <c r="D701" s="8"/>
@@ -13265,7 +13271,7 @@
       <c r="G701" s="8"/>
     </row>
     <row r="702" spans="1:7" ht="12.75">
-      <c r="A702" s="23"/>
+      <c r="A702" s="24"/>
       <c r="B702" s="7"/>
       <c r="C702" s="8"/>
       <c r="D702" s="8"/>
@@ -13274,7 +13280,7 @@
       <c r="G702" s="8"/>
     </row>
     <row r="703" spans="1:7" ht="12.75">
-      <c r="A703" s="23"/>
+      <c r="A703" s="24"/>
       <c r="B703" s="7"/>
       <c r="C703" s="8"/>
       <c r="D703" s="8"/>
@@ -13283,7 +13289,7 @@
       <c r="G703" s="8"/>
     </row>
     <row r="704" spans="1:7" ht="12.75">
-      <c r="A704" s="23"/>
+      <c r="A704" s="24"/>
       <c r="B704" s="7"/>
       <c r="C704" s="8"/>
       <c r="D704" s="8"/>
@@ -13292,7 +13298,7 @@
       <c r="G704" s="8"/>
     </row>
     <row r="705" spans="1:7" ht="12.75">
-      <c r="A705" s="23"/>
+      <c r="A705" s="24"/>
       <c r="B705" s="7"/>
       <c r="C705" s="8"/>
       <c r="D705" s="8"/>
@@ -13301,7 +13307,7 @@
       <c r="G705" s="8"/>
     </row>
     <row r="706" spans="1:7" ht="12.75">
-      <c r="A706" s="23"/>
+      <c r="A706" s="24"/>
       <c r="B706" s="7"/>
       <c r="C706" s="8"/>
       <c r="D706" s="8"/>
@@ -13310,7 +13316,7 @@
       <c r="G706" s="8"/>
     </row>
     <row r="707" spans="1:7" ht="12.75">
-      <c r="A707" s="23"/>
+      <c r="A707" s="24"/>
       <c r="B707" s="7"/>
       <c r="C707" s="8"/>
       <c r="D707" s="8"/>
@@ -13319,7 +13325,7 @@
       <c r="G707" s="8"/>
     </row>
     <row r="708" spans="1:7" ht="12.75">
-      <c r="A708" s="23"/>
+      <c r="A708" s="24"/>
       <c r="B708" s="7"/>
       <c r="C708" s="8"/>
       <c r="D708" s="8"/>
@@ -13328,7 +13334,7 @@
       <c r="G708" s="8"/>
     </row>
     <row r="709" spans="1:7" ht="12.75">
-      <c r="A709" s="23"/>
+      <c r="A709" s="24"/>
       <c r="B709" s="7"/>
       <c r="C709" s="8"/>
       <c r="D709" s="8"/>
@@ -13337,7 +13343,7 @@
       <c r="G709" s="8"/>
     </row>
     <row r="710" spans="1:7" ht="12.75">
-      <c r="A710" s="23"/>
+      <c r="A710" s="24"/>
       <c r="B710" s="7"/>
       <c r="C710" s="8"/>
       <c r="D710" s="8"/>
@@ -13346,7 +13352,7 @@
       <c r="G710" s="8"/>
     </row>
     <row r="711" spans="1:7" ht="12.75">
-      <c r="A711" s="23"/>
+      <c r="A711" s="24"/>
       <c r="B711" s="7"/>
       <c r="C711" s="8"/>
       <c r="D711" s="8"/>
@@ -13355,7 +13361,7 @@
       <c r="G711" s="8"/>
     </row>
     <row r="712" spans="1:7" ht="12.75">
-      <c r="A712" s="23"/>
+      <c r="A712" s="24"/>
       <c r="B712" s="7"/>
       <c r="C712" s="8"/>
       <c r="D712" s="8"/>
@@ -13364,7 +13370,7 @@
       <c r="G712" s="8"/>
     </row>
     <row r="713" spans="1:7" ht="12.75">
-      <c r="A713" s="23"/>
+      <c r="A713" s="24"/>
       <c r="B713" s="7"/>
       <c r="C713" s="8"/>
       <c r="D713" s="8"/>
@@ -13373,7 +13379,7 @@
       <c r="G713" s="8"/>
     </row>
     <row r="714" spans="1:7" ht="12.75">
-      <c r="A714" s="23"/>
+      <c r="A714" s="24"/>
       <c r="B714" s="7"/>
       <c r="C714" s="8"/>
       <c r="D714" s="8"/>
@@ -13382,7 +13388,7 @@
       <c r="G714" s="8"/>
     </row>
     <row r="715" spans="1:7" ht="12.75">
-      <c r="A715" s="23"/>
+      <c r="A715" s="24"/>
       <c r="B715" s="7"/>
       <c r="C715" s="8"/>
       <c r="D715" s="8"/>
@@ -13391,7 +13397,7 @@
       <c r="G715" s="8"/>
     </row>
     <row r="716" spans="1:7" ht="12.75">
-      <c r="A716" s="23"/>
+      <c r="A716" s="24"/>
       <c r="B716" s="7"/>
       <c r="C716" s="8"/>
       <c r="D716" s="8"/>
@@ -13400,7 +13406,7 @@
       <c r="G716" s="8"/>
     </row>
     <row r="717" spans="1:7" ht="12.75">
-      <c r="A717" s="23"/>
+      <c r="A717" s="24"/>
       <c r="B717" s="7"/>
       <c r="C717" s="8"/>
       <c r="D717" s="8"/>
@@ -13409,7 +13415,7 @@
       <c r="G717" s="8"/>
     </row>
     <row r="718" spans="1:7" ht="12.75">
-      <c r="A718" s="23"/>
+      <c r="A718" s="24"/>
       <c r="B718" s="7"/>
       <c r="C718" s="8"/>
       <c r="D718" s="8"/>
@@ -13418,7 +13424,7 @@
       <c r="G718" s="8"/>
     </row>
     <row r="719" spans="1:7" ht="12.75">
-      <c r="A719" s="23"/>
+      <c r="A719" s="24"/>
       <c r="B719" s="7"/>
       <c r="C719" s="8"/>
       <c r="D719" s="8"/>
@@ -13427,7 +13433,7 @@
       <c r="G719" s="8"/>
     </row>
     <row r="720" spans="1:7" ht="12.75">
-      <c r="A720" s="23"/>
+      <c r="A720" s="24"/>
       <c r="B720" s="7"/>
       <c r="C720" s="8"/>
       <c r="D720" s="8"/>
@@ -13436,7 +13442,7 @@
       <c r="G720" s="8"/>
     </row>
     <row r="721" spans="1:7" ht="12.75">
-      <c r="A721" s="23"/>
+      <c r="A721" s="24"/>
       <c r="B721" s="7"/>
       <c r="C721" s="8"/>
       <c r="D721" s="8"/>
@@ -13445,7 +13451,7 @@
       <c r="G721" s="8"/>
     </row>
     <row r="722" spans="1:7" ht="12.75">
-      <c r="A722" s="23"/>
+      <c r="A722" s="24"/>
       <c r="B722" s="7"/>
       <c r="C722" s="8"/>
       <c r="D722" s="8"/>
@@ -13454,7 +13460,7 @@
       <c r="G722" s="8"/>
     </row>
     <row r="723" spans="1:7" ht="12.75">
-      <c r="A723" s="23"/>
+      <c r="A723" s="24"/>
       <c r="B723" s="7"/>
       <c r="C723" s="8"/>
       <c r="D723" s="8"/>
@@ -13463,7 +13469,7 @@
       <c r="G723" s="8"/>
     </row>
     <row r="724" spans="1:7" ht="12.75">
-      <c r="A724" s="23"/>
+      <c r="A724" s="24"/>
       <c r="B724" s="7"/>
       <c r="C724" s="8"/>
       <c r="D724" s="8"/>
@@ -13472,7 +13478,7 @@
       <c r="G724" s="8"/>
     </row>
     <row r="725" spans="1:7" ht="12.75">
-      <c r="A725" s="23"/>
+      <c r="A725" s="24"/>
       <c r="B725" s="7"/>
       <c r="C725" s="8"/>
       <c r="D725" s="8"/>
@@ -13481,7 +13487,7 @@
       <c r="G725" s="8"/>
     </row>
     <row r="726" spans="1:7" ht="12.75">
-      <c r="A726" s="23"/>
+      <c r="A726" s="24"/>
       <c r="B726" s="7"/>
       <c r="C726" s="8"/>
       <c r="D726" s="8"/>
@@ -13490,7 +13496,7 @@
       <c r="G726" s="8"/>
     </row>
     <row r="727" spans="1:7" ht="12.75">
-      <c r="A727" s="23"/>
+      <c r="A727" s="24"/>
       <c r="B727" s="7"/>
       <c r="C727" s="8"/>
       <c r="D727" s="8"/>
@@ -13499,7 +13505,7 @@
       <c r="G727" s="8"/>
     </row>
     <row r="728" spans="1:7" ht="12.75">
-      <c r="A728" s="23"/>
+      <c r="A728" s="24"/>
       <c r="B728" s="7"/>
       <c r="C728" s="8"/>
       <c r="D728" s="8"/>
@@ -13508,7 +13514,7 @@
       <c r="G728" s="8"/>
     </row>
     <row r="729" spans="1:7" ht="12.75">
-      <c r="A729" s="23"/>
+      <c r="A729" s="24"/>
       <c r="B729" s="7"/>
       <c r="C729" s="8"/>
       <c r="D729" s="8"/>
@@ -13517,7 +13523,7 @@
       <c r="G729" s="8"/>
     </row>
     <row r="730" spans="1:7" ht="12.75">
-      <c r="A730" s="23"/>
+      <c r="A730" s="24"/>
       <c r="B730" s="7"/>
       <c r="C730" s="8"/>
       <c r="D730" s="8"/>
@@ -13526,7 +13532,7 @@
       <c r="G730" s="8"/>
     </row>
     <row r="731" spans="1:7" ht="12.75">
-      <c r="A731" s="23"/>
+      <c r="A731" s="24"/>
       <c r="B731" s="7"/>
       <c r="C731" s="8"/>
       <c r="D731" s="8"/>
@@ -13535,7 +13541,7 @@
       <c r="G731" s="8"/>
     </row>
     <row r="732" spans="1:7" ht="12.75">
-      <c r="A732" s="23"/>
+      <c r="A732" s="24"/>
       <c r="B732" s="7"/>
       <c r="C732" s="8"/>
       <c r="D732" s="8"/>
@@ -13544,7 +13550,7 @@
       <c r="G732" s="8"/>
     </row>
     <row r="733" spans="1:7" ht="12.75">
-      <c r="A733" s="23"/>
+      <c r="A733" s="24"/>
       <c r="B733" s="7"/>
       <c r="C733" s="8"/>
       <c r="D733" s="8"/>
@@ -13553,7 +13559,7 @@
       <c r="G733" s="8"/>
     </row>
     <row r="734" spans="1:7" ht="12.75">
-      <c r="A734" s="23"/>
+      <c r="A734" s="24"/>
       <c r="B734" s="7"/>
       <c r="C734" s="8"/>
       <c r="D734" s="8"/>
@@ -13562,7 +13568,7 @@
       <c r="G734" s="8"/>
     </row>
     <row r="735" spans="1:7" ht="12.75">
-      <c r="A735" s="23"/>
+      <c r="A735" s="24"/>
       <c r="B735" s="7"/>
       <c r="C735" s="8"/>
       <c r="D735" s="8"/>
@@ -13571,7 +13577,7 @@
       <c r="G735" s="8"/>
     </row>
     <row r="736" spans="1:7" ht="12.75">
-      <c r="A736" s="23"/>
+      <c r="A736" s="24"/>
       <c r="B736" s="7"/>
       <c r="C736" s="8"/>
       <c r="D736" s="8"/>
@@ -13580,7 +13586,7 @@
       <c r="G736" s="8"/>
     </row>
     <row r="737" spans="1:7" ht="12.75">
-      <c r="A737" s="23"/>
+      <c r="A737" s="24"/>
       <c r="B737" s="7"/>
       <c r="C737" s="8"/>
       <c r="D737" s="8"/>
@@ -13589,7 +13595,7 @@
       <c r="G737" s="8"/>
     </row>
     <row r="738" spans="1:7" ht="12.75">
-      <c r="A738" s="23"/>
+      <c r="A738" s="24"/>
       <c r="B738" s="7"/>
       <c r="C738" s="8"/>
       <c r="D738" s="8"/>
@@ -13598,7 +13604,7 @@
       <c r="G738" s="8"/>
     </row>
     <row r="739" spans="1:7" ht="12.75">
-      <c r="A739" s="23"/>
+      <c r="A739" s="24"/>
       <c r="B739" s="7"/>
       <c r="C739" s="8"/>
       <c r="D739" s="8"/>
@@ -13607,7 +13613,7 @@
       <c r="G739" s="8"/>
     </row>
     <row r="740" spans="1:7" ht="12.75">
-      <c r="A740" s="23"/>
+      <c r="A740" s="24"/>
       <c r="B740" s="7"/>
       <c r="C740" s="8"/>
       <c r="D740" s="8"/>
@@ -13616,7 +13622,7 @@
       <c r="G740" s="8"/>
     </row>
     <row r="741" spans="1:7" ht="12.75">
-      <c r="A741" s="23"/>
+      <c r="A741" s="24"/>
       <c r="B741" s="7"/>
       <c r="C741" s="8"/>
       <c r="D741" s="8"/>
@@ -13625,7 +13631,7 @@
       <c r="G741" s="8"/>
     </row>
     <row r="742" spans="1:7" ht="12.75">
-      <c r="A742" s="23"/>
+      <c r="A742" s="24"/>
       <c r="B742" s="7"/>
       <c r="C742" s="8"/>
       <c r="D742" s="8"/>
@@ -13634,7 +13640,7 @@
       <c r="G742" s="8"/>
     </row>
     <row r="743" spans="1:7" ht="12.75">
-      <c r="A743" s="23"/>
+      <c r="A743" s="24"/>
       <c r="B743" s="7"/>
       <c r="C743" s="8"/>
       <c r="D743" s="8"/>
@@ -13643,7 +13649,7 @@
       <c r="G743" s="8"/>
     </row>
     <row r="744" spans="1:7" ht="12.75">
-      <c r="A744" s="23"/>
+      <c r="A744" s="24"/>
       <c r="B744" s="7"/>
       <c r="C744" s="8"/>
       <c r="D744" s="8"/>
@@ -13652,7 +13658,7 @@
       <c r="G744" s="8"/>
     </row>
     <row r="745" spans="1:7" ht="12.75">
-      <c r="A745" s="23"/>
+      <c r="A745" s="24"/>
       <c r="B745" s="7"/>
       <c r="C745" s="8"/>
       <c r="D745" s="8"/>
@@ -13661,7 +13667,7 @@
       <c r="G745" s="8"/>
     </row>
     <row r="746" spans="1:7" ht="12.75">
-      <c r="A746" s="23"/>
+      <c r="A746" s="24"/>
       <c r="B746" s="7"/>
       <c r="C746" s="8"/>
       <c r="D746" s="8"/>
@@ -13670,7 +13676,7 @@
       <c r="G746" s="8"/>
     </row>
     <row r="747" spans="1:7" ht="12.75">
-      <c r="A747" s="23"/>
+      <c r="A747" s="24"/>
       <c r="B747" s="7"/>
       <c r="C747" s="8"/>
       <c r="D747" s="8"/>
@@ -13679,7 +13685,7 @@
       <c r="G747" s="8"/>
     </row>
     <row r="748" spans="1:7" ht="12.75">
-      <c r="A748" s="23"/>
+      <c r="A748" s="24"/>
       <c r="B748" s="7"/>
       <c r="C748" s="8"/>
       <c r="D748" s="8"/>
@@ -13688,7 +13694,7 @@
       <c r="G748" s="8"/>
     </row>
     <row r="749" spans="1:7" ht="12.75">
-      <c r="A749" s="23"/>
+      <c r="A749" s="24"/>
       <c r="B749" s="7"/>
       <c r="C749" s="8"/>
       <c r="D749" s="8"/>
@@ -13697,7 +13703,7 @@
       <c r="G749" s="8"/>
     </row>
     <row r="750" spans="1:7" ht="12.75">
-      <c r="A750" s="23"/>
+      <c r="A750" s="24"/>
       <c r="B750" s="7"/>
       <c r="C750" s="8"/>
       <c r="D750" s="8"/>
@@ -13706,7 +13712,7 @@
       <c r="G750" s="8"/>
     </row>
     <row r="751" spans="1:7" ht="12.75">
-      <c r="A751" s="23"/>
+      <c r="A751" s="24"/>
       <c r="B751" s="7"/>
       <c r="C751" s="8"/>
       <c r="D751" s="8"/>
@@ -13715,7 +13721,7 @@
       <c r="G751" s="8"/>
     </row>
     <row r="752" spans="1:7" ht="12.75">
-      <c r="A752" s="23"/>
+      <c r="A752" s="24"/>
       <c r="B752" s="7"/>
       <c r="C752" s="8"/>
       <c r="D752" s="8"/>
@@ -13724,7 +13730,7 @@
       <c r="G752" s="8"/>
     </row>
     <row r="753" spans="1:7" ht="12.75">
-      <c r="A753" s="23"/>
+      <c r="A753" s="24"/>
       <c r="B753" s="7"/>
       <c r="C753" s="8"/>
       <c r="D753" s="8"/>
@@ -13733,7 +13739,7 @@
       <c r="G753" s="8"/>
     </row>
     <row r="754" spans="1:7" ht="12.75">
-      <c r="A754" s="23"/>
+      <c r="A754" s="24"/>
       <c r="B754" s="7"/>
       <c r="C754" s="8"/>
       <c r="D754" s="8"/>
@@ -13742,7 +13748,7 @@
       <c r="G754" s="8"/>
     </row>
     <row r="755" spans="1:7" ht="12.75">
-      <c r="A755" s="23"/>
+      <c r="A755" s="24"/>
       <c r="B755" s="7"/>
       <c r="C755" s="8"/>
       <c r="D755" s="8"/>
@@ -13751,7 +13757,7 @@
       <c r="G755" s="8"/>
     </row>
     <row r="756" spans="1:7" ht="12.75">
-      <c r="A756" s="23"/>
+      <c r="A756" s="24"/>
       <c r="B756" s="7"/>
       <c r="C756" s="8"/>
       <c r="D756" s="8"/>
@@ -13760,7 +13766,7 @@
       <c r="G756" s="8"/>
     </row>
     <row r="757" spans="1:7" ht="12.75">
-      <c r="A757" s="23"/>
+      <c r="A757" s="24"/>
       <c r="B757" s="7"/>
       <c r="C757" s="8"/>
       <c r="D757" s="8"/>
@@ -13769,7 +13775,7 @@
       <c r="G757" s="8"/>
     </row>
     <row r="758" spans="1:7" ht="12.75">
-      <c r="A758" s="23"/>
+      <c r="A758" s="24"/>
       <c r="B758" s="7"/>
       <c r="C758" s="8"/>
       <c r="D758" s="8"/>
@@ -13778,7 +13784,7 @@
       <c r="G758" s="8"/>
     </row>
     <row r="759" spans="1:7" ht="12.75">
-      <c r="A759" s="23"/>
+      <c r="A759" s="24"/>
       <c r="B759" s="7"/>
       <c r="C759" s="8"/>
       <c r="D759" s="8"/>
@@ -13787,7 +13793,7 @@
       <c r="G759" s="8"/>
     </row>
     <row r="760" spans="1:7" ht="12.75">
-      <c r="A760" s="23"/>
+      <c r="A760" s="24"/>
       <c r="B760" s="7"/>
       <c r="C760" s="8"/>
       <c r="D760" s="8"/>
@@ -13796,7 +13802,7 @@
       <c r="G760" s="8"/>
     </row>
     <row r="761" spans="1:7" ht="12.75">
-      <c r="A761" s="23"/>
+      <c r="A761" s="24"/>
       <c r="B761" s="7"/>
       <c r="C761" s="8"/>
       <c r="D761" s="8"/>
@@ -13805,7 +13811,7 @@
       <c r="G761" s="8"/>
     </row>
     <row r="762" spans="1:7" ht="12.75">
-      <c r="A762" s="23"/>
+      <c r="A762" s="24"/>
       <c r="B762" s="7"/>
       <c r="C762" s="8"/>
       <c r="D762" s="8"/>
@@ -13814,7 +13820,7 @@
       <c r="G762" s="8"/>
     </row>
     <row r="763" spans="1:7" ht="12.75">
-      <c r="A763" s="23"/>
+      <c r="A763" s="24"/>
       <c r="B763" s="7"/>
       <c r="C763" s="8"/>
       <c r="D763" s="8"/>
@@ -13823,7 +13829,7 @@
       <c r="G763" s="8"/>
     </row>
     <row r="764" spans="1:7" ht="12.75">
-      <c r="A764" s="23"/>
+      <c r="A764" s="24"/>
       <c r="B764" s="7"/>
       <c r="C764" s="8"/>
       <c r="D764" s="8"/>
@@ -13832,7 +13838,7 @@
       <c r="G764" s="8"/>
     </row>
     <row r="765" spans="1:7" ht="12.75">
-      <c r="A765" s="23"/>
+      <c r="A765" s="24"/>
       <c r="B765" s="7"/>
       <c r="C765" s="8"/>
       <c r="D765" s="8"/>
@@ -13841,7 +13847,7 @@
       <c r="G765" s="8"/>
     </row>
     <row r="766" spans="1:7" ht="12.75">
-      <c r="A766" s="23"/>
+      <c r="A766" s="24"/>
       <c r="B766" s="7"/>
       <c r="C766" s="8"/>
       <c r="D766" s="8"/>
@@ -13850,7 +13856,7 @@
       <c r="G766" s="8"/>
     </row>
     <row r="767" spans="1:7" ht="12.75">
-      <c r="A767" s="23"/>
+      <c r="A767" s="24"/>
       <c r="B767" s="7"/>
       <c r="C767" s="8"/>
       <c r="D767" s="8"/>
@@ -13859,7 +13865,7 @@
       <c r="G767" s="8"/>
     </row>
     <row r="768" spans="1:7" ht="12.75">
-      <c r="A768" s="23"/>
+      <c r="A768" s="24"/>
       <c r="B768" s="7"/>
       <c r="C768" s="8"/>
       <c r="D768" s="8"/>
@@ -13868,7 +13874,7 @@
       <c r="G768" s="8"/>
     </row>
     <row r="769" spans="1:7" ht="12.75">
-      <c r="A769" s="23"/>
+      <c r="A769" s="24"/>
       <c r="B769" s="7"/>
       <c r="C769" s="8"/>
       <c r="D769" s="8"/>
@@ -13877,7 +13883,7 @@
       <c r="G769" s="8"/>
     </row>
     <row r="770" spans="1:7" ht="12.75">
-      <c r="A770" s="23"/>
+      <c r="A770" s="24"/>
       <c r="B770" s="7"/>
       <c r="C770" s="8"/>
       <c r="D770" s="8"/>
@@ -13886,7 +13892,7 @@
       <c r="G770" s="8"/>
     </row>
     <row r="771" spans="1:7" ht="12.75">
-      <c r="A771" s="23"/>
+      <c r="A771" s="24"/>
       <c r="B771" s="7"/>
       <c r="C771" s="8"/>
       <c r="D771" s="8"/>
@@ -13895,7 +13901,7 @@
       <c r="G771" s="8"/>
     </row>
     <row r="772" spans="1:7" ht="12.75">
-      <c r="A772" s="23"/>
+      <c r="A772" s="24"/>
       <c r="B772" s="7"/>
       <c r="C772" s="8"/>
       <c r="D772" s="8"/>
@@ -13904,7 +13910,7 @@
       <c r="G772" s="8"/>
     </row>
     <row r="773" spans="1:7" ht="12.75">
-      <c r="A773" s="23"/>
+      <c r="A773" s="24"/>
       <c r="B773" s="7"/>
       <c r="C773" s="8"/>
       <c r="D773" s="8"/>
@@ -13913,7 +13919,7 @@
       <c r="G773" s="8"/>
     </row>
     <row r="774" spans="1:7" ht="12.75">
-      <c r="A774" s="23"/>
+      <c r="A774" s="24"/>
       <c r="B774" s="7"/>
       <c r="C774" s="8"/>
       <c r="D774" s="8"/>
@@ -13922,7 +13928,7 @@
       <c r="G774" s="8"/>
     </row>
     <row r="775" spans="1:7" ht="12.75">
-      <c r="A775" s="23"/>
+      <c r="A775" s="24"/>
       <c r="B775" s="7"/>
       <c r="C775" s="8"/>
       <c r="D775" s="8"/>
@@ -13931,7 +13937,7 @@
       <c r="G775" s="8"/>
     </row>
     <row r="776" spans="1:7" ht="12.75">
-      <c r="A776" s="23"/>
+      <c r="A776" s="24"/>
       <c r="B776" s="7"/>
       <c r="C776" s="8"/>
       <c r="D776" s="8"/>
@@ -13940,7 +13946,7 @@
       <c r="G776" s="8"/>
     </row>
     <row r="777" spans="1:7" ht="12.75">
-      <c r="A777" s="23"/>
+      <c r="A777" s="24"/>
       <c r="B777" s="7"/>
       <c r="C777" s="8"/>
       <c r="D777" s="8"/>
@@ -13949,7 +13955,7 @@
       <c r="G777" s="8"/>
     </row>
     <row r="778" spans="1:7" ht="12.75">
-      <c r="A778" s="23"/>
+      <c r="A778" s="24"/>
       <c r="B778" s="7"/>
       <c r="C778" s="8"/>
       <c r="D778" s="8"/>
@@ -13958,7 +13964,7 @@
       <c r="G778" s="8"/>
     </row>
     <row r="779" spans="1:7" ht="12.75">
-      <c r="A779" s="23"/>
+      <c r="A779" s="24"/>
       <c r="B779" s="7"/>
       <c r="C779" s="8"/>
       <c r="D779" s="8"/>
@@ -13967,7 +13973,7 @@
       <c r="G779" s="8"/>
     </row>
     <row r="780" spans="1:7" ht="12.75">
-      <c r="A780" s="23"/>
+      <c r="A780" s="24"/>
       <c r="B780" s="7"/>
       <c r="C780" s="8"/>
       <c r="D780" s="8"/>
@@ -13976,7 +13982,7 @@
       <c r="G780" s="8"/>
     </row>
     <row r="781" spans="1:7" ht="12.75">
-      <c r="A781" s="23"/>
+      <c r="A781" s="24"/>
       <c r="B781" s="7"/>
       <c r="C781" s="8"/>
       <c r="D781" s="8"/>
@@ -13985,7 +13991,7 @@
       <c r="G781" s="8"/>
     </row>
     <row r="782" spans="1:7" ht="12.75">
-      <c r="A782" s="23"/>
+      <c r="A782" s="24"/>
       <c r="B782" s="7"/>
       <c r="C782" s="8"/>
       <c r="D782" s="8"/>
@@ -13994,7 +14000,7 @@
       <c r="G782" s="8"/>
     </row>
     <row r="783" spans="1:7" ht="12.75">
-      <c r="A783" s="23"/>
+      <c r="A783" s="24"/>
       <c r="B783" s="7"/>
       <c r="C783" s="8"/>
       <c r="D783" s="8"/>
@@ -14003,7 +14009,7 @@
       <c r="G783" s="8"/>
     </row>
     <row r="784" spans="1:7" ht="12.75">
-      <c r="A784" s="23"/>
+      <c r="A784" s="24"/>
       <c r="B784" s="7"/>
       <c r="C784" s="8"/>
       <c r="D784" s="8"/>
@@ -14012,7 +14018,7 @@
       <c r="G784" s="8"/>
     </row>
     <row r="785" spans="1:7" ht="12.75">
-      <c r="A785" s="23"/>
+      <c r="A785" s="24"/>
       <c r="B785" s="7"/>
       <c r="C785" s="8"/>
       <c r="D785" s="8"/>
@@ -14021,7 +14027,7 @@
       <c r="G785" s="8"/>
     </row>
     <row r="786" spans="1:7" ht="12.75">
-      <c r="A786" s="23"/>
+      <c r="A786" s="24"/>
       <c r="B786" s="7"/>
       <c r="C786" s="8"/>
       <c r="D786" s="8"/>
@@ -14030,7 +14036,7 @@
       <c r="G786" s="8"/>
     </row>
     <row r="787" spans="1:7" ht="12.75">
-      <c r="A787" s="23"/>
+      <c r="A787" s="24"/>
       <c r="B787" s="7"/>
       <c r="C787" s="8"/>
       <c r="D787" s="8"/>
@@ -14039,7 +14045,7 @@
       <c r="G787" s="8"/>
     </row>
     <row r="788" spans="1:7" ht="12.75">
-      <c r="A788" s="23"/>
+      <c r="A788" s="24"/>
       <c r="B788" s="7"/>
       <c r="C788" s="8"/>
       <c r="D788" s="8"/>
@@ -14048,7 +14054,7 @@
       <c r="G788" s="8"/>
     </row>
     <row r="789" spans="1:7" ht="12.75">
-      <c r="A789" s="23"/>
+      <c r="A789" s="24"/>
       <c r="B789" s="7"/>
       <c r="C789" s="8"/>
       <c r="D789" s="8"/>
@@ -14057,7 +14063,7 @@
       <c r="G789" s="8"/>
     </row>
     <row r="790" spans="1:7" ht="12.75">
-      <c r="A790" s="23"/>
+      <c r="A790" s="24"/>
       <c r="B790" s="7"/>
       <c r="C790" s="8"/>
       <c r="D790" s="8"/>
@@ -14066,7 +14072,7 @@
       <c r="G790" s="8"/>
     </row>
     <row r="791" spans="1:7" ht="12.75">
-      <c r="A791" s="23"/>
+      <c r="A791" s="24"/>
       <c r="B791" s="7"/>
       <c r="C791" s="8"/>
       <c r="D791" s="8"/>
@@ -14075,7 +14081,7 @@
       <c r="G791" s="8"/>
     </row>
     <row r="792" spans="1:7" ht="12.75">
-      <c r="A792" s="23"/>
+      <c r="A792" s="24"/>
       <c r="B792" s="7"/>
       <c r="C792" s="8"/>
       <c r="D792" s="8"/>
@@ -14084,7 +14090,7 @@
       <c r="G792" s="8"/>
     </row>
     <row r="793" spans="1:7" ht="12.75">
-      <c r="A793" s="23"/>
+      <c r="A793" s="24"/>
       <c r="B793" s="7"/>
       <c r="C793" s="8"/>
       <c r="D793" s="8"/>
@@ -14093,7 +14099,7 @@
       <c r="G793" s="8"/>
     </row>
     <row r="794" spans="1:7" ht="12.75">
-      <c r="A794" s="23"/>
+      <c r="A794" s="24"/>
       <c r="B794" s="7"/>
       <c r="C794" s="8"/>
       <c r="D794" s="8"/>
@@ -14102,7 +14108,7 @@
       <c r="G794" s="8"/>
     </row>
     <row r="795" spans="1:7" ht="12.75">
-      <c r="A795" s="23"/>
+      <c r="A795" s="24"/>
       <c r="B795" s="7"/>
       <c r="C795" s="8"/>
       <c r="D795" s="8"/>
@@ -14111,7 +14117,7 @@
       <c r="G795" s="8"/>
     </row>
     <row r="796" spans="1:7" ht="12.75">
-      <c r="A796" s="23"/>
+      <c r="A796" s="24"/>
       <c r="B796" s="7"/>
       <c r="C796" s="8"/>
       <c r="D796" s="8"/>
@@ -14120,7 +14126,7 @@
       <c r="G796" s="8"/>
     </row>
     <row r="797" spans="1:7" ht="12.75">
-      <c r="A797" s="23"/>
+      <c r="A797" s="24"/>
       <c r="B797" s="7"/>
       <c r="C797" s="8"/>
       <c r="D797" s="8"/>
@@ -14129,7 +14135,7 @@
       <c r="G797" s="8"/>
     </row>
     <row r="798" spans="1:7" ht="12.75">
-      <c r="A798" s="23"/>
+      <c r="A798" s="24"/>
       <c r="B798" s="7"/>
       <c r="C798" s="8"/>
       <c r="D798" s="8"/>
@@ -14138,7 +14144,7 @@
       <c r="G798" s="8"/>
     </row>
     <row r="799" spans="1:7" ht="12.75">
-      <c r="A799" s="23"/>
+      <c r="A799" s="24"/>
       <c r="B799" s="7"/>
       <c r="C799" s="8"/>
       <c r="D799" s="8"/>
@@ -14147,7 +14153,7 @@
       <c r="G799" s="8"/>
     </row>
     <row r="800" spans="1:7" ht="12.75">
-      <c r="A800" s="23"/>
+      <c r="A800" s="24"/>
       <c r="B800" s="7"/>
       <c r="C800" s="8"/>
       <c r="D800" s="8"/>
@@ -14156,7 +14162,7 @@
       <c r="G800" s="8"/>
     </row>
     <row r="801" spans="1:7" ht="12.75">
-      <c r="A801" s="23"/>
+      <c r="A801" s="24"/>
       <c r="B801" s="7"/>
       <c r="C801" s="8"/>
       <c r="D801" s="8"/>
@@ -14165,7 +14171,7 @@
       <c r="G801" s="8"/>
     </row>
     <row r="802" spans="1:7" ht="12.75">
-      <c r="A802" s="23"/>
+      <c r="A802" s="24"/>
       <c r="B802" s="7"/>
       <c r="C802" s="8"/>
       <c r="D802" s="8"/>
@@ -14174,7 +14180,7 @@
       <c r="G802" s="8"/>
     </row>
     <row r="803" spans="1:7" ht="12.75">
-      <c r="A803" s="23"/>
+      <c r="A803" s="24"/>
       <c r="B803" s="7"/>
       <c r="C803" s="8"/>
       <c r="D803" s="8"/>
@@ -14183,7 +14189,7 @@
       <c r="G803" s="8"/>
     </row>
     <row r="804" spans="1:7" ht="12.75">
-      <c r="A804" s="23"/>
+      <c r="A804" s="24"/>
       <c r="B804" s="7"/>
       <c r="C804" s="8"/>
       <c r="D804" s="8"/>
@@ -14192,7 +14198,7 @@
       <c r="G804" s="8"/>
     </row>
     <row r="805" spans="1:7" ht="12.75">
-      <c r="A805" s="23"/>
+      <c r="A805" s="24"/>
       <c r="B805" s="7"/>
       <c r="C805" s="8"/>
       <c r="D805" s="8"/>
@@ -14201,7 +14207,7 @@
       <c r="G805" s="8"/>
     </row>
     <row r="806" spans="1:7" ht="12.75">
-      <c r="A806" s="23"/>
+      <c r="A806" s="24"/>
       <c r="B806" s="7"/>
       <c r="C806" s="8"/>
       <c r="D806" s="8"/>
@@ -14210,7 +14216,7 @@
       <c r="G806" s="8"/>
     </row>
     <row r="807" spans="1:7" ht="12.75">
-      <c r="A807" s="23"/>
+      <c r="A807" s="24"/>
       <c r="B807" s="7"/>
       <c r="C807" s="8"/>
       <c r="D807" s="8"/>
@@ -14219,7 +14225,7 @@
       <c r="G807" s="8"/>
     </row>
     <row r="808" spans="1:7" ht="12.75">
-      <c r="A808" s="23"/>
+      <c r="A808" s="24"/>
       <c r="B808" s="7"/>
       <c r="C808" s="8"/>
       <c r="D808" s="8"/>
@@ -14228,7 +14234,7 @@
       <c r="G808" s="8"/>
     </row>
     <row r="809" spans="1:7" ht="12.75">
-      <c r="A809" s="23"/>
+      <c r="A809" s="24"/>
       <c r="B809" s="7"/>
       <c r="C809" s="8"/>
       <c r="D809" s="8"/>
@@ -14237,7 +14243,7 @@
       <c r="G809" s="8"/>
     </row>
     <row r="810" spans="1:7" ht="12.75">
-      <c r="A810" s="23"/>
+      <c r="A810" s="24"/>
       <c r="B810" s="7"/>
       <c r="C810" s="8"/>
       <c r="D810" s="8"/>
@@ -14246,7 +14252,7 @@
       <c r="G810" s="8"/>
     </row>
     <row r="811" spans="1:7" ht="12.75">
-      <c r="A811" s="23"/>
+      <c r="A811" s="24"/>
       <c r="B811" s="7"/>
       <c r="C811" s="8"/>
       <c r="D811" s="8"/>
@@ -14255,7 +14261,7 @@
       <c r="G811" s="8"/>
     </row>
     <row r="812" spans="1:7" ht="12.75">
-      <c r="A812" s="23"/>
+      <c r="A812" s="24"/>
       <c r="B812" s="7"/>
       <c r="C812" s="8"/>
       <c r="D812" s="8"/>
@@ -14264,7 +14270,7 @@
       <c r="G812" s="8"/>
     </row>
     <row r="813" spans="1:7" ht="12.75">
-      <c r="A813" s="23"/>
+      <c r="A813" s="24"/>
       <c r="B813" s="7"/>
       <c r="C813" s="8"/>
       <c r="D813" s="8"/>
@@ -14273,7 +14279,7 @@
       <c r="G813" s="8"/>
     </row>
     <row r="814" spans="1:7" ht="12.75">
-      <c r="A814" s="23"/>
+      <c r="A814" s="24"/>
       <c r="B814" s="7"/>
       <c r="C814" s="8"/>
       <c r="D814" s="8"/>
@@ -14282,7 +14288,7 @@
       <c r="G814" s="8"/>
     </row>
     <row r="815" spans="1:7" ht="12.75">
-      <c r="A815" s="23"/>
+      <c r="A815" s="24"/>
       <c r="B815" s="7"/>
       <c r="C815" s="8"/>
       <c r="D815" s="8"/>
@@ -14291,7 +14297,7 @@
       <c r="G815" s="8"/>
     </row>
     <row r="816" spans="1:7" ht="12.75">
-      <c r="A816" s="23"/>
+      <c r="A816" s="24"/>
       <c r="B816" s="7"/>
       <c r="C816" s="8"/>
       <c r="D816" s="8"/>
@@ -14300,7 +14306,7 @@
       <c r="G816" s="8"/>
     </row>
     <row r="817" spans="1:7" ht="12.75">
-      <c r="A817" s="23"/>
+      <c r="A817" s="24"/>
       <c r="B817" s="7"/>
       <c r="C817" s="8"/>
       <c r="D817" s="8"/>
@@ -14309,7 +14315,7 @@
       <c r="G817" s="8"/>
     </row>
     <row r="818" spans="1:7" ht="12.75">
-      <c r="A818" s="23"/>
+      <c r="A818" s="24"/>
       <c r="B818" s="7"/>
       <c r="C818" s="8"/>
       <c r="D818" s="8"/>
@@ -14318,7 +14324,7 @@
       <c r="G818" s="8"/>
     </row>
     <row r="819" spans="1:7" ht="12.75">
-      <c r="A819" s="23"/>
+      <c r="A819" s="24"/>
       <c r="B819" s="7"/>
       <c r="C819" s="8"/>
       <c r="D819" s="8"/>
@@ -14327,7 +14333,7 @@
       <c r="G819" s="8"/>
     </row>
     <row r="820" spans="1:7" ht="12.75">
-      <c r="A820" s="23"/>
+      <c r="A820" s="24"/>
       <c r="B820" s="7"/>
       <c r="C820" s="8"/>
       <c r="D820" s="8"/>
@@ -14336,7 +14342,7 @@
       <c r="G820" s="8"/>
     </row>
     <row r="821" spans="1:7" ht="12.75">
-      <c r="A821" s="23"/>
+      <c r="A821" s="24"/>
       <c r="B821" s="7"/>
       <c r="C821" s="8"/>
       <c r="D821" s="8"/>
@@ -14345,7 +14351,7 @@
       <c r="G821" s="8"/>
     </row>
     <row r="822" spans="1:7" ht="12.75">
-      <c r="A822" s="23"/>
+      <c r="A822" s="24"/>
       <c r="B822" s="7"/>
       <c r="C822" s="8"/>
       <c r="D822" s="8"/>
@@ -14354,7 +14360,7 @@
       <c r="G822" s="8"/>
     </row>
     <row r="823" spans="1:7" ht="12.75">
-      <c r="A823" s="23"/>
+      <c r="A823" s="24"/>
       <c r="B823" s="7"/>
       <c r="C823" s="8"/>
       <c r="D823" s="8"/>
@@ -14363,7 +14369,7 @@
       <c r="G823" s="8"/>
     </row>
     <row r="824" spans="1:7" ht="12.75">
-      <c r="A824" s="23"/>
+      <c r="A824" s="24"/>
       <c r="B824" s="7"/>
       <c r="C824" s="8"/>
       <c r="D824" s="8"/>
@@ -14372,7 +14378,7 @@
       <c r="G824" s="8"/>
     </row>
     <row r="825" spans="1:7" ht="12.75">
-      <c r="A825" s="23"/>
+      <c r="A825" s="24"/>
       <c r="B825" s="7"/>
       <c r="C825" s="8"/>
       <c r="D825" s="8"/>
@@ -14381,7 +14387,7 @@
       <c r="G825" s="8"/>
     </row>
     <row r="826" spans="1:7" ht="12.75">
-      <c r="A826" s="23"/>
+      <c r="A826" s="24"/>
       <c r="B826" s="7"/>
       <c r="C826" s="8"/>
       <c r="D826" s="8"/>
@@ -14390,7 +14396,7 @@
       <c r="G826" s="8"/>
     </row>
     <row r="827" spans="1:7" ht="12.75">
-      <c r="A827" s="23"/>
+      <c r="A827" s="24"/>
       <c r="B827" s="7"/>
       <c r="C827" s="8"/>
       <c r="D827" s="8"/>
@@ -14399,7 +14405,7 @@
       <c r="G827" s="8"/>
     </row>
     <row r="828" spans="1:7" ht="12.75">
-      <c r="A828" s="23"/>
+      <c r="A828" s="24"/>
       <c r="B828" s="7"/>
       <c r="C828" s="8"/>
       <c r="D828" s="8"/>
@@ -14408,7 +14414,7 @@
       <c r="G828" s="8"/>
     </row>
     <row r="829" spans="1:7" ht="12.75">
-      <c r="A829" s="23"/>
+      <c r="A829" s="24"/>
       <c r="B829" s="7"/>
       <c r="C829" s="8"/>
       <c r="D829" s="8"/>
@@ -14417,7 +14423,7 @@
       <c r="G829" s="8"/>
     </row>
     <row r="830" spans="1:7" ht="12.75">
-      <c r="A830" s="23"/>
+      <c r="A830" s="24"/>
       <c r="B830" s="7"/>
       <c r="C830" s="8"/>
       <c r="D830" s="8"/>
@@ -14426,7 +14432,7 @@
       <c r="G830" s="8"/>
     </row>
     <row r="831" spans="1:7" ht="12.75">
-      <c r="A831" s="23"/>
+      <c r="A831" s="24"/>
       <c r="B831" s="7"/>
       <c r="C831" s="8"/>
       <c r="D831" s="8"/>
@@ -14435,7 +14441,7 @@
       <c r="G831" s="8"/>
     </row>
     <row r="832" spans="1:7" ht="12.75">
-      <c r="A832" s="23"/>
+      <c r="A832" s="24"/>
       <c r="B832" s="7"/>
       <c r="C832" s="8"/>
       <c r="D832" s="8"/>
@@ -14444,7 +14450,7 @@
       <c r="G832" s="8"/>
     </row>
     <row r="833" spans="1:7" ht="12.75">
-      <c r="A833" s="23"/>
+      <c r="A833" s="24"/>
       <c r="B833" s="7"/>
       <c r="C833" s="8"/>
       <c r="D833" s="8"/>
@@ -14453,7 +14459,7 @@
       <c r="G833" s="8"/>
     </row>
     <row r="834" spans="1:7" ht="12.75">
-      <c r="A834" s="23"/>
+      <c r="A834" s="24"/>
       <c r="B834" s="7"/>
       <c r="C834" s="8"/>
       <c r="D834" s="8"/>
@@ -14462,7 +14468,7 @@
       <c r="G834" s="8"/>
     </row>
     <row r="835" spans="1:7" ht="12.75">
-      <c r="A835" s="23"/>
+      <c r="A835" s="24"/>
       <c r="B835" s="7"/>
       <c r="C835" s="8"/>
       <c r="D835" s="8"/>
@@ -14471,7 +14477,7 @@
       <c r="G835" s="8"/>
     </row>
     <row r="836" spans="1:7" ht="12.75">
-      <c r="A836" s="23"/>
+      <c r="A836" s="24"/>
       <c r="B836" s="7"/>
       <c r="C836" s="8"/>
       <c r="D836" s="8"/>
@@ -14480,7 +14486,7 @@
       <c r="G836" s="8"/>
     </row>
     <row r="837" spans="1:7" ht="12.75">
-      <c r="A837" s="23"/>
+      <c r="A837" s="24"/>
       <c r="B837" s="7"/>
       <c r="C837" s="8"/>
       <c r="D837" s="8"/>
@@ -14489,7 +14495,7 @@
       <c r="G837" s="8"/>
     </row>
     <row r="838" spans="1:7" ht="12.75">
-      <c r="A838" s="23"/>
+      <c r="A838" s="24"/>
       <c r="B838" s="7"/>
       <c r="C838" s="8"/>
       <c r="D838" s="8"/>
@@ -14498,7 +14504,7 @@
       <c r="G838" s="8"/>
     </row>
     <row r="839" spans="1:7" ht="12.75">
-      <c r="A839" s="23"/>
+      <c r="A839" s="24"/>
       <c r="B839" s="7"/>
       <c r="C839" s="8"/>
       <c r="D839" s="8"/>
@@ -14507,7 +14513,7 @@
       <c r="G839" s="8"/>
     </row>
     <row r="840" spans="1:7" ht="12.75">
-      <c r="A840" s="23"/>
+      <c r="A840" s="24"/>
       <c r="B840" s="7"/>
       <c r="C840" s="8"/>
       <c r="D840" s="8"/>
@@ -14516,7 +14522,7 @@
       <c r="G840" s="8"/>
     </row>
     <row r="841" spans="1:7" ht="12.75">
-      <c r="A841" s="23"/>
+      <c r="A841" s="24"/>
       <c r="B841" s="7"/>
       <c r="C841" s="8"/>
       <c r="D841" s="8"/>
@@ -14525,7 +14531,7 @@
       <c r="G841" s="8"/>
     </row>
     <row r="842" spans="1:7" ht="12.75">
-      <c r="A842" s="23"/>
+      <c r="A842" s="24"/>
       <c r="B842" s="7"/>
       <c r="C842" s="8"/>
       <c r="D842" s="8"/>
@@ -14534,7 +14540,7 @@
       <c r="G842" s="8"/>
     </row>
     <row r="843" spans="1:7" ht="12.75">
-      <c r="A843" s="23"/>
+      <c r="A843" s="24"/>
       <c r="B843" s="7"/>
       <c r="C843" s="8"/>
       <c r="D843" s="8"/>
@@ -14543,7 +14549,7 @@
       <c r="G843" s="8"/>
     </row>
     <row r="844" spans="1:7" ht="12.75">
-      <c r="A844" s="23"/>
+      <c r="A844" s="24"/>
       <c r="B844" s="7"/>
       <c r="C844" s="8"/>
       <c r="D844" s="8"/>
@@ -14552,7 +14558,7 @@
       <c r="G844" s="8"/>
     </row>
     <row r="845" spans="1:7" ht="12.75">
-      <c r="A845" s="23"/>
+      <c r="A845" s="24"/>
       <c r="B845" s="7"/>
       <c r="C845" s="8"/>
       <c r="D845" s="8"/>
@@ -14561,7 +14567,7 @@
       <c r="G845" s="8"/>
     </row>
     <row r="846" spans="1:7" ht="12.75">
-      <c r="A846" s="23"/>
+      <c r="A846" s="24"/>
       <c r="B846" s="7"/>
       <c r="C846" s="8"/>
       <c r="D846" s="8"/>
@@ -14570,7 +14576,7 @@
       <c r="G846" s="8"/>
     </row>
     <row r="847" spans="1:7" ht="12.75">
-      <c r="A847" s="23"/>
+      <c r="A847" s="24"/>
       <c r="B847" s="7"/>
       <c r="C847" s="8"/>
       <c r="D847" s="8"/>
@@ -14579,7 +14585,7 @@
       <c r="G847" s="8"/>
     </row>
     <row r="848" spans="1:7" ht="12.75">
-      <c r="A848" s="23"/>
+      <c r="A848" s="24"/>
       <c r="B848" s="7"/>
       <c r="C848" s="8"/>
       <c r="D848" s="8"/>
@@ -14588,7 +14594,7 @@
       <c r="G848" s="8"/>
     </row>
     <row r="849" spans="1:7" ht="12.75">
-      <c r="A849" s="23"/>
+      <c r="A849" s="24"/>
       <c r="B849" s="7"/>
       <c r="C849" s="8"/>
       <c r="D849" s="8"/>
@@ -14597,7 +14603,7 @@
       <c r="G849" s="8"/>
     </row>
     <row r="850" spans="1:7" ht="12.75">
-      <c r="A850" s="23"/>
+      <c r="A850" s="24"/>
       <c r="B850" s="7"/>
       <c r="C850" s="8"/>
       <c r="D850" s="8"/>
@@ -14606,7 +14612,7 @@
       <c r="G850" s="8"/>
     </row>
     <row r="851" spans="1:7" ht="12.75">
-      <c r="A851" s="23"/>
+      <c r="A851" s="24"/>
       <c r="B851" s="7"/>
       <c r="C851" s="8"/>
       <c r="D851" s="8"/>
@@ -14615,7 +14621,7 @@
       <c r="G851" s="8"/>
     </row>
     <row r="852" spans="1:7" ht="12.75">
-      <c r="A852" s="23"/>
+      <c r="A852" s="24"/>
       <c r="B852" s="7"/>
       <c r="C852" s="8"/>
       <c r="D852" s="8"/>
@@ -14624,7 +14630,7 @@
       <c r="G852" s="8"/>
     </row>
     <row r="853" spans="1:7" ht="12.75">
-      <c r="A853" s="23"/>
+      <c r="A853" s="24"/>
       <c r="B853" s="7"/>
       <c r="C853" s="8"/>
       <c r="D853" s="8"/>
@@ -14633,7 +14639,7 @@
       <c r="G853" s="8"/>
     </row>
     <row r="854" spans="1:7" ht="12.75">
-      <c r="A854" s="23"/>
+      <c r="A854" s="24"/>
       <c r="B854" s="7"/>
       <c r="C854" s="8"/>
       <c r="D854" s="8"/>
@@ -14642,7 +14648,7 @@
       <c r="G854" s="8"/>
     </row>
     <row r="855" spans="1:7" ht="12.75">
-      <c r="A855" s="23"/>
+      <c r="A855" s="24"/>
       <c r="B855" s="7"/>
       <c r="C855" s="8"/>
       <c r="D855" s="8"/>
@@ -14651,7 +14657,7 @@
       <c r="G855" s="8"/>
     </row>
     <row r="856" spans="1:7" ht="12.75">
-      <c r="A856" s="23"/>
+      <c r="A856" s="24"/>
       <c r="B856" s="7"/>
       <c r="C856" s="8"/>
       <c r="D856" s="8"/>
@@ -14660,7 +14666,7 @@
       <c r="G856" s="8"/>
     </row>
     <row r="857" spans="1:7" ht="12.75">
-      <c r="A857" s="23"/>
+      <c r="A857" s="24"/>
       <c r="B857" s="7"/>
       <c r="C857" s="8"/>
       <c r="D857" s="8"/>
@@ -14669,7 +14675,7 @@
       <c r="G857" s="8"/>
     </row>
     <row r="858" spans="1:7" ht="12.75">
-      <c r="A858" s="23"/>
+      <c r="A858" s="24"/>
       <c r="B858" s="7"/>
       <c r="C858" s="8"/>
       <c r="D858" s="8"/>
@@ -14678,7 +14684,7 @@
       <c r="G858" s="8"/>
     </row>
     <row r="859" spans="1:7" ht="12.75">
-      <c r="A859" s="23"/>
+      <c r="A859" s="24"/>
       <c r="B859" s="7"/>
       <c r="C859" s="8"/>
       <c r="D859" s="8"/>
@@ -14687,7 +14693,7 @@
       <c r="G859" s="8"/>
     </row>
     <row r="860" spans="1:7" ht="12.75">
-      <c r="A860" s="23"/>
+      <c r="A860" s="24"/>
       <c r="B860" s="7"/>
       <c r="C860" s="8"/>
       <c r="D860" s="8"/>
@@ -14696,7 +14702,7 @@
       <c r="G860" s="8"/>
     </row>
     <row r="861" spans="1:7" ht="12.75">
-      <c r="A861" s="23"/>
+      <c r="A861" s="24"/>
       <c r="B861" s="7"/>
       <c r="C861" s="8"/>
       <c r="D861" s="8"/>
@@ -14705,7 +14711,7 @@
       <c r="G861" s="8"/>
     </row>
     <row r="862" spans="1:7" ht="12.75">
-      <c r="A862" s="23"/>
+      <c r="A862" s="24"/>
       <c r="B862" s="7"/>
       <c r="C862" s="8"/>
       <c r="D862" s="8"/>
@@ -14714,7 +14720,7 @@
       <c r="G862" s="8"/>
     </row>
     <row r="863" spans="1:7" ht="12.75">
-      <c r="A863" s="23"/>
+      <c r="A863" s="24"/>
       <c r="B863" s="7"/>
       <c r="C863" s="8"/>
       <c r="D863" s="8"/>
@@ -14723,7 +14729,7 @@
       <c r="G863" s="8"/>
     </row>
     <row r="864" spans="1:7" ht="12.75">
-      <c r="A864" s="23"/>
+      <c r="A864" s="24"/>
       <c r="B864" s="7"/>
       <c r="C864" s="8"/>
       <c r="D864" s="8"/>
@@ -14732,7 +14738,7 @@
       <c r="G864" s="8"/>
     </row>
     <row r="865" spans="1:7" ht="12.75">
-      <c r="A865" s="23"/>
+      <c r="A865" s="24"/>
       <c r="B865" s="7"/>
       <c r="C865" s="8"/>
       <c r="D865" s="8"/>
@@ -14741,7 +14747,7 @@
       <c r="G865" s="8"/>
     </row>
     <row r="866" spans="1:7" ht="12.75">
-      <c r="A866" s="23"/>
+      <c r="A866" s="24"/>
       <c r="B866" s="7"/>
       <c r="C866" s="8"/>
       <c r="D866" s="8"/>
@@ -14750,7 +14756,7 @@
       <c r="G866" s="8"/>
     </row>
     <row r="867" spans="1:7" ht="12.75">
-      <c r="A867" s="23"/>
+      <c r="A867" s="24"/>
       <c r="B867" s="7"/>
       <c r="C867" s="8"/>
       <c r="D867" s="8"/>
@@ -14759,7 +14765,7 @@
       <c r="G867" s="8"/>
     </row>
     <row r="868" spans="1:7" ht="12.75">
-      <c r="A868" s="23"/>
+      <c r="A868" s="24"/>
       <c r="B868" s="7"/>
       <c r="C868" s="8"/>
       <c r="D868" s="8"/>
@@ -14768,7 +14774,7 @@
       <c r="G868" s="8"/>
     </row>
     <row r="869" spans="1:7" ht="12.75">
-      <c r="A869" s="23"/>
+      <c r="A869" s="24"/>
       <c r="B869" s="7"/>
       <c r="C869" s="8"/>
       <c r="D869" s="8"/>
@@ -14777,7 +14783,7 @@
       <c r="G869" s="8"/>
     </row>
     <row r="870" spans="1:7" ht="12.75">
-      <c r="A870" s="23"/>
+      <c r="A870" s="24"/>
       <c r="B870" s="7"/>
       <c r="C870" s="8"/>
       <c r="D870" s="8"/>
@@ -14786,7 +14792,7 @@
       <c r="G870" s="8"/>
     </row>
     <row r="871" spans="1:7" ht="12.75">
-      <c r="A871" s="23"/>
+      <c r="A871" s="24"/>
       <c r="B871" s="7"/>
       <c r="C871" s="8"/>
       <c r="D871" s="8"/>
@@ -14795,7 +14801,7 @@
       <c r="G871" s="8"/>
     </row>
     <row r="872" spans="1:7" ht="12.75">
-      <c r="A872" s="23"/>
+      <c r="A872" s="24"/>
       <c r="B872" s="7"/>
       <c r="C872" s="8"/>
       <c r="D872" s="8"/>
@@ -14804,7 +14810,7 @@
       <c r="G872" s="8"/>
     </row>
     <row r="873" spans="1:7" ht="12.75">
-      <c r="A873" s="23"/>
+      <c r="A873" s="24"/>
       <c r="B873" s="7"/>
       <c r="C873" s="8"/>
       <c r="D873" s="8"/>
@@ -14813,7 +14819,7 @@
       <c r="G873" s="8"/>
     </row>
     <row r="874" spans="1:7" ht="12.75">
-      <c r="A874" s="23"/>
+      <c r="A874" s="24"/>
       <c r="B874" s="7"/>
       <c r="C874" s="8"/>
       <c r="D874" s="8"/>
@@ -14822,7 +14828,7 @@
       <c r="G874" s="8"/>
     </row>
     <row r="875" spans="1:7" ht="12.75">
-      <c r="A875" s="23"/>
+      <c r="A875" s="24"/>
       <c r="B875" s="7"/>
       <c r="C875" s="8"/>
       <c r="D875" s="8"/>
@@ -14831,7 +14837,7 @@
       <c r="G875" s="8"/>
     </row>
     <row r="876" spans="1:7" ht="12.75">
-      <c r="A876" s="23"/>
+      <c r="A876" s="24"/>
       <c r="B876" s="7"/>
       <c r="C876" s="8"/>
       <c r="D876" s="8"/>
@@ -14840,7 +14846,7 @@
       <c r="G876" s="8"/>
     </row>
     <row r="877" spans="1:7" ht="12.75">
-      <c r="A877" s="23"/>
+      <c r="A877" s="24"/>
       <c r="B877" s="7"/>
       <c r="C877" s="8"/>
       <c r="D877" s="8"/>
@@ -14849,7 +14855,7 @@
       <c r="G877" s="8"/>
     </row>
     <row r="878" spans="1:7" ht="12.75">
-      <c r="A878" s="23"/>
+      <c r="A878" s="24"/>
       <c r="B878" s="7"/>
       <c r="C878" s="8"/>
       <c r="D878" s="8"/>
@@ -14858,7 +14864,7 @@
       <c r="G878" s="8"/>
     </row>
     <row r="879" spans="1:7" ht="12.75">
-      <c r="A879" s="23"/>
+      <c r="A879" s="24"/>
       <c r="B879" s="7"/>
       <c r="C879" s="8"/>
       <c r="D879" s="8"/>
@@ -14867,7 +14873,7 @@
       <c r="G879" s="8"/>
     </row>
     <row r="880" spans="1:7" ht="12.75">
-      <c r="A880" s="23"/>
+      <c r="A880" s="24"/>
       <c r="B880" s="7"/>
       <c r="C880" s="8"/>
       <c r="D880" s="8"/>
@@ -14876,7 +14882,7 @@
       <c r="G880" s="8"/>
     </row>
     <row r="881" spans="1:7" ht="12.75">
-      <c r="A881" s="23"/>
+      <c r="A881" s="24"/>
       <c r="B881" s="7"/>
       <c r="C881" s="8"/>
       <c r="D881" s="8"/>
@@ -14885,7 +14891,7 @@
       <c r="G881" s="8"/>
     </row>
     <row r="882" spans="1:7" ht="12.75">
-      <c r="A882" s="23"/>
+      <c r="A882" s="24"/>
       <c r="B882" s="7"/>
       <c r="C882" s="8"/>
       <c r="D882" s="8"/>
@@ -14894,7 +14900,7 @@
       <c r="G882" s="8"/>
     </row>
     <row r="883" spans="1:7" ht="12.75">
-      <c r="A883" s="23"/>
+      <c r="A883" s="24"/>
       <c r="B883" s="7"/>
       <c r="C883" s="8"/>
       <c r="D883" s="8"/>
@@ -14903,7 +14909,7 @@
       <c r="G883" s="8"/>
     </row>
     <row r="884" spans="1:7" ht="12.75">
-      <c r="A884" s="23"/>
+      <c r="A884" s="24"/>
       <c r="B884" s="7"/>
       <c r="C884" s="8"/>
       <c r="D884" s="8"/>
@@ -14912,7 +14918,7 @@
       <c r="G884" s="8"/>
     </row>
     <row r="885" spans="1:7" ht="12.75">
-      <c r="A885" s="23"/>
+      <c r="A885" s="24"/>
       <c r="B885" s="7"/>
       <c r="C885" s="8"/>
       <c r="D885" s="8"/>
@@ -14921,7 +14927,7 @@
       <c r="G885" s="8"/>
     </row>
     <row r="886" spans="1:7" ht="12.75">
-      <c r="A886" s="23"/>
+      <c r="A886" s="24"/>
       <c r="B886" s="7"/>
       <c r="C886" s="8"/>
       <c r="D886" s="8"/>
@@ -14930,7 +14936,7 @@
       <c r="G886" s="8"/>
     </row>
     <row r="887" spans="1:7" ht="12.75">
-      <c r="A887" s="23"/>
+      <c r="A887" s="24"/>
       <c r="B887" s="7"/>
       <c r="C887" s="8"/>
       <c r="D887" s="8"/>
@@ -14939,7 +14945,7 @@
       <c r="G887" s="8"/>
     </row>
     <row r="888" spans="1:7" ht="12.75">
-      <c r="A888" s="23"/>
+      <c r="A888" s="24"/>
       <c r="B888" s="7"/>
       <c r="C888" s="8"/>
       <c r="D888" s="8"/>
@@ -14948,7 +14954,7 @@
       <c r="G888" s="8"/>
     </row>
     <row r="889" spans="1:7" ht="12.75">
-      <c r="A889" s="23"/>
+      <c r="A889" s="24"/>
       <c r="B889" s="7"/>
       <c r="C889" s="8"/>
       <c r="D889" s="8"/>
@@ -14957,7 +14963,7 @@
       <c r="G889" s="8"/>
     </row>
     <row r="890" spans="1:7" ht="12.75">
-      <c r="A890" s="23"/>
+      <c r="A890" s="24"/>
       <c r="B890" s="7"/>
       <c r="C890" s="8"/>
       <c r="D890" s="8"/>
@@ -14966,7 +14972,7 @@
       <c r="G890" s="8"/>
     </row>
     <row r="891" spans="1:7" ht="12.75">
-      <c r="A891" s="23"/>
+      <c r="A891" s="24"/>
       <c r="B891" s="7"/>
       <c r="C891" s="8"/>
       <c r="D891" s="8"/>
@@ -14975,7 +14981,7 @@
       <c r="G891" s="8"/>
     </row>
     <row r="892" spans="1:7" ht="12.75">
-      <c r="A892" s="23"/>
+      <c r="A892" s="24"/>
       <c r="B892" s="7"/>
       <c r="C892" s="8"/>
       <c r="D892" s="8"/>
@@ -14984,7 +14990,7 @@
       <c r="G892" s="8"/>
     </row>
     <row r="893" spans="1:7" ht="12.75">
-      <c r="A893" s="23"/>
+      <c r="A893" s="24"/>
       <c r="B893" s="7"/>
       <c r="C893" s="8"/>
       <c r="D893" s="8"/>
@@ -14993,7 +14999,7 @@
       <c r="G893" s="8"/>
     </row>
     <row r="894" spans="1:7" ht="12.75">
-      <c r="A894" s="23"/>
+      <c r="A894" s="24"/>
       <c r="B894" s="7"/>
       <c r="C894" s="8"/>
       <c r="D894" s="8"/>
@@ -15002,7 +15008,7 @@
       <c r="G894" s="8"/>
     </row>
     <row r="895" spans="1:7" ht="12.75">
-      <c r="A895" s="23"/>
+      <c r="A895" s="24"/>
       <c r="B895" s="7"/>
       <c r="C895" s="8"/>
       <c r="D895" s="8"/>
@@ -15011,7 +15017,7 @@
       <c r="G895" s="8"/>
     </row>
     <row r="896" spans="1:7" ht="12.75">
-      <c r="A896" s="23"/>
+      <c r="A896" s="24"/>
       <c r="B896" s="7"/>
       <c r="C896" s="8"/>
       <c r="D896" s="8"/>
@@ -15020,7 +15026,7 @@
       <c r="G896" s="8"/>
     </row>
     <row r="897" spans="1:7" ht="12.75">
-      <c r="A897" s="23"/>
+      <c r="A897" s="24"/>
       <c r="B897" s="7"/>
       <c r="C897" s="8"/>
       <c r="D897" s="8"/>
@@ -15029,7 +15035,7 @@
       <c r="G897" s="8"/>
     </row>
     <row r="898" spans="1:7" ht="12.75">
-      <c r="A898" s="23"/>
+      <c r="A898" s="24"/>
       <c r="B898" s="7"/>
       <c r="C898" s="8"/>
       <c r="D898" s="8"/>
@@ -15038,7 +15044,7 @@
       <c r="G898" s="8"/>
     </row>
     <row r="899" spans="1:7" ht="12.75">
-      <c r="A899" s="23"/>
+      <c r="A899" s="24"/>
       <c r="B899" s="7"/>
       <c r="C899" s="8"/>
       <c r="D899" s="8"/>
@@ -15047,7 +15053,7 @@
       <c r="G899" s="8"/>
     </row>
     <row r="900" spans="1:7" ht="12.75">
-      <c r="A900" s="23"/>
+      <c r="A900" s="24"/>
       <c r="B900" s="7"/>
       <c r="C900" s="8"/>
       <c r="D900" s="8"/>
@@ -15056,7 +15062,7 @@
       <c r="G900" s="8"/>
     </row>
     <row r="901" spans="1:7" ht="12.75">
-      <c r="A901" s="23"/>
+      <c r="A901" s="24"/>
       <c r="B901" s="7"/>
       <c r="C901" s="8"/>
       <c r="D901" s="8"/>
@@ -15065,7 +15071,7 @@
       <c r="G901" s="8"/>
     </row>
     <row r="902" spans="1:7" ht="12.75">
-      <c r="A902" s="23"/>
+      <c r="A902" s="24"/>
       <c r="B902" s="7"/>
       <c r="C902" s="8"/>
       <c r="D902" s="8"/>
@@ -15074,7 +15080,7 @@
       <c r="G902" s="8"/>
     </row>
     <row r="903" spans="1:7" ht="12.75">
-      <c r="A903" s="23"/>
+      <c r="A903" s="24"/>
       <c r="B903" s="7"/>
       <c r="C903" s="8"/>
       <c r="D903" s="8"/>
@@ -15083,7 +15089,7 @@
       <c r="G903" s="8"/>
     </row>
     <row r="904" spans="1:7" ht="12.75">
-      <c r="A904" s="23"/>
+      <c r="A904" s="24"/>
       <c r="B904" s="7"/>
       <c r="C904" s="8"/>
       <c r="D904" s="8"/>
@@ -15092,7 +15098,7 @@
       <c r="G904" s="8"/>
     </row>
     <row r="905" spans="1:7" ht="12.75">
-      <c r="A905" s="23"/>
+      <c r="A905" s="24"/>
       <c r="B905" s="7"/>
       <c r="C905" s="8"/>
       <c r="D905" s="8"/>
@@ -15101,7 +15107,7 @@
       <c r="G905" s="8"/>
     </row>
     <row r="906" spans="1:7" ht="12.75">
-      <c r="A906" s="23"/>
+      <c r="A906" s="24"/>
       <c r="B906" s="7"/>
       <c r="C906" s="8"/>
       <c r="D906" s="8"/>
@@ -15120,30 +15126,14 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" sqref="B2:B906" xr:uid="{00000000-0002-0000-0100-000000000000}">
+      <formula1>#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="E2:F906" xr:uid="{00000000-0002-0000-0100-000001000000}">
+      <formula1>#REF!</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
-          <x14:formula1>
-            <xm:f>#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>B2:B906</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0100-000001000000}">
-          <x14:formula1>
-            <xm:f>#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>E2:E906</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0100-000002000000}">
-          <x14:formula1>
-            <xm:f>#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>F2:F906</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>